--- a/IM/202509_Service_Count_Report.xlsx
+++ b/IM/202509_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$10</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>服務次數統計表        篩選月份：202509</t>
   </si>
@@ -122,12 +122,102 @@
     <t>TJ22</t>
   </si>
   <si>
+    <t>吳宗鴻</t>
+  </si>
+  <si>
+    <t>2025-09-01</t>
+  </si>
+  <si>
+    <t>15:20:00</t>
+  </si>
+  <si>
+    <t>15:43:00</t>
+  </si>
+  <si>
+    <t>THILF02890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">萊爾富國際股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市蘆洲區鷺江街69號一樓</t>
+  </si>
+  <si>
+    <t>蘆洲鷺江店</t>
+  </si>
+  <si>
+    <t>服務</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>PMQ3</t>
+  </si>
+  <si>
+    <t>14:15:00</t>
+  </si>
+  <si>
+    <t>14:35:00</t>
+  </si>
+  <si>
+    <t>THILF03957</t>
+  </si>
+  <si>
+    <t>新北市三重區永福街97號及99號</t>
+  </si>
+  <si>
+    <t>三重福仁店</t>
+  </si>
+  <si>
+    <t>16:20:00</t>
+  </si>
+  <si>
+    <t>16:40:00</t>
+  </si>
+  <si>
+    <t>THILF05197</t>
+  </si>
+  <si>
+    <t>新北市蘆洲區永安南路二段268之1、268之2</t>
+  </si>
+  <si>
+    <t>蘆洲鴻悅店</t>
+  </si>
+  <si>
+    <t>15:50:00</t>
+  </si>
+  <si>
+    <t>16:10:00</t>
+  </si>
+  <si>
+    <t>THILF0D193</t>
+  </si>
+  <si>
+    <t>新北市蘆洲區民權路113號</t>
+  </si>
+  <si>
+    <t>蘆洲權義店</t>
+  </si>
+  <si>
+    <t>14:33:00</t>
+  </si>
+  <si>
+    <t>14:50:00</t>
+  </si>
+  <si>
+    <t>THILF0L517</t>
+  </si>
+  <si>
+    <t>新北市蘆洲區集賢路407號一樓部分</t>
+  </si>
+  <si>
+    <t>車麗屋蘆洲店</t>
+  </si>
+  <si>
     <t>湯家瑋</t>
   </si>
   <si>
-    <t>2025-09-01</t>
-  </si>
-  <si>
     <t>11:30:00</t>
   </si>
   <si>
@@ -137,22 +227,25 @@
     <t>THILF03921</t>
   </si>
   <si>
-    <t xml:space="preserve">萊爾富國際股份有限公司 </t>
-  </si>
-  <si>
     <t>新北市五股區五福路8、10號一樓全部</t>
   </si>
   <si>
     <t>五股福鑫店</t>
   </si>
   <si>
-    <t>服務</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>PMQ3</t>
+    <t>13:30:00</t>
+  </si>
+  <si>
+    <t>13:50:00</t>
+  </si>
+  <si>
+    <t>THILF04316</t>
+  </si>
+  <si>
+    <t>新北市五股區成泰路二段91巷9號1樓部份</t>
+  </si>
+  <si>
+    <t>五股工商店</t>
   </si>
   <si>
     <t>合計</t>
@@ -235,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -253,6 +346,9 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -566,10 +662,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -723,103 +819,499 @@
       </c>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
-        <v>2025090198</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2025090282</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6">
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7">
         <v>0</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="7" t="s">
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AA3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AB3" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="8" t="s">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2025090217</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB4" s="8">
-        <v>1</v>
+      <c r="H4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2025090294</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2025090290</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2025090222</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2025090198</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2025090208</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7">
+        <v>0</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202509_Service_Count_Report.xlsx
+++ b/IM/202509_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$38</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
   <si>
     <t>服務次數統計表        篩選月份：202509</t>
   </si>
@@ -218,6 +218,183 @@
     <t>湯家瑋</t>
   </si>
   <si>
+    <t>2025-09-02</t>
+  </si>
+  <si>
+    <t>09:00:00</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>T251000065</t>
+  </si>
+  <si>
+    <t>eS-2510AC 彩色複合機</t>
+  </si>
+  <si>
+    <t>MFP商品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台固媒體股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路657-12號8樓(新莊客服部)</t>
+  </si>
+  <si>
+    <t>新莊8F客服部</t>
+  </si>
+  <si>
+    <t>pm</t>
+  </si>
+  <si>
+    <t>抄表</t>
+  </si>
+  <si>
+    <t>09:30:00</t>
+  </si>
+  <si>
+    <t>T252000125</t>
+  </si>
+  <si>
+    <t>eS-2520AC 彩色複合機</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行股份有限公司林口文化分行</t>
+  </si>
+  <si>
+    <t>新北市林口區文化二路1段62-5號2F(放款部</t>
+  </si>
+  <si>
+    <t>林口文化2F放款部</t>
+  </si>
+  <si>
+    <t>16:00:00</t>
+  </si>
+  <si>
+    <t>16:30:00</t>
+  </si>
+  <si>
+    <t>T252000136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">漢庭營造股份有限公司 </t>
+  </si>
+  <si>
+    <t>台北市信義區德厚街76號7樓</t>
+  </si>
+  <si>
+    <t>三重</t>
+  </si>
+  <si>
+    <t>10:30:00</t>
+  </si>
+  <si>
+    <t>T302800057</t>
+  </si>
+  <si>
+    <t>eS-3028A 黑白複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台灣善美的股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市五股區工商路128號1樓(五股DC廠工商運輸)</t>
+  </si>
+  <si>
+    <t>五股DC廠工商運輸</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>14:30:00</t>
+  </si>
+  <si>
+    <t>T302800060</t>
+  </si>
+  <si>
+    <t>新北市五股區五工六路35號1樓(五股運輸)</t>
+  </si>
+  <si>
+    <t>五股運輸</t>
+  </si>
+  <si>
+    <t>15:30:00</t>
+  </si>
+  <si>
+    <t>T351800042</t>
+  </si>
+  <si>
+    <t>eS-3518A 黑白複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全聯實業股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市蘆洲區水湳街74號2樓</t>
+  </si>
+  <si>
+    <t>蘆洲北二處</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>T351800045</t>
+  </si>
+  <si>
+    <t>新北市五股區五工六路35號1樓(五股生鮮物流)</t>
+  </si>
+  <si>
+    <t>五股</t>
+  </si>
+  <si>
+    <t>T351800081</t>
+  </si>
+  <si>
+    <t>新莊8F</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>T351800110</t>
+  </si>
+  <si>
+    <t>新北市五股區五工六路35號4樓(五股)</t>
+  </si>
+  <si>
+    <t>T351800111</t>
+  </si>
+  <si>
+    <t>新北市五股區五工六路35號1樓(五股檢品)</t>
+  </si>
+  <si>
+    <t>五股檢品</t>
+  </si>
+  <si>
+    <t>T451800125</t>
+  </si>
+  <si>
+    <t>eS-4518A 黑白複合機</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路657-12號8樓(新莊8F)</t>
+  </si>
+  <si>
+    <t>T452800047</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eS-4528A 黑白複合機</t>
+  </si>
+  <si>
+    <t>新北市林口區文化二路1段62-5號1F(營業部)</t>
+  </si>
+  <si>
+    <t>林口文化1F營業部</t>
+  </si>
+  <si>
     <t>11:30:00</t>
   </si>
   <si>
@@ -246,6 +423,71 @@
   </si>
   <si>
     <t>五股工商店</t>
+  </si>
+  <si>
+    <t>狄澤洋</t>
+  </si>
+  <si>
+    <t>09:22:00</t>
+  </si>
+  <si>
+    <t>09:52:00</t>
+  </si>
+  <si>
+    <t>THILF02224</t>
+  </si>
+  <si>
+    <t>一般件</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>新北市板橋區文化路二段78號</t>
+  </si>
+  <si>
+    <t>板橋莒光店</t>
+  </si>
+  <si>
+    <t>維修</t>
+  </si>
+  <si>
+    <t>取消報修</t>
+  </si>
+  <si>
+    <t>08:50:00</t>
+  </si>
+  <si>
+    <t>09:50:00</t>
+  </si>
+  <si>
+    <t>THILF03752</t>
+  </si>
+  <si>
+    <t>急修件</t>
+  </si>
+  <si>
+    <t>新北市板橋區四川路一段391號1F</t>
+  </si>
+  <si>
+    <t>板橋豫章店</t>
+  </si>
+  <si>
+    <t>更換TCx800主機 硬碟無更換 
+換上 8185000114
+換下 8185002487</t>
+  </si>
+  <si>
+    <t>10:20:00</t>
+  </si>
+  <si>
+    <t>09:17:00</t>
+  </si>
+  <si>
+    <t>09:47:00</t>
+  </si>
+  <si>
+    <t>一般轉緊急</t>
   </si>
   <si>
     <t>合計</t>
@@ -662,10 +904,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AB38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1153,7 +1395,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>2025090198</v>
+        <v>2025090398</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1165,35 +1407,41 @@
         <v>61</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="L8" s="6" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>38</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="3">
+        <v>27754</v>
+      </c>
       <c r="R8" s="3">
-        <v>0</v>
+        <v>44996</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>39</v>
@@ -1205,21 +1453,17 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>1</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>2025090208</v>
+        <v>2025090399</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -1231,39 +1475,43 @@
         <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="L9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="M9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="8" t="s">
+      <c r="N9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="N9" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="O9" s="7" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="7">
+        <v>27754</v>
+      </c>
       <c r="R9" s="7">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>44996</v>
+      </c>
+      <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
@@ -1271,47 +1519,1915 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB9" s="7"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2025090339</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3">
+        <v>543</v>
+      </c>
+      <c r="R10" s="3">
+        <v>33024</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2025090340</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7">
+        <v>543</v>
+      </c>
+      <c r="R11" s="7">
+        <v>33024</v>
+      </c>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB11" s="7"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2025090353</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>41</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2025090354</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="R13" s="7">
+        <v>41</v>
+      </c>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB13" s="7"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2025090342</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3">
+        <v>276567</v>
+      </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2025090341</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7">
+        <v>276567</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2025090345</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3">
+        <v>218331</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2025090346</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7">
+        <v>218331</v>
+      </c>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB17" s="7"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2025090351</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3">
+        <v>295043</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2025090352</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7">
+        <v>295043</v>
+      </c>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB19" s="7"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2025090343</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3">
+        <v>116934</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7">
+        <v>2025090344</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7">
+        <v>116934</v>
+      </c>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB21" s="7"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2025090402</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3">
+        <v>117282</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7">
+        <v>2025090403</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7">
+        <v>117282</v>
+      </c>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB23" s="7"/>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2025090349</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3">
+        <v>183883</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2025090350</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7">
+        <v>183883</v>
+      </c>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB25" s="7"/>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2025090347</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3">
+        <v>355156</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7">
+        <v>2025090348</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7">
+        <v>355156</v>
+      </c>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB27" s="7"/>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2025090400</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3">
+        <v>3113</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7">
+        <v>2025090401</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7">
+        <v>3113</v>
+      </c>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB29" s="7"/>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2025090338</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3">
+        <v>48945</v>
+      </c>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7">
+        <v>2025090337</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7">
+        <v>48945</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2025090198</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AA9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB10" s="9">
-        <v>7</v>
+      <c r="AA32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7">
+        <v>2025090208</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7">
+        <v>0</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2025090356</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="7">
+        <v>2025090307</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7">
+        <v>0</v>
+      </c>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2025090382</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3">
+        <v>0</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB36" s="3"/>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="7">
+        <v>2025090012</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7">
+        <v>0</v>
+      </c>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB37" s="7"/>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB38" s="9">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202509_Service_Count_Report.xlsx
+++ b/IM/202509_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$49</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
   <si>
     <t>服務次數統計表        篩選月份：202509</t>
   </si>
@@ -125,6 +125,36 @@
     <t>吳宗鴻</t>
   </si>
   <si>
+    <t>2025-09-02</t>
+  </si>
+  <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>13:23:00</t>
+  </si>
+  <si>
+    <t>THILF02237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">萊爾富國際股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三芝區中正路一段68號</t>
+  </si>
+  <si>
+    <t>三芝芝蘭店</t>
+  </si>
+  <si>
+    <t>服務</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>PMQ3</t>
+  </si>
+  <si>
     <t>2025-09-01</t>
   </si>
   <si>
@@ -137,24 +167,12 @@
     <t>THILF02890</t>
   </si>
   <si>
-    <t xml:space="preserve">萊爾富國際股份有限公司 </t>
-  </si>
-  <si>
     <t>新北市蘆洲區鷺江街69號一樓</t>
   </si>
   <si>
     <t>蘆洲鷺江店</t>
   </si>
   <si>
-    <t>服務</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>PMQ3</t>
-  </si>
-  <si>
     <t>14:15:00</t>
   </si>
   <si>
@@ -170,9 +188,63 @@
     <t>三重福仁店</t>
   </si>
   <si>
+    <t>12:20:00</t>
+  </si>
+  <si>
+    <t>12:46:00</t>
+  </si>
+  <si>
+    <t>THILF04511</t>
+  </si>
+  <si>
+    <t>新北市淡水區淡金路5段98、100、102號</t>
+  </si>
+  <si>
+    <t>淡水屯山店</t>
+  </si>
+  <si>
+    <t>15:50:00</t>
+  </si>
+  <si>
+    <t>16:09:00</t>
+  </si>
+  <si>
+    <t>THILF04739</t>
+  </si>
+  <si>
+    <t>新北市淡水區北新路二段17號</t>
+  </si>
+  <si>
+    <t>淡水櫻花店</t>
+  </si>
+  <si>
+    <t>14:37:00</t>
+  </si>
+  <si>
+    <t>THILF04844</t>
+  </si>
+  <si>
+    <t>新北市三芝區田心子2號</t>
+  </si>
+  <si>
+    <t>三芝天涯店</t>
+  </si>
+  <si>
     <t>16:20:00</t>
   </si>
   <si>
+    <t>16:43:00</t>
+  </si>
+  <si>
+    <t>THILF05101</t>
+  </si>
+  <si>
+    <t>新北市淡水區小坪頂85號地下一層</t>
+  </si>
+  <si>
+    <t>淡水小坪頂</t>
+  </si>
+  <si>
     <t>16:40:00</t>
   </si>
   <si>
@@ -185,7 +257,19 @@
     <t>蘆洲鴻悅店</t>
   </si>
   <si>
-    <t>15:50:00</t>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>11:29:00</t>
+  </si>
+  <si>
+    <t>THILF0A171</t>
+  </si>
+  <si>
+    <t>新北市淡水區水源街２段１９４號一樓及地下一樓全部</t>
+  </si>
+  <si>
+    <t>淡水金龍店</t>
   </si>
   <si>
     <t>16:10:00</t>
@@ -218,9 +302,6 @@
     <t>湯家瑋</t>
   </si>
   <si>
-    <t>2025-09-02</t>
-  </si>
-  <si>
     <t>09:00:00</t>
   </si>
   <si>
@@ -338,9 +419,6 @@
     <t>蘆洲北二處</t>
   </si>
   <si>
-    <t>11:00:00</t>
-  </si>
-  <si>
     <t>T351800045</t>
   </si>
   <si>
@@ -374,12 +452,39 @@
     <t>五股檢品</t>
   </si>
   <si>
+    <t>11:30:00</t>
+  </si>
+  <si>
+    <t>T451800006</t>
+  </si>
+  <si>
+    <t>eS-4518A 黑白複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">凱擘股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路657-10號2樓</t>
+  </si>
+  <si>
+    <t>新莊</t>
+  </si>
+  <si>
+    <t>T451800027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台灣大哥大股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區重新路五段609巷2號4樓(客服)</t>
+  </si>
+  <si>
+    <t>台北客服4F申裝查核處(黑)</t>
+  </si>
+  <si>
     <t>T451800125</t>
   </si>
   <si>
-    <t>eS-4518A 黑白複合機</t>
-  </si>
-  <si>
     <t>新北市新莊區中正路657-12號8樓(新莊8F)</t>
   </si>
   <si>
@@ -395,9 +500,6 @@
     <t>林口文化1F營業部</t>
   </si>
   <si>
-    <t>11:30:00</t>
-  </si>
-  <si>
     <t>12:00:00</t>
   </si>
   <si>
@@ -425,6 +527,30 @@
     <t>五股工商店</t>
   </si>
   <si>
+    <t>13:20:00</t>
+  </si>
+  <si>
+    <t>THILF04856</t>
+  </si>
+  <si>
+    <t>一般件</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>新北市新莊區中港三街5及7號</t>
+  </si>
+  <si>
+    <t>新莊小胖店</t>
+  </si>
+  <si>
+    <t>維修</t>
+  </si>
+  <si>
+    <t>紙卷紙心變形無法列印 重裝紙卷</t>
+  </si>
+  <si>
     <t>狄澤洋</t>
   </si>
   <si>
@@ -437,19 +563,10 @@
     <t>THILF02224</t>
   </si>
   <si>
-    <t>一般件</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
     <t>新北市板橋區文化路二段78號</t>
   </si>
   <si>
     <t>板橋莒光店</t>
-  </si>
-  <si>
-    <t>維修</t>
   </si>
   <si>
     <t>取消報修</t>
@@ -904,10 +1021,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB38"/>
+  <dimension ref="A1:AB49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1065,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>2025090282</v>
+        <v>2025090417</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -1131,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>2025090217</v>
+        <v>2025090282</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1143,16 +1260,16 @@
         <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1160,10 +1277,10 @@
         <v>35</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>38</v>
@@ -1197,7 +1314,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>2025090294</v>
+        <v>2025090217</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1209,16 +1326,16 @@
         <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -1226,10 +1343,10 @@
         <v>35</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>38</v>
@@ -1263,7 +1380,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>2025090290</v>
+        <v>2025090413</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -1278,13 +1395,13 @@
         <v>31</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1292,10 +1409,10 @@
         <v>35</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>38</v>
@@ -1329,7 +1446,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>2025090222</v>
+        <v>2025090460</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1344,13 +1461,13 @@
         <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -1358,10 +1475,10 @@
         <v>35</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1395,7 +1512,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>2025090398</v>
+        <v>2025090428</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1404,44 +1521,38 @@
         <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="N8" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>38</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3">
-        <v>27754</v>
-      </c>
+      <c r="Q8" s="3"/>
       <c r="R8" s="3">
-        <v>44996</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>39</v>
@@ -1453,17 +1564,21 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>2025090399</v>
+        <v>2025090467</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -1472,28 +1587,24 @@
         <v>29</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>67</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="8" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>69</v>
@@ -1502,16 +1613,16 @@
         <v>70</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="P9" s="7"/>
-      <c r="Q9" s="7">
-        <v>27754</v>
-      </c>
+      <c r="Q9" s="7"/>
       <c r="R9" s="7">
-        <v>44996</v>
-      </c>
-      <c r="S9" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
@@ -1519,19 +1630,21 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="8" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="AA9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AB9" s="7"/>
+      <c r="AB9" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>2025090339</v>
+        <v>2025090294</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -1540,44 +1653,38 @@
         <v>29</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="N10" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3">
-        <v>543</v>
-      </c>
+      <c r="Q10" s="3"/>
       <c r="R10" s="3">
-        <v>33024</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>39</v>
@@ -1589,17 +1696,21 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="7">
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>2025090340</v>
+        <v>2025090406</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1608,46 +1719,42 @@
         <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>67</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="8" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7"/>
-      <c r="Q11" s="7">
-        <v>543</v>
-      </c>
+      <c r="Q11" s="7"/>
       <c r="R11" s="7">
-        <v>33024</v>
-      </c>
-      <c r="S11" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
@@ -1655,19 +1762,21 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="8" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="AA11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AB11" s="7"/>
+      <c r="AB11" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>2025090353</v>
+        <v>2025090290</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1676,13 +1785,13 @@
         <v>29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>80</v>
@@ -1690,32 +1799,24 @@
       <c r="I12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="N12" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3">
         <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
-        <v>41</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>39</v>
@@ -1727,7 +1828,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="6" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>39</v>
@@ -1741,7 +1842,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>2025090354</v>
+        <v>2025090222</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1750,48 +1851,42 @@
         <v>29</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>67</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="8" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P13" s="7">
+        <v>38</v>
+      </c>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7">
         <v>0</v>
       </c>
-      <c r="Q13" s="7">
-        <v>0</v>
-      </c>
-      <c r="R13" s="7">
-        <v>41</v>
-      </c>
-      <c r="S13" s="7"/>
+      <c r="S13" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
@@ -1799,19 +1894,21 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="AA13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AB13" s="7"/>
+      <c r="AB13" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>2025090342</v>
+        <v>2025090398</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1820,44 +1917,48 @@
         <v>29</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="Q14" s="3">
+        <v>27754</v>
+      </c>
       <c r="R14" s="3">
-        <v>276567</v>
-      </c>
-      <c r="S14" s="3"/>
+        <v>44996</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -1865,21 +1966,17 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>2025090341</v>
+        <v>2025090399</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -1888,46 +1985,46 @@
         <v>29</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+      <c r="Q15" s="7">
+        <v>27754</v>
+      </c>
       <c r="R15" s="7">
-        <v>276567</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>44996</v>
+      </c>
+      <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -1935,9 +2032,11 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA15" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="AA15" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="AB15" s="7"/>
     </row>
     <row r="16" spans="1:28">
@@ -1945,7 +2044,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2025090345</v>
+        <v>2025090339</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1954,42 +2053,44 @@
         <v>29</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="I16" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>38</v>
       </c>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="Q16" s="3">
+        <v>543</v>
+      </c>
       <c r="R16" s="3">
-        <v>218331</v>
+        <v>33024</v>
       </c>
       <c r="S16" s="3" t="s">
         <v>39</v>
@@ -2001,7 +2102,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="6" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
@@ -2011,7 +2112,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2025090346</v>
+        <v>2025090340</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2020,42 +2121,44 @@
         <v>29</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="I17" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
+      <c r="Q17" s="7">
+        <v>543</v>
+      </c>
       <c r="R17" s="7">
-        <v>218331</v>
+        <v>33024</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -2065,7 +2168,7 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="8" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AA17" s="7" t="s">
         <v>39</v>
@@ -2077,7 +2180,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025090351</v>
+        <v>2025090353</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2086,42 +2189,46 @@
         <v>29</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
       <c r="R18" s="3">
-        <v>295043</v>
+        <v>41</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>39</v>
@@ -2133,17 +2240,21 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025090352</v>
+        <v>2025090354</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2152,42 +2263,46 @@
         <v>29</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="L19" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="M19" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
+      <c r="P19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
       <c r="R19" s="7">
-        <v>295043</v>
+        <v>41</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
@@ -2197,7 +2312,7 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AA19" s="7" t="s">
         <v>39</v>
@@ -2209,7 +2324,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2025090343</v>
+        <v>2025090341</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2218,34 +2333,34 @@
         <v>29</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>38</v>
@@ -2253,7 +2368,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3">
-        <v>116934</v>
+        <v>276567</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>39</v>
@@ -2265,7 +2380,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="6" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
@@ -2275,7 +2390,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>2025090344</v>
+        <v>2025090342</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2284,42 +2399,42 @@
         <v>29</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7">
-        <v>116934</v>
+        <v>276567</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -2329,7 +2444,7 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="8" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AA21" s="7" t="s">
         <v>39</v>
@@ -2341,7 +2456,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2025090402</v>
+        <v>2025090345</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -2350,34 +2465,34 @@
         <v>29</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>38</v>
@@ -2385,7 +2500,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3">
-        <v>117282</v>
+        <v>218331</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>39</v>
@@ -2397,7 +2512,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="6" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
@@ -2407,7 +2522,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2025090403</v>
+        <v>2025090346</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -2416,42 +2531,42 @@
         <v>29</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7">
-        <v>117282</v>
+        <v>218331</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -2461,7 +2576,7 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="8" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AA23" s="7" t="s">
         <v>39</v>
@@ -2473,7 +2588,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2025090349</v>
+        <v>2025090351</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -2482,34 +2597,34 @@
         <v>29</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>38</v>
@@ -2517,7 +2632,7 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3">
-        <v>183883</v>
+        <v>295043</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>39</v>
@@ -2529,7 +2644,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="6" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
@@ -2539,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025090350</v>
+        <v>2025090352</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2548,42 +2663,42 @@
         <v>29</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7">
-        <v>183883</v>
+        <v>295043</v>
       </c>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -2593,7 +2708,7 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="8" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AA25" s="7" t="s">
         <v>39</v>
@@ -2605,7 +2720,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025090347</v>
+        <v>2025090343</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -2614,34 +2729,34 @@
         <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>38</v>
@@ -2649,7 +2764,7 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3">
-        <v>355156</v>
+        <v>116934</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>39</v>
@@ -2661,7 +2776,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
@@ -2671,7 +2786,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025090348</v>
+        <v>2025090344</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -2680,42 +2795,42 @@
         <v>29</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7">
-        <v>355156</v>
+        <v>116934</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -2725,7 +2840,7 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AA27" s="7" t="s">
         <v>39</v>
@@ -2737,7 +2852,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025090400</v>
+        <v>2025090402</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -2746,34 +2861,34 @@
         <v>29</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>38</v>
@@ -2781,7 +2896,7 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3">
-        <v>3113</v>
+        <v>117282</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>39</v>
@@ -2793,7 +2908,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="6" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
@@ -2803,7 +2918,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025090401</v>
+        <v>2025090403</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -2812,42 +2927,42 @@
         <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7">
-        <v>3113</v>
+        <v>117282</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -2857,7 +2972,7 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="8" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AA29" s="7" t="s">
         <v>39</v>
@@ -2869,7 +2984,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025090338</v>
+        <v>2025090349</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -2878,44 +2993,46 @@
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3">
-        <v>48945</v>
-      </c>
-      <c r="S30" s="3"/>
+        <v>183883</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
@@ -2923,21 +3040,17 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB30" s="3">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025090337</v>
+        <v>2025090350</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -2946,46 +3059,44 @@
         <v>29</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7">
-        <v>48945</v>
-      </c>
-      <c r="S31" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>183883</v>
+      </c>
+      <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
@@ -2993,9 +3104,11 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA31" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="AA31" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="AB31" s="7"/>
     </row>
     <row r="32" spans="1:28">
@@ -3003,7 +3116,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2025090198</v>
+        <v>2025090347</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3012,30 +3125,34 @@
         <v>29</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="L32" s="6" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>38</v>
@@ -3043,7 +3160,7 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>355156</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>39</v>
@@ -3055,21 +3172,17 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="7">
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2025090208</v>
+        <v>2025090348</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -3078,42 +3191,44 @@
         <v>29</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+        <v>137</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="L33" s="8" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7">
-        <v>0</v>
-      </c>
-      <c r="S33" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>355156</v>
+      </c>
+      <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
@@ -3121,21 +3236,19 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="8" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AA33" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AB33" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB33" s="7"/>
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2025090356</v>
+        <v>2025090407</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -3144,44 +3257,46 @@
         <v>29</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3">
-        <v>0</v>
-      </c>
-      <c r="S34" s="3"/>
+        <v>38923</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
@@ -3189,21 +3304,17 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB34" s="3">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025090307</v>
+        <v>2025090408</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3212,42 +3323,42 @@
         <v>29</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="J35" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="K35" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L35" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="M35" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M35" s="8" t="s">
+      <c r="N35" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="N35" s="8" t="s">
-        <v>146</v>
-      </c>
       <c r="O35" s="7" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7">
-        <v>0</v>
+        <v>38923</v>
       </c>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
@@ -3257,21 +3368,19 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="8" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="AA35" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AB35" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB35" s="7"/>
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2025090382</v>
+        <v>2025090447</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -3280,30 +3389,34 @@
         <v>29</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H36" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M36" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>145</v>
-      </c>
       <c r="N36" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>38</v>
@@ -3311,7 +3424,7 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="S36" s="3" t="s">
         <v>39</v>
@@ -3323,11 +3436,9 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA36" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28">
@@ -3335,7 +3446,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2025090012</v>
+        <v>2025090448</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -3344,42 +3455,42 @@
         <v>29</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="N37" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="H37" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>146</v>
-      </c>
       <c r="O37" s="7" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
@@ -3389,45 +3500,775 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB37" s="7"/>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2025090400</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M38" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="AA37" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB37" s="7"/>
-    </row>
-    <row r="38" spans="1:28">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="9" t="s">
+      <c r="N38" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3">
+        <v>3113</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" s="7">
+        <v>37</v>
+      </c>
+      <c r="B39" s="7">
+        <v>2025090401</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7">
+        <v>3113</v>
+      </c>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA39" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB39" s="7"/>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2025090337</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AB38" s="9">
-        <v>12</v>
+      <c r="J40" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3">
+        <v>48945</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="7">
+        <v>2025090338</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7">
+        <v>48945</v>
+      </c>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB41" s="7"/>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2025090198</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="7">
+        <v>2025090208</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7">
+        <v>0</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA43" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB43" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2025090314</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="A45" s="7">
+        <v>43</v>
+      </c>
+      <c r="B45" s="7">
+        <v>2025090356</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7">
+        <v>0</v>
+      </c>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA45" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB45" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2025090307</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
+      <c r="A47" s="7">
+        <v>45</v>
+      </c>
+      <c r="B47" s="7">
+        <v>2025090382</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7">
+        <v>0</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA47" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB47" s="7"/>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2025090012</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB48" s="3"/>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB49" s="9">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202509_Service_Count_Report.xlsx
+++ b/IM/202509_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$58</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
   <si>
     <t>服務次數統計表        篩選月份：202509</t>
   </si>
@@ -125,6 +125,81 @@
     <t>吳宗鴻</t>
   </si>
   <si>
+    <t>2025-09-03</t>
+  </si>
+  <si>
+    <t>11:15:00</t>
+  </si>
+  <si>
+    <t>11:45:00</t>
+  </si>
+  <si>
+    <t>T301800172</t>
+  </si>
+  <si>
+    <t>eS-3018A 黑白複合機</t>
+  </si>
+  <si>
+    <t>MFP商品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">智基科技開發股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市淡水區中山路123號3樓(淡水分校)</t>
+  </si>
+  <si>
+    <t>淡水</t>
+  </si>
+  <si>
+    <t>服務</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>PM抄表</t>
+  </si>
+  <si>
+    <t>抄表</t>
+  </si>
+  <si>
+    <t>09:30:00</t>
+  </si>
+  <si>
+    <t>09:45:00</t>
+  </si>
+  <si>
+    <t>T302800006</t>
+  </si>
+  <si>
+    <t>eS-3028A 黑白複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">信宇顧問有限公司 </t>
+  </si>
+  <si>
+    <t>新北市淡水區民族路50巷46號3樓</t>
+  </si>
+  <si>
+    <t>10:10:00</t>
+  </si>
+  <si>
+    <t>10:40:00</t>
+  </si>
+  <si>
+    <t>T351500137</t>
+  </si>
+  <si>
+    <t>eS-3515AC 彩色複合機</t>
+  </si>
+  <si>
+    <t>華南永昌綜合証券股份有限公司-淡水?</t>
+  </si>
+  <si>
+    <t>新北市淡水區中正路28號4樓(淡水)</t>
+  </si>
+  <si>
     <t>2025-09-02</t>
   </si>
   <si>
@@ -146,12 +221,6 @@
     <t>三芝芝蘭店</t>
   </si>
   <si>
-    <t>服務</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>PMQ3</t>
   </si>
   <si>
@@ -203,6 +272,21 @@
     <t>淡水屯山店</t>
   </si>
   <si>
+    <t>12:47:00</t>
+  </si>
+  <si>
+    <t>THILF04658</t>
+  </si>
+  <si>
+    <t>新北市淡水區清水街2號、英專路43號</t>
+  </si>
+  <si>
+    <t>淡水英才店</t>
+  </si>
+  <si>
+    <t>PMQ3 TVV</t>
+  </si>
+  <si>
     <t>15:50:00</t>
   </si>
   <si>
@@ -314,9 +398,6 @@
     <t>eS-2510AC 彩色複合機</t>
   </si>
   <si>
-    <t>MFP商品</t>
-  </si>
-  <si>
     <t xml:space="preserve">台固媒體股份有限公司 </t>
   </si>
   <si>
@@ -329,12 +410,6 @@
     <t>pm</t>
   </si>
   <si>
-    <t>抄表</t>
-  </si>
-  <si>
-    <t>09:30:00</t>
-  </si>
-  <si>
     <t>T252000125</t>
   </si>
   <si>
@@ -374,9 +449,6 @@
     <t>T302800057</t>
   </si>
   <si>
-    <t>eS-3028A 黑白複合機</t>
-  </si>
-  <si>
     <t xml:space="preserve">台灣善美的股份有限公司 </t>
   </si>
   <si>
@@ -498,6 +570,18 @@
   </si>
   <si>
     <t>林口文化1F營業部</t>
+  </si>
+  <si>
+    <t>08:30:00</t>
+  </si>
+  <si>
+    <t>T452800069</t>
+  </si>
+  <si>
+    <t>新北市三重區重新路五段609巷2號4樓-2(三重湯城)</t>
+  </si>
+  <si>
+    <t>台北客服4樓-2LJ6(黑)</t>
   </si>
   <si>
     <t>12:00:00</t>
@@ -1021,10 +1105,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB49"/>
+  <dimension ref="A1:AB58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1182,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>2025090417</v>
+        <v>2025090593</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -1205,27 +1289,31 @@
       <c r="I3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="J3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L3" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7">
-        <v>0</v>
+        <v>24446</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -1234,10 +1322,10 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB3" s="7">
         <v>1</v>
@@ -1248,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>2025090282</v>
+        <v>2025090594</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1260,39 +1348,41 @@
         <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>24446</v>
+      </c>
+      <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -1300,21 +1390,19 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>2025090217</v>
+        <v>2025090587</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1326,38 +1414,40 @@
         <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="N5" s="8"/>
       <c r="O5" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7">
-        <v>0</v>
+        <v>27400</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
@@ -1366,10 +1456,10 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB5" s="7">
         <v>1</v>
@@ -1380,7 +1470,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>2025090413</v>
+        <v>2025090588</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -1395,36 +1485,36 @@
         <v>31</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L6" s="6" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="N6" s="6"/>
       <c r="O6" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>27400</v>
+      </c>
+      <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
@@ -1432,21 +1522,19 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB6" s="3"/>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>2025090460</v>
+        <v>2025090589</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1461,35 +1549,41 @@
         <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L7" s="8" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+      <c r="Q7" s="7">
+        <v>2394</v>
+      </c>
       <c r="R7" s="7">
-        <v>0</v>
+        <v>295402</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -1498,10 +1592,10 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB7" s="7">
         <v>1</v>
@@ -1512,7 +1606,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>2025090428</v>
+        <v>2025090590</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1527,36 +1621,40 @@
         <v>31</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L8" s="6" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="3">
+        <v>2394</v>
+      </c>
       <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>295402</v>
+      </c>
+      <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -1564,21 +1662,19 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>2025090467</v>
+        <v>2025090417</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -1590,30 +1686,30 @@
         <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="8" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -1621,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
@@ -1630,10 +1726,10 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="8" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB9" s="7">
         <v>1</v>
@@ -1644,7 +1740,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>2025090294</v>
+        <v>2025090282</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -1656,30 +1752,30 @@
         <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="I10" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="6" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -1687,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
@@ -1696,10 +1792,10 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="6" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB10" s="3">
         <v>1</v>
@@ -1710,7 +1806,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>2025090406</v>
+        <v>2025090217</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1722,30 +1818,30 @@
         <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="8" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -1753,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -1762,10 +1858,10 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="8" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB11" s="7">
         <v>1</v>
@@ -1776,7 +1872,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>2025090290</v>
+        <v>2025090413</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1788,30 +1884,30 @@
         <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="6" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -1819,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -1828,10 +1924,10 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="6" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB12" s="3">
         <v>1</v>
@@ -1842,7 +1938,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>2025090222</v>
+        <v>2025090599</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1854,30 +1950,30 @@
         <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="8" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -1885,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -1894,10 +1990,10 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB13" s="7">
         <v>1</v>
@@ -1908,7 +2004,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>2025090398</v>
+        <v>2025090460</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1917,47 +2013,41 @@
         <v>29</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N14" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="O14" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3">
-        <v>27754</v>
-      </c>
+      <c r="Q14" s="3"/>
       <c r="R14" s="3">
-        <v>44996</v>
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -1966,17 +2056,21 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>2025090399</v>
+        <v>2025090428</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -1985,46 +2079,42 @@
         <v>29</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="N15" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="O15" s="7" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7"/>
-      <c r="Q15" s="7">
-        <v>27754</v>
-      </c>
+      <c r="Q15" s="7"/>
       <c r="R15" s="7">
-        <v>44996</v>
-      </c>
-      <c r="S15" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -2032,19 +2122,21 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="8" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB15" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2025090339</v>
+        <v>2025090467</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -2053,47 +2145,41 @@
         <v>29</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>94</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="6" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3">
-        <v>543</v>
-      </c>
+      <c r="Q16" s="3"/>
       <c r="R16" s="3">
-        <v>33024</v>
+        <v>0</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -2102,17 +2188,21 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2025090340</v>
+        <v>2025090294</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2121,46 +2211,42 @@
         <v>29</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="N17" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>105</v>
-      </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="P17" s="7"/>
-      <c r="Q17" s="7">
-        <v>543</v>
-      </c>
+      <c r="Q17" s="7"/>
       <c r="R17" s="7">
-        <v>33024</v>
-      </c>
-      <c r="S17" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
@@ -2168,19 +2254,21 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="8" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB17" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="AB17" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:28">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025090353</v>
+        <v>2025090406</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2189,49 +2277,41 @@
         <v>29</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="N18" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="O18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P18" s="3">
+        <v>40</v>
+      </c>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3">
         <v>0</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>41</v>
-      </c>
       <c r="S18" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -2240,10 +2320,10 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="6" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB18" s="3">
         <v>1</v>
@@ -2254,7 +2334,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025090354</v>
+        <v>2025090290</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2263,28 +2343,24 @@
         <v>29</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>94</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="8" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>110</v>
@@ -2293,18 +2369,16 @@
         <v>111</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P19" s="7">
+        <v>40</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7">
         <v>0</v>
       </c>
-      <c r="Q19" s="7">
-        <v>0</v>
-      </c>
-      <c r="R19" s="7">
-        <v>41</v>
-      </c>
-      <c r="S19" s="7"/>
+      <c r="S19" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
@@ -2312,19 +2386,21 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="AA19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB19" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2025090341</v>
+        <v>2025090222</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2333,45 +2409,41 @@
         <v>29</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J20" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="N20" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="N20" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="O20" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3">
-        <v>276567</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
@@ -2380,17 +2452,21 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>2025090342</v>
+        <v>2025090398</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2399,44 +2475,48 @@
         <v>29</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
+      <c r="Q21" s="7">
+        <v>27754</v>
+      </c>
       <c r="R21" s="7">
-        <v>276567</v>
-      </c>
-      <c r="S21" s="7"/>
+        <v>44996</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
@@ -2444,11 +2524,9 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA21" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
     </row>
     <row r="22" spans="1:28">
@@ -2456,7 +2534,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2025090345</v>
+        <v>2025090399</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -2465,10 +2543,10 @@
         <v>29</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>118</v>
@@ -2480,31 +2558,31 @@
         <v>120</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="Q22" s="3">
+        <v>27754</v>
+      </c>
       <c r="R22" s="3">
-        <v>218331</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>44996</v>
+      </c>
+      <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -2512,9 +2590,11 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA22" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28">
@@ -2522,7 +2602,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2025090346</v>
+        <v>2025090339</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -2531,44 +2611,48 @@
         <v>29</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>119</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
+      <c r="Q23" s="7">
+        <v>543</v>
+      </c>
       <c r="R23" s="7">
-        <v>218331</v>
-      </c>
-      <c r="S23" s="7"/>
+        <v>33024</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
@@ -2576,11 +2660,9 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA23" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
     </row>
     <row r="24" spans="1:28">
@@ -2588,7 +2670,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2025090351</v>
+        <v>2025090340</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -2597,46 +2679,46 @@
         <v>29</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="Q24" s="3">
+        <v>543</v>
+      </c>
       <c r="R24" s="3">
-        <v>295043</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>33024</v>
+      </c>
+      <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
@@ -2644,9 +2726,11 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA24" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB24" s="3"/>
     </row>
     <row r="25" spans="1:28">
@@ -2654,7 +2738,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025090352</v>
+        <v>2025090353</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2663,44 +2747,50 @@
         <v>29</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>0</v>
+      </c>
       <c r="R25" s="7">
-        <v>295043</v>
-      </c>
-      <c r="S25" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
@@ -2708,19 +2798,21 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="8" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="AA25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB25" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025090343</v>
+        <v>2025090354</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -2729,46 +2821,48 @@
         <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
       <c r="R26" s="3">
-        <v>116934</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
@@ -2776,9 +2870,11 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA26" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="1:28">
@@ -2786,7 +2882,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025090344</v>
+        <v>2025090341</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -2795,44 +2891,46 @@
         <v>29</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7">
-        <v>116934</v>
-      </c>
-      <c r="S27" s="7"/>
+        <v>276567</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
@@ -2840,11 +2938,9 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA27" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
     </row>
     <row r="28" spans="1:28">
@@ -2852,7 +2948,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025090402</v>
+        <v>2025090342</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -2861,46 +2957,44 @@
         <v>29</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3">
-        <v>117282</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>276567</v>
+      </c>
+      <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -2908,9 +3002,11 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA28" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB28" s="3"/>
     </row>
     <row r="29" spans="1:28">
@@ -2918,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025090403</v>
+        <v>2025090345</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -2927,44 +3023,46 @@
         <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7">
-        <v>117282</v>
-      </c>
-      <c r="S29" s="7"/>
+        <v>218331</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
@@ -2972,11 +3070,9 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA29" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
     </row>
     <row r="30" spans="1:28">
@@ -2984,7 +3080,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025090349</v>
+        <v>2025090346</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -2993,46 +3089,44 @@
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3">
-        <v>183883</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>218331</v>
+      </c>
+      <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
@@ -3040,9 +3134,11 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA30" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28">
@@ -3050,7 +3146,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025090350</v>
+        <v>2025090351</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -3059,44 +3155,46 @@
         <v>29</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7">
-        <v>183883</v>
-      </c>
-      <c r="S31" s="7"/>
+        <v>295043</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
@@ -3104,11 +3202,9 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA31" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
     </row>
     <row r="32" spans="1:28">
@@ -3116,7 +3212,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2025090347</v>
+        <v>2025090352</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3125,46 +3221,44 @@
         <v>29</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3">
-        <v>355156</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>295043</v>
+      </c>
+      <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
@@ -3172,9 +3266,11 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA32" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28">
@@ -3182,7 +3278,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2025090348</v>
+        <v>2025090343</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -3191,44 +3287,46 @@
         <v>29</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7">
-        <v>355156</v>
-      </c>
-      <c r="S33" s="7"/>
+        <v>116934</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
@@ -3236,11 +3334,9 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA33" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="AA33" s="7"/>
       <c r="AB33" s="7"/>
     </row>
     <row r="34" spans="1:28">
@@ -3248,7 +3344,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2025090407</v>
+        <v>2025090344</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -3257,46 +3353,44 @@
         <v>29</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3">
-        <v>38923</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>116934</v>
+      </c>
+      <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
@@ -3304,9 +3398,11 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA34" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28">
@@ -3314,7 +3410,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025090408</v>
+        <v>2025090402</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3323,44 +3419,46 @@
         <v>29</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7">
-        <v>38923</v>
-      </c>
-      <c r="S35" s="7"/>
+        <v>117282</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
@@ -3368,11 +3466,9 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA35" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
     </row>
     <row r="36" spans="1:28">
@@ -3380,7 +3476,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2025090447</v>
+        <v>2025090403</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -3389,46 +3485,44 @@
         <v>29</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H36" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M36" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="N36" s="6" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3">
-        <v>19</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>117282</v>
+      </c>
+      <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
@@ -3436,9 +3530,11 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA36" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="AA36" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28">
@@ -3446,7 +3542,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2025090448</v>
+        <v>2025090349</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -3455,44 +3551,46 @@
         <v>29</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7">
-        <v>19</v>
-      </c>
-      <c r="S37" s="7"/>
+        <v>183883</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
@@ -3500,11 +3598,9 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA37" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
     </row>
     <row r="38" spans="1:28">
@@ -3512,7 +3608,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2025090400</v>
+        <v>2025090350</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -3521,46 +3617,44 @@
         <v>29</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3">
-        <v>3113</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>183883</v>
+      </c>
+      <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -3568,9 +3662,11 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA38" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="AA38" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28">
@@ -3578,7 +3674,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025090401</v>
+        <v>2025090347</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -3587,44 +3683,46 @@
         <v>29</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7">
-        <v>3113</v>
-      </c>
-      <c r="S39" s="7"/>
+        <v>355156</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
@@ -3632,11 +3730,9 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA39" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
     </row>
     <row r="40" spans="1:28">
@@ -3644,7 +3740,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025090337</v>
+        <v>2025090348</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -3653,46 +3749,44 @@
         <v>29</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3">
-        <v>48945</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>355156</v>
+      </c>
+      <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -3700,9 +3794,11 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA40" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28">
@@ -3710,7 +3806,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>2025090338</v>
+        <v>2025090407</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -3719,44 +3815,46 @@
         <v>29</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7">
-        <v>48945</v>
-      </c>
-      <c r="S41" s="7"/>
+        <v>38923</v>
+      </c>
+      <c r="S41" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
@@ -3764,11 +3862,9 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA41" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
     </row>
     <row r="42" spans="1:28">
@@ -3776,7 +3872,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>2025090198</v>
+        <v>2025090408</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -3785,42 +3881,44 @@
         <v>29</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L42" s="6" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3">
-        <v>0</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>38923</v>
+      </c>
+      <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
@@ -3828,21 +3926,19 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="6" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AA42" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB42" s="3">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="7">
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>2025090208</v>
+        <v>2025090447</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -3851,41 +3947,45 @@
         <v>29</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
+        <v>170</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L43" s="8" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="S43" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -3894,21 +3994,17 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA43" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB43" s="7">
-        <v>1</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>2025090314</v>
+        <v>2025090448</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -3917,42 +4013,42 @@
         <v>29</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="I44" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J44" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="K44" s="3" t="s">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
@@ -3962,21 +4058,19 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="6" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="AA44" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB44" s="3">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB44" s="3"/>
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="7">
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>2025090356</v>
+        <v>2025090400</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
@@ -3985,44 +4079,46 @@
         <v>29</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G45" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I45" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="J45" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="M45" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="I45" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>177</v>
-      </c>
       <c r="N45" s="8" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7">
-        <v>0</v>
-      </c>
-      <c r="S45" s="7"/>
+        <v>3113</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
@@ -4030,21 +4126,17 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA45" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB45" s="7">
-        <v>1</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2025090307</v>
+        <v>2025090401</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4053,42 +4145,42 @@
         <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>3113</v>
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
@@ -4098,21 +4190,19 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="6" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="AA46" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="7">
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>2025090382</v>
+        <v>2025090338</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4121,42 +4211,44 @@
         <v>29</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>187</v>
+        <v>44</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
+        <v>176</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L47" s="8" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7">
-        <v>0</v>
-      </c>
-      <c r="S47" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>48945</v>
+      </c>
+      <c r="S47" s="7"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
@@ -4164,19 +4256,21 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AA47" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB47" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="AB47" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2025090012</v>
+        <v>2025090337</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -4185,44 +4279,46 @@
         <v>29</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3"/>
+        <v>48945</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
@@ -4230,45 +4326,641 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49" s="7">
+        <v>47</v>
+      </c>
+      <c r="B49" s="7">
+        <v>2025090603</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7">
+        <v>13789</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+    </row>
+    <row r="50" spans="1:28">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2025090604</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3">
+        <v>13789</v>
+      </c>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA50" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB50" s="3"/>
+    </row>
+    <row r="51" spans="1:28">
+      <c r="A51" s="7">
+        <v>49</v>
+      </c>
+      <c r="B51" s="7">
+        <v>2025090198</v>
+      </c>
+      <c r="C51" s="7">
+        <v>1</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7">
+        <v>0</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2025090208</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB48" s="3"/>
-    </row>
-    <row r="49" spans="1:28">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="9" t="s">
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M52" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="AB49" s="9">
-        <v>17</v>
+      <c r="N52" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
+      <c r="A53" s="7">
+        <v>51</v>
+      </c>
+      <c r="B53" s="7">
+        <v>2025090314</v>
+      </c>
+      <c r="C53" s="7">
+        <v>1</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7">
+        <v>0</v>
+      </c>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA53" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB53" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2025090356</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
+      <c r="A55" s="7">
+        <v>53</v>
+      </c>
+      <c r="B55" s="7">
+        <v>2025090307</v>
+      </c>
+      <c r="C55" s="7">
+        <v>1</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7">
+        <v>0</v>
+      </c>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA55" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB55" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2025090382</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3">
+        <v>0</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="1:28">
+      <c r="A57" s="7">
+        <v>55</v>
+      </c>
+      <c r="B57" s="7">
+        <v>2025090012</v>
+      </c>
+      <c r="C57" s="7">
+        <v>1</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7">
+        <v>0</v>
+      </c>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA57" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB57" s="7"/>
+    </row>
+    <row r="58" spans="1:28">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB58" s="9">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202509_Service_Count_Report.xlsx
+++ b/IM/202509_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$71</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
   <si>
     <t>服務次數統計表        篩選月份：202509</t>
   </si>
@@ -257,6 +257,21 @@
     <t>三重福仁店</t>
   </si>
   <si>
+    <t>15:10:00</t>
+  </si>
+  <si>
+    <t>15:30:00</t>
+  </si>
+  <si>
+    <t>THILF04298</t>
+  </si>
+  <si>
+    <t>新北市淡水區後洲路一段50號、50之1號1樓</t>
+  </si>
+  <si>
+    <t>淡水後洲店</t>
+  </si>
+  <si>
     <t>12:20:00</t>
   </si>
   <si>
@@ -443,6 +458,33 @@
     <t>三重</t>
   </si>
   <si>
+    <t>11:30:00</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>T301800025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永佳樂有線電視股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(櫃台2)</t>
+  </si>
+  <si>
+    <t>櫃台2</t>
+  </si>
+  <si>
+    <t>T301800026</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(節目部)</t>
+  </si>
+  <si>
+    <t>節目部</t>
+  </si>
+  <si>
     <t>10:30:00</t>
   </si>
   <si>
@@ -473,9 +515,6 @@
     <t>五股運輸</t>
   </si>
   <si>
-    <t>15:30:00</t>
-  </si>
-  <si>
     <t>T351800042</t>
   </si>
   <si>
@@ -506,6 +545,33 @@
     <t>新莊8F</t>
   </si>
   <si>
+    <t>T351800082</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(櫃台1)</t>
+  </si>
+  <si>
+    <t>櫃台1</t>
+  </si>
+  <si>
+    <t>T351800084</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(走道)</t>
+  </si>
+  <si>
+    <t>走道</t>
+  </si>
+  <si>
+    <t>T351800085</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(營管部)</t>
+  </si>
+  <si>
+    <t>營管部</t>
+  </si>
+  <si>
     <t>15:00:00</t>
   </si>
   <si>
@@ -524,7 +590,13 @@
     <t>五股檢品</t>
   </si>
   <si>
-    <t>11:30:00</t>
+    <t>T351800118</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(工程部2)</t>
+  </si>
+  <si>
+    <t>工程部2</t>
   </si>
   <si>
     <t>T451800006</t>
@@ -582,9 +654,6 @@
   </si>
   <si>
     <t>台北客服4樓-2LJ6(黑)</t>
-  </si>
-  <si>
-    <t>12:00:00</t>
   </si>
   <si>
     <t>THILF03921</t>
@@ -1105,10 +1174,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB58"/>
+  <dimension ref="A1:AB71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A58" sqref="A58"/>
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1872,7 +1941,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>2025090413</v>
+        <v>2025090650</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1884,7 +1953,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>75</v>
@@ -1938,7 +2007,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>2025090599</v>
+        <v>2025090413</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1950,16 +2019,16 @@
         <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -1967,10 +2036,10 @@
         <v>60</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>40</v>
@@ -1990,7 +2059,7 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="AA13" s="7" t="s">
         <v>41</v>
@@ -2004,7 +2073,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>2025090460</v>
+        <v>2025090599</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -2016,16 +2085,16 @@
         <v>30</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -2033,10 +2102,10 @@
         <v>60</v>
       </c>
       <c r="M14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>40</v>
@@ -2056,7 +2125,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="6" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>41</v>
@@ -2070,7 +2139,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>2025090428</v>
+        <v>2025090460</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -2085,13 +2154,13 @@
         <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -2099,10 +2168,10 @@
         <v>60</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -2136,7 +2205,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2025090467</v>
+        <v>2025090428</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -2151,7 +2220,7 @@
         <v>56</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>95</v>
@@ -2202,7 +2271,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2025090294</v>
+        <v>2025090467</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2214,16 +2283,16 @@
         <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -2231,10 +2300,10 @@
         <v>60</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>40</v>
@@ -2268,7 +2337,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025090406</v>
+        <v>2025090294</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2280,10 +2349,10 @@
         <v>30</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>104</v>
@@ -2334,7 +2403,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025090290</v>
+        <v>2025090406</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2346,16 +2415,16 @@
         <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -2363,10 +2432,10 @@
         <v>60</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2400,7 +2469,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2025090222</v>
+        <v>2025090290</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2415,7 +2484,7 @@
         <v>64</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>113</v>
@@ -2466,7 +2535,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>2025090398</v>
+        <v>2025090222</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2475,44 +2544,38 @@
         <v>29</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="I21" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="N21" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P21" s="7"/>
-      <c r="Q21" s="7">
-        <v>27754</v>
-      </c>
+      <c r="Q21" s="7"/>
       <c r="R21" s="7">
-        <v>44996</v>
+        <v>0</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>41</v>
@@ -2524,17 +2587,21 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="AA21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2025090399</v>
+        <v>2025090398</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -2543,37 +2610,37 @@
         <v>29</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3">
@@ -2582,7 +2649,9 @@
       <c r="R22" s="3">
         <v>44996</v>
       </c>
-      <c r="S22" s="3"/>
+      <c r="S22" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -2590,11 +2659,9 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28">
@@ -2602,7 +2669,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2025090339</v>
+        <v>2025090399</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -2611,48 +2678,46 @@
         <v>29</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L23" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="M23" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="N23" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="N23" s="8" t="s">
-        <v>130</v>
-      </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7">
-        <v>543</v>
+        <v>27754</v>
       </c>
       <c r="R23" s="7">
-        <v>33024</v>
-      </c>
-      <c r="S23" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>44996</v>
+      </c>
+      <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
@@ -2660,9 +2725,11 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA23" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="AA23" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB23" s="7"/>
     </row>
     <row r="24" spans="1:28">
@@ -2670,7 +2737,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2025090340</v>
+        <v>2025090339</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -2679,7 +2746,7 @@
         <v>29</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>64</v>
@@ -2688,28 +2755,28 @@
         <v>44</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3">
@@ -2718,7 +2785,9 @@
       <c r="R24" s="3">
         <v>33024</v>
       </c>
-      <c r="S24" s="3"/>
+      <c r="S24" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
@@ -2726,11 +2795,9 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA24" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
     </row>
     <row r="25" spans="1:28">
@@ -2738,7 +2805,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025090353</v>
+        <v>2025090340</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2747,50 +2814,46 @@
         <v>29</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L25" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="M25" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="N25" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="N25" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="O25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P25" s="7">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="P25" s="7"/>
       <c r="Q25" s="7">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="R25" s="7">
-        <v>41</v>
-      </c>
-      <c r="S25" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>33024</v>
+      </c>
+      <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
@@ -2798,21 +2861,19 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="8" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AA25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB25" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB25" s="7"/>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025090354</v>
+        <v>2025090353</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -2821,37 +2882,37 @@
         <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>64</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -2862,7 +2923,9 @@
       <c r="R26" s="3">
         <v>41</v>
       </c>
-      <c r="S26" s="3"/>
+      <c r="S26" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
@@ -2870,19 +2933,21 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AA26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB26" s="3"/>
+      <c r="AB26" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="7">
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025090341</v>
+        <v>2025090354</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -2891,13 +2956,13 @@
         <v>29</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>137</v>
@@ -2906,7 +2971,7 @@
         <v>138</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>36</v>
@@ -2921,16 +2986,18 @@
         <v>141</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="P27" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>0</v>
+      </c>
       <c r="R27" s="7">
-        <v>276567</v>
-      </c>
-      <c r="S27" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
@@ -2938,9 +3005,11 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA27" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="AA27" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB27" s="7"/>
     </row>
     <row r="28" spans="1:28">
@@ -2948,7 +3017,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025090342</v>
+        <v>2025090633</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -2957,44 +3026,46 @@
         <v>29</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3">
-        <v>276567</v>
-      </c>
-      <c r="S28" s="3"/>
+        <v>399312</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -3002,11 +3073,9 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA28" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
     </row>
     <row r="29" spans="1:28">
@@ -3014,7 +3083,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025090345</v>
+        <v>2025090634</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -3023,10 +3092,10 @@
         <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>142</v>
@@ -3038,31 +3107,29 @@
         <v>144</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7">
-        <v>218331</v>
-      </c>
-      <c r="S29" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>399312</v>
+      </c>
+      <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
@@ -3070,9 +3137,11 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA29" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="AA29" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB29" s="7"/>
     </row>
     <row r="30" spans="1:28">
@@ -3080,7 +3149,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025090346</v>
+        <v>2025090620</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -3089,44 +3158,46 @@
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3">
-        <v>218331</v>
-      </c>
-      <c r="S30" s="3"/>
+        <v>164853</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
@@ -3134,11 +3205,9 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA30" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28">
@@ -3146,7 +3215,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025090351</v>
+        <v>2025090621</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -3155,46 +3224,44 @@
         <v>29</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>148</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L31" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="N31" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="M31" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>152</v>
-      </c>
       <c r="O31" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7">
-        <v>295043</v>
-      </c>
-      <c r="S31" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>164853</v>
+      </c>
+      <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
@@ -3202,9 +3269,11 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA31" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="AA31" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB31" s="7"/>
     </row>
     <row r="32" spans="1:28">
@@ -3212,7 +3281,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2025090352</v>
+        <v>2025090342</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3221,34 +3290,34 @@
         <v>29</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>64</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>43</v>
@@ -3256,7 +3325,7 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3">
-        <v>295043</v>
+        <v>276567</v>
       </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
@@ -3266,19 +3335,21 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB32" s="3"/>
+      <c r="AB32" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="7">
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2025090343</v>
+        <v>2025090341</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -3287,28 +3358,28 @@
         <v>29</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>154</v>
@@ -3322,7 +3393,7 @@
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7">
-        <v>116934</v>
+        <v>276567</v>
       </c>
       <c r="S33" s="7" t="s">
         <v>41</v>
@@ -3334,7 +3405,7 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="8" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AA33" s="7"/>
       <c r="AB33" s="7"/>
@@ -3344,7 +3415,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2025090344</v>
+        <v>2025090345</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -3353,44 +3424,46 @@
         <v>29</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>64</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3">
-        <v>116934</v>
-      </c>
-      <c r="S34" s="3"/>
+        <v>218331</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
@@ -3398,11 +3471,9 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA34" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28">
@@ -3410,7 +3481,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025090402</v>
+        <v>2025090346</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3419,46 +3490,44 @@
         <v>29</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7">
-        <v>117282</v>
-      </c>
-      <c r="S35" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>218331</v>
+      </c>
+      <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
@@ -3466,9 +3535,11 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA35" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="AA35" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB35" s="7"/>
     </row>
     <row r="36" spans="1:28">
@@ -3476,7 +3547,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2025090403</v>
+        <v>2025090351</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -3485,44 +3556,46 @@
         <v>29</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3">
-        <v>117282</v>
-      </c>
-      <c r="S36" s="3"/>
+        <v>295043</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
@@ -3530,11 +3603,9 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA36" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28">
@@ -3542,7 +3613,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2025090349</v>
+        <v>2025090352</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -3551,46 +3622,44 @@
         <v>29</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7">
-        <v>183883</v>
-      </c>
-      <c r="S37" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>295043</v>
+      </c>
+      <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
@@ -3598,9 +3667,11 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA37" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="AA37" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB37" s="7"/>
     </row>
     <row r="38" spans="1:28">
@@ -3608,7 +3679,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2025090350</v>
+        <v>2025090343</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -3617,44 +3688,46 @@
         <v>29</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>64</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3">
-        <v>183883</v>
-      </c>
-      <c r="S38" s="3"/>
+        <v>116934</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -3662,11 +3735,9 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA38" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28">
@@ -3674,7 +3745,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025090347</v>
+        <v>2025090344</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -3683,46 +3754,44 @@
         <v>29</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7">
-        <v>355156</v>
-      </c>
-      <c r="S39" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>116934</v>
+      </c>
+      <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
@@ -3730,9 +3799,11 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA39" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="AA39" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB39" s="7"/>
     </row>
     <row r="40" spans="1:28">
@@ -3740,7 +3811,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025090348</v>
+        <v>2025090403</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -3749,34 +3820,34 @@
         <v>29</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>43</v>
@@ -3784,7 +3855,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3">
-        <v>355156</v>
+        <v>117282</v>
       </c>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
@@ -3794,19 +3865,21 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AA40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB40" s="3"/>
+      <c r="AB40" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="7">
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>2025090407</v>
+        <v>2025090402</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -3815,34 +3888,34 @@
         <v>29</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>40</v>
@@ -3850,7 +3923,7 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7">
-        <v>38923</v>
+        <v>117282</v>
       </c>
       <c r="S41" s="7" t="s">
         <v>41</v>
@@ -3862,7 +3935,7 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="8" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
@@ -3872,7 +3945,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>2025090408</v>
+        <v>2025090631</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -3881,44 +3954,46 @@
         <v>29</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3">
-        <v>38923</v>
-      </c>
-      <c r="S42" s="3"/>
+        <v>11696</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
@@ -3926,11 +4001,9 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA42" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="1:28">
@@ -3938,7 +4011,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>2025090447</v>
+        <v>2025090632</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -3947,28 +4020,28 @@
         <v>29</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>172</v>
@@ -3977,16 +4050,14 @@
         <v>173</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7">
-        <v>19</v>
-      </c>
-      <c r="S43" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>11696</v>
+      </c>
+      <c r="S43" s="7"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
@@ -3994,9 +4065,11 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA43" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="AA43" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB43" s="7"/>
     </row>
     <row r="44" spans="1:28">
@@ -4004,7 +4077,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>2025090448</v>
+        <v>2025090626</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -4013,44 +4086,46 @@
         <v>29</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3">
-        <v>19</v>
-      </c>
-      <c r="S44" s="3"/>
+        <v>266405</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
@@ -4058,11 +4133,9 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA44" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
     </row>
     <row r="45" spans="1:28">
@@ -4070,7 +4143,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>2025090400</v>
+        <v>2025090627</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
@@ -4079,46 +4152,44 @@
         <v>29</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>174</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>175</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7">
-        <v>3113</v>
-      </c>
-      <c r="S45" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>266405</v>
+      </c>
+      <c r="S45" s="7"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
@@ -4126,9 +4197,11 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA45" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="AA45" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB45" s="7"/>
     </row>
     <row r="46" spans="1:28">
@@ -4136,7 +4209,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2025090401</v>
+        <v>2025090622</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4145,44 +4218,46 @@
         <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3">
-        <v>3113</v>
-      </c>
-      <c r="S46" s="3"/>
+        <v>152312</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
@@ -4190,11 +4265,9 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA46" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28">
@@ -4202,7 +4275,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>2025090338</v>
+        <v>2025090623</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4211,28 +4284,28 @@
         <v>29</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="M47" s="8" t="s">
         <v>178</v>
@@ -4246,7 +4319,7 @@
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7">
-        <v>48945</v>
+        <v>152312</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
@@ -4256,21 +4329,19 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AA47" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB47" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB47" s="7"/>
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2025090337</v>
+        <v>2025090349</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -4279,34 +4350,34 @@
         <v>29</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>64</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>40</v>
@@ -4314,7 +4385,7 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3">
-        <v>48945</v>
+        <v>183883</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>41</v>
@@ -4326,7 +4397,7 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
@@ -4336,7 +4407,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>2025090603</v>
+        <v>2025090350</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -4345,46 +4416,44 @@
         <v>29</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>180</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>181</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="M49" s="8" t="s">
         <v>182</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7">
-        <v>13789</v>
-      </c>
-      <c r="S49" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>183883</v>
+      </c>
+      <c r="S49" s="7"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
@@ -4392,9 +4461,11 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA49" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="AA49" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB49" s="7"/>
     </row>
     <row r="50" spans="1:28">
@@ -4402,7 +4473,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>2025090604</v>
+        <v>2025090347</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -4411,44 +4482,46 @@
         <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="G50" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="I50" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3">
-        <v>13789</v>
-      </c>
-      <c r="S50" s="3"/>
+        <v>355156</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
@@ -4456,11 +4529,9 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA50" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
     </row>
     <row r="51" spans="1:28">
@@ -4468,7 +4539,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>2025090198</v>
+        <v>2025090348</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
@@ -4477,42 +4548,44 @@
         <v>29</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H51" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="M51" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="N51" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M51" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="N51" s="8" t="s">
-        <v>187</v>
-      </c>
       <c r="O51" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7">
-        <v>0</v>
-      </c>
-      <c r="S51" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>355156</v>
+      </c>
+      <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
@@ -4520,21 +4593,19 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="AA51" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB51" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB51" s="7"/>
     </row>
     <row r="52" spans="1:28">
       <c r="A52" s="3">
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>2025090208</v>
+        <v>2025090624</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -4543,30 +4614,34 @@
         <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="G52" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="N52" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M52" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="N52" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>40</v>
@@ -4574,7 +4649,7 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3">
-        <v>0</v>
+        <v>203749</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>41</v>
@@ -4586,21 +4661,17 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA52" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB52" s="3">
-        <v>1</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
     </row>
     <row r="53" spans="1:28">
       <c r="A53" s="7">
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>2025090314</v>
+        <v>2025090625</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
@@ -4609,42 +4680,42 @@
         <v>29</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>193</v>
+        <v>124</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>199</v>
+        <v>43</v>
       </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7">
-        <v>0</v>
+        <v>203749</v>
       </c>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
@@ -4654,21 +4725,19 @@
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="8" t="s">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AA53" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB53" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB53" s="7"/>
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>2025090356</v>
+        <v>2025090407</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -4677,44 +4746,46 @@
         <v>29</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3"/>
+        <v>38923</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
@@ -4722,21 +4793,17 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA54" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB54" s="3">
-        <v>1</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="7">
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>2025090307</v>
+        <v>2025090408</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -4745,42 +4812,42 @@
         <v>29</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>199</v>
+        <v>43</v>
       </c>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7">
-        <v>0</v>
+        <v>38923</v>
       </c>
       <c r="S55" s="7"/>
       <c r="T55" s="7"/>
@@ -4790,21 +4857,19 @@
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="8" t="s">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="AA55" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB55" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB55" s="7"/>
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="3">
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>2025090382</v>
+        <v>2025090447</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -4813,30 +4878,34 @@
         <v>29</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
+        <v>194</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L56" s="6" t="s">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>40</v>
@@ -4844,7 +4913,7 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="S56" s="3" t="s">
         <v>41</v>
@@ -4856,11 +4925,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA56" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
     </row>
     <row r="57" spans="1:28">
@@ -4868,7 +4935,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>2025090012</v>
+        <v>2025090448</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
@@ -4877,42 +4944,42 @@
         <v>29</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J57" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L57" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="K57" s="7" t="s">
+      <c r="M57" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="L57" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M57" s="8" t="s">
-        <v>212</v>
-      </c>
       <c r="N57" s="8" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>199</v>
+        <v>43</v>
       </c>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
@@ -4922,45 +4989,907 @@
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA57" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB57" s="7"/>
+    </row>
+    <row r="58" spans="1:28">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2025090400</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3">
+        <v>3113</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
+    </row>
+    <row r="59" spans="1:28">
+      <c r="A59" s="7">
+        <v>57</v>
+      </c>
+      <c r="B59" s="7">
+        <v>2025090401</v>
+      </c>
+      <c r="C59" s="7">
+        <v>1</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7">
+        <v>3113</v>
+      </c>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA59" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB59" s="7"/>
+    </row>
+    <row r="60" spans="1:28">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2025090337</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3">
+        <v>48945</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+    </row>
+    <row r="61" spans="1:28">
+      <c r="A61" s="7">
+        <v>59</v>
+      </c>
+      <c r="B61" s="7">
+        <v>2025090338</v>
+      </c>
+      <c r="C61" s="7">
+        <v>1</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7">
+        <v>48945</v>
+      </c>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA61" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB61" s="7"/>
+    </row>
+    <row r="62" spans="1:28">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2025090603</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3">
+        <v>13789</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+    </row>
+    <row r="63" spans="1:28">
+      <c r="A63" s="7">
+        <v>61</v>
+      </c>
+      <c r="B63" s="7">
+        <v>2025090604</v>
+      </c>
+      <c r="C63" s="7">
+        <v>1</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7">
+        <v>13789</v>
+      </c>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA63" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB63" s="7"/>
+    </row>
+    <row r="64" spans="1:28">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2025090198</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
+      <c r="A65" s="7">
+        <v>63</v>
+      </c>
+      <c r="B65" s="7">
+        <v>2025090208</v>
+      </c>
+      <c r="C65" s="7">
+        <v>1</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7">
+        <v>0</v>
+      </c>
+      <c r="S65" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA65" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB65" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2025090314</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="J66" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="AA57" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB57" s="7"/>
-    </row>
-    <row r="58" spans="1:28">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
-      <c r="V58" s="9"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="9"/>
-      <c r="Z58" s="10"/>
-      <c r="AA58" s="9" t="s">
+      <c r="K66" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="AB58" s="9">
-        <v>22</v>
+      <c r="L66" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
+      <c r="A67" s="7">
+        <v>65</v>
+      </c>
+      <c r="B67" s="7">
+        <v>2025090356</v>
+      </c>
+      <c r="C67" s="7">
+        <v>1</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7">
+        <v>0</v>
+      </c>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA67" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB67" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2025090307</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA68" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
+      <c r="A69" s="7">
+        <v>67</v>
+      </c>
+      <c r="B69" s="7">
+        <v>2025090382</v>
+      </c>
+      <c r="C69" s="7">
+        <v>1</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7">
+        <v>0</v>
+      </c>
+      <c r="S69" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA69" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB69" s="7"/>
+    </row>
+    <row r="70" spans="1:28">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2025090012</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA70" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB70" s="3"/>
+    </row>
+    <row r="71" spans="1:28">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="9"/>
+      <c r="Y71" s="9"/>
+      <c r="Z71" s="10"/>
+      <c r="AA71" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB71" s="9">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202509_Service_Count_Report.xlsx
+++ b/IM/202509_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$97</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="317">
   <si>
     <t>服務次數統計表        篩選月份：202509</t>
   </si>
@@ -164,6 +164,30 @@
     <t>抄表</t>
   </si>
   <si>
+    <t>2025-09-04</t>
+  </si>
+  <si>
+    <t>12:52:00</t>
+  </si>
+  <si>
+    <t>13:07:00</t>
+  </si>
+  <si>
+    <t>T302800001</t>
+  </si>
+  <si>
+    <t>eS-3028A 黑白複合機</t>
+  </si>
+  <si>
+    <t>財團法人台北國際社區青年育樂活動中心基金會</t>
+  </si>
+  <si>
+    <t>台北市士林區天玉街26-1號</t>
+  </si>
+  <si>
+    <t>天玉街</t>
+  </si>
+  <si>
     <t>09:30:00</t>
   </si>
   <si>
@@ -173,9 +197,6 @@
     <t>T302800006</t>
   </si>
   <si>
-    <t>eS-3028A 黑白複合機</t>
-  </si>
-  <si>
     <t xml:space="preserve">信宇顧問有限公司 </t>
   </si>
   <si>
@@ -317,6 +338,21 @@
     <t>淡水櫻花店</t>
   </si>
   <si>
+    <t>15:40:00</t>
+  </si>
+  <si>
+    <t>16:03:00</t>
+  </si>
+  <si>
+    <t>THILF04788</t>
+  </si>
+  <si>
+    <t>新北市淡水區新市五路二段51、53、55號</t>
+  </si>
+  <si>
+    <t>淡水國家店</t>
+  </si>
+  <si>
     <t>14:37:00</t>
   </si>
   <si>
@@ -425,6 +461,30 @@
     <t>pm</t>
   </si>
   <si>
+    <t>13:40:00</t>
+  </si>
+  <si>
+    <t>14:10:00</t>
+  </si>
+  <si>
+    <t>T251000087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全聯有線電視股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市新莊區和興街66號3樓(節目中心)</t>
+  </si>
+  <si>
+    <t>節目中心</t>
+  </si>
+  <si>
+    <t>維修</t>
+  </si>
+  <si>
+    <t>紙匣驚嘆號，紙張未夾緊，重新裝紙正常</t>
+  </si>
+  <si>
     <t>T252000125</t>
   </si>
   <si>
@@ -485,6 +545,30 @@
     <t>節目部</t>
   </si>
   <si>
+    <t>T301800171</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正區336-1號(新莊)</t>
+  </si>
+  <si>
+    <t>新莊</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>T301800174</t>
+  </si>
+  <si>
+    <t>新北市板橋區中山路1段10號5樓(板橋分校)</t>
+  </si>
+  <si>
+    <t>板橋</t>
+  </si>
+  <si>
     <t>10:30:00</t>
   </si>
   <si>
@@ -515,6 +599,12 @@
     <t>五股運輸</t>
   </si>
   <si>
+    <t>T302800123</t>
+  </si>
+  <si>
+    <t>新北市三重區正義北路218號(三重分校)</t>
+  </si>
+  <si>
     <t>T351800042</t>
   </si>
   <si>
@@ -530,6 +620,9 @@
     <t>蘆洲北二處</t>
   </si>
   <si>
+    <t>更換OD OD刮 回刮 鐵粉</t>
+  </si>
+  <si>
     <t>T351800045</t>
   </si>
   <si>
@@ -554,6 +647,18 @@
     <t>櫃台1</t>
   </si>
   <si>
+    <t>08:30:00</t>
+  </si>
+  <si>
+    <t>T351800083</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(工程部1)</t>
+  </si>
+  <si>
+    <t>工程部1</t>
+  </si>
+  <si>
     <t>T351800084</t>
   </si>
   <si>
@@ -572,9 +677,6 @@
     <t>營管部</t>
   </si>
   <si>
-    <t>15:00:00</t>
-  </si>
-  <si>
     <t>T351800110</t>
   </si>
   <si>
@@ -611,9 +713,6 @@
     <t>新北市新莊區中正路657-10號2樓</t>
   </si>
   <si>
-    <t>新莊</t>
-  </si>
-  <si>
     <t>T451800027</t>
   </si>
   <si>
@@ -644,9 +743,6 @@
     <t>林口文化1F營業部</t>
   </si>
   <si>
-    <t>08:30:00</t>
-  </si>
-  <si>
     <t>T452800069</t>
   </si>
   <si>
@@ -656,6 +752,18 @@
     <t>台北客服4樓-2LJ6(黑)</t>
   </si>
   <si>
+    <t>TE30600111</t>
+  </si>
+  <si>
+    <t>eS-306 黑白複合機</t>
+  </si>
+  <si>
+    <t>新北市泰山區美寧街57巷34號1樓(異地備援)</t>
+  </si>
+  <si>
+    <t>異地備援泰山</t>
+  </si>
+  <si>
     <t>THILF03921</t>
   </si>
   <si>
@@ -665,6 +773,30 @@
     <t>五股福鑫店</t>
   </si>
   <si>
+    <t>13:36:00</t>
+  </si>
+  <si>
+    <t>THILF04025</t>
+  </si>
+  <si>
+    <t>急修件</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>新北市新莊區中信街20號一樓全部、22號一樓部份</t>
+  </si>
+  <si>
+    <t>新莊祐信店</t>
+  </si>
+  <si>
+    <t>更換SC第一顆硬碟不備份還原，並告知更換許小姐硬碟注意事項
+HiPOS 最新版本 S0807 54 0 ARC DEF ARC4 815u
+SC 20250805
+SC Slave 20250805</t>
+  </si>
+  <si>
     <t>13:30:00</t>
   </si>
   <si>
@@ -689,18 +821,12 @@
     <t>一般件</t>
   </si>
   <si>
-    <t>其他</t>
-  </si>
-  <si>
     <t>新北市新莊區中港三街5及7號</t>
   </si>
   <si>
     <t>新莊小胖店</t>
   </si>
   <si>
-    <t>維修</t>
-  </si>
-  <si>
     <t>紙卷紙心變形無法列印 重裝紙卷</t>
   </si>
   <si>
@@ -725,22 +851,52 @@
     <t>取消報修</t>
   </si>
   <si>
+    <t>13:45:00</t>
+  </si>
+  <si>
+    <t>14:05:00</t>
+  </si>
+  <si>
+    <t>THILF02403</t>
+  </si>
+  <si>
+    <t>新北市板橋區龍興街73巷2、4號1樓</t>
+  </si>
+  <si>
+    <t>北縣板龍店</t>
+  </si>
+  <si>
+    <t>14:26:00</t>
+  </si>
+  <si>
+    <t>14:40:00</t>
+  </si>
+  <si>
+    <t>THILF02422</t>
+  </si>
+  <si>
+    <t>新北市板橋區大觀路3段160巷31弄1號</t>
+  </si>
+  <si>
+    <t>北縣板億店</t>
+  </si>
+  <si>
     <t>08:50:00</t>
   </si>
   <si>
+    <t>10:20:00</t>
+  </si>
+  <si>
+    <t>THILF03752</t>
+  </si>
+  <si>
+    <t>新北市板橋區四川路一段391號1F</t>
+  </si>
+  <si>
+    <t>板橋豫章店</t>
+  </si>
+  <si>
     <t>09:50:00</t>
-  </si>
-  <si>
-    <t>THILF03752</t>
-  </si>
-  <si>
-    <t>急修件</t>
-  </si>
-  <si>
-    <t>新北市板橋區四川路一段391號1F</t>
-  </si>
-  <si>
-    <t>板橋豫章店</t>
   </si>
   <si>
     <t>更換TCx800主機 硬碟無更換 
@@ -748,9 +904,6 @@
 換下 8185002487</t>
   </si>
   <si>
-    <t>10:20:00</t>
-  </si>
-  <si>
     <t>09:17:00</t>
   </si>
   <si>
@@ -758,6 +911,82 @@
   </si>
   <si>
     <t>一般轉緊急</t>
+  </si>
+  <si>
+    <t>15:45:00</t>
+  </si>
+  <si>
+    <t>16:12:00</t>
+  </si>
+  <si>
+    <t>THILF03818</t>
+  </si>
+  <si>
+    <t>新北市板橋區長江路2段2號一樓</t>
+  </si>
+  <si>
+    <t>板橋漢江店</t>
+  </si>
+  <si>
+    <t>更換發票機
+換上 8155006323
+換下 8155004152</t>
+  </si>
+  <si>
+    <t>13:35:00</t>
+  </si>
+  <si>
+    <t>THILF04145</t>
+  </si>
+  <si>
+    <t>新北市板橋區僑中二街104巷1、3號一樓部份</t>
+  </si>
+  <si>
+    <t>板橋僑興店</t>
+  </si>
+  <si>
+    <t>更換TCx800主機 硬碟無更換 
+換上 8185002961
+換下 8185002316</t>
+  </si>
+  <si>
+    <t>15:08:00</t>
+  </si>
+  <si>
+    <t>THILF04422</t>
+  </si>
+  <si>
+    <t>新北市板橋區合安一路61號一樓全部</t>
+  </si>
+  <si>
+    <t>板橋合安店</t>
+  </si>
+  <si>
+    <t>15:15:00</t>
+  </si>
+  <si>
+    <t>15:35:00</t>
+  </si>
+  <si>
+    <t>THILF0D161</t>
+  </si>
+  <si>
+    <t>新北市板橋區僑中一街125巷8弄2號</t>
+  </si>
+  <si>
+    <t>北縣僑中三店</t>
+  </si>
+  <si>
+    <t>14:23:00</t>
+  </si>
+  <si>
+    <t>THILF0D609</t>
+  </si>
+  <si>
+    <t>新北市板橋區大觀路二段142之2號</t>
+  </si>
+  <si>
+    <t>板橋大興店</t>
   </si>
   <si>
     <t>合計</t>
@@ -1174,10 +1403,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB71"/>
+  <dimension ref="A1:AB97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A71" sqref="A71"/>
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1471,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>2025090587</v>
+        <v>2025090773</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1483,37 +1712,39 @@
         <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="O5" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7">
-        <v>27400</v>
+        <v>67393</v>
       </c>
       <c r="S5" s="7" t="s">
         <v>41</v>
@@ -1539,7 +1770,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>2025090588</v>
+        <v>2025090774</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -1551,37 +1782,39 @@
         <v>30</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="O6" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3">
-        <v>27400</v>
+        <v>67393</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -1603,7 +1836,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>2025090589</v>
+        <v>2025090587</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1618,38 +1851,34 @@
         <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>39</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="N7" s="8"/>
       <c r="O7" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P7" s="7"/>
-      <c r="Q7" s="7">
-        <v>2394</v>
-      </c>
+      <c r="Q7" s="7"/>
       <c r="R7" s="7">
-        <v>295402</v>
+        <v>27400</v>
       </c>
       <c r="S7" s="7" t="s">
         <v>41</v>
@@ -1675,7 +1904,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>2025090590</v>
+        <v>2025090588</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1690,38 +1919,34 @@
         <v>31</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>39</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="N8" s="6"/>
       <c r="O8" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3">
-        <v>2394</v>
-      </c>
+      <c r="Q8" s="3"/>
       <c r="R8" s="3">
-        <v>295402</v>
+        <v>27400</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -1743,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>2025090417</v>
+        <v>2025090589</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -1755,7 +1980,7 @@
         <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>57</v>
@@ -1766,24 +1991,30 @@
       <c r="I9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L9" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="7">
+        <v>2394</v>
+      </c>
       <c r="R9" s="7">
-        <v>0</v>
+        <v>295402</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>41</v>
@@ -1795,7 +2026,7 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="8" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AA9" s="7" t="s">
         <v>41</v>
@@ -1809,7 +2040,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>2025090282</v>
+        <v>2025090590</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -1821,39 +2052,43 @@
         <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L10" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="Q10" s="3">
+        <v>2394</v>
+      </c>
       <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>295402</v>
+      </c>
+      <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
@@ -1861,21 +2096,19 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="6" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB10" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="7">
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>2025090217</v>
+        <v>2025090417</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1887,27 +2120,27 @@
         <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="H11" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1927,7 +2160,7 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AA11" s="7" t="s">
         <v>41</v>
@@ -1941,7 +2174,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>2025090650</v>
+        <v>2025090282</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1953,27 +2186,27 @@
         <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>40</v>
@@ -1993,7 +2226,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>41</v>
@@ -2007,7 +2240,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>2025090413</v>
+        <v>2025090217</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -2019,27 +2252,27 @@
         <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>40</v>
@@ -2059,7 +2292,7 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AA13" s="7" t="s">
         <v>41</v>
@@ -2073,7 +2306,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>2025090599</v>
+        <v>2025090650</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -2088,24 +2321,24 @@
         <v>31</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>40</v>
@@ -2125,7 +2358,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="6" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>41</v>
@@ -2139,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>2025090460</v>
+        <v>2025090413</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -2151,27 +2384,27 @@
         <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -2191,7 +2424,7 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AA15" s="7" t="s">
         <v>41</v>
@@ -2205,7 +2438,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2025090428</v>
+        <v>2025090599</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -2217,27 +2450,27 @@
         <v>30</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>40</v>
@@ -2257,7 +2490,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="6" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="AA16" s="3" t="s">
         <v>41</v>
@@ -2271,7 +2504,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2025090467</v>
+        <v>2025090460</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2283,27 +2516,27 @@
         <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>40</v>
@@ -2323,7 +2556,7 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AA17" s="7" t="s">
         <v>41</v>
@@ -2337,7 +2570,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025090294</v>
+        <v>2025090664</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2349,27 +2582,27 @@
         <v>30</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M18" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="N18" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>40</v>
@@ -2389,7 +2622,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>41</v>
@@ -2403,7 +2636,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025090406</v>
+        <v>2025090428</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2415,27 +2648,27 @@
         <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2455,7 +2688,7 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AA19" s="7" t="s">
         <v>41</v>
@@ -2469,7 +2702,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2025090290</v>
+        <v>2025090467</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2481,27 +2714,27 @@
         <v>30</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M20" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="N20" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>40</v>
@@ -2521,7 +2754,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>41</v>
@@ -2535,7 +2768,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>2025090222</v>
+        <v>2025090294</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2547,27 +2780,27 @@
         <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>40</v>
@@ -2587,7 +2820,7 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AA21" s="7" t="s">
         <v>41</v>
@@ -2601,7 +2834,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2025090398</v>
+        <v>2025090406</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -2610,44 +2843,38 @@
         <v>29</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="N22" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P22" s="3"/>
-      <c r="Q22" s="3">
-        <v>27754</v>
-      </c>
+      <c r="Q22" s="3"/>
       <c r="R22" s="3">
-        <v>44996</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>41</v>
@@ -2659,17 +2886,21 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2025090399</v>
+        <v>2025090290</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -2678,46 +2909,42 @@
         <v>29</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="J23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M23" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="N23" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="N23" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="O23" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7"/>
-      <c r="Q23" s="7">
-        <v>27754</v>
-      </c>
+      <c r="Q23" s="7"/>
       <c r="R23" s="7">
-        <v>44996</v>
-      </c>
-      <c r="S23" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
@@ -2725,19 +2952,21 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="8" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AA23" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB23" s="7"/>
+      <c r="AB23" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2025090339</v>
+        <v>2025090222</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -2746,44 +2975,38 @@
         <v>29</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" s="6" t="s">
+      <c r="N24" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P24" s="3"/>
-      <c r="Q24" s="3">
-        <v>543</v>
-      </c>
+      <c r="Q24" s="3"/>
       <c r="R24" s="3">
-        <v>33024</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>41</v>
@@ -2795,17 +3018,21 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="7">
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025090340</v>
+        <v>2025090398</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2814,46 +3041,48 @@
         <v>29</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7">
-        <v>543</v>
+        <v>27754</v>
       </c>
       <c r="R25" s="7">
-        <v>33024</v>
-      </c>
-      <c r="S25" s="7"/>
+        <v>44996</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
@@ -2861,11 +3090,9 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA25" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
     </row>
     <row r="26" spans="1:28">
@@ -2873,7 +3100,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025090353</v>
+        <v>2025090399</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -2882,22 +3109,22 @@
         <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>36</v>
@@ -2912,20 +3139,16 @@
         <v>141</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="P26" s="3"/>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>27754</v>
       </c>
       <c r="R26" s="3">
-        <v>41</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>44996</v>
+      </c>
+      <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
@@ -2933,21 +3156,19 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="AA26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB26" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="7">
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025090354</v>
+        <v>2025090772</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -2956,46 +3177,44 @@
         <v>29</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I27" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P27" s="7">
-        <v>0</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="P27" s="7"/>
       <c r="Q27" s="7">
-        <v>0</v>
+        <v>29193</v>
       </c>
       <c r="R27" s="7">
-        <v>41</v>
+        <v>25380</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -3005,19 +3224,21 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AA27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB27" s="7"/>
+      <c r="AB27" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025090633</v>
+        <v>2025090339</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -3026,42 +3247,44 @@
         <v>29</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
+      <c r="Q28" s="3">
+        <v>543</v>
+      </c>
       <c r="R28" s="3">
-        <v>399312</v>
+        <v>33024</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>41</v>
@@ -3073,7 +3296,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="6" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
@@ -3083,7 +3306,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025090634</v>
+        <v>2025090340</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -3092,42 +3315,44 @@
         <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
+      <c r="Q29" s="7">
+        <v>543</v>
+      </c>
       <c r="R29" s="7">
-        <v>399312</v>
+        <v>33024</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -3137,7 +3362,7 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="8" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="AA29" s="7" t="s">
         <v>41</v>
@@ -3149,7 +3374,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025090620</v>
+        <v>2025090353</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -3158,42 +3383,46 @@
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
       <c r="R30" s="3">
-        <v>164853</v>
+        <v>41</v>
       </c>
       <c r="S30" s="3" t="s">
         <v>41</v>
@@ -3205,17 +3434,21 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025090621</v>
+        <v>2025090354</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -3224,42 +3457,46 @@
         <v>29</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
+      <c r="P31" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>0</v>
+      </c>
       <c r="R31" s="7">
-        <v>164853</v>
+        <v>41</v>
       </c>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
@@ -3269,7 +3506,7 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="AA31" s="7" t="s">
         <v>41</v>
@@ -3281,7 +3518,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2025090342</v>
+        <v>2025090633</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3290,44 +3527,46 @@
         <v>29</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3">
-        <v>276567</v>
-      </c>
-      <c r="S32" s="3"/>
+        <v>399312</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
@@ -3335,21 +3574,17 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>1</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="7">
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2025090341</v>
+        <v>2025090634</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -3358,46 +3593,44 @@
         <v>29</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7">
-        <v>276567</v>
-      </c>
-      <c r="S33" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>399312</v>
+      </c>
+      <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
@@ -3405,9 +3638,11 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA33" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="AA33" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB33" s="7"/>
     </row>
     <row r="34" spans="1:28">
@@ -3415,7 +3650,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2025090345</v>
+        <v>2025090621</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -3424,46 +3659,44 @@
         <v>29</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3">
-        <v>218331</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>164853</v>
+      </c>
+      <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
@@ -3471,17 +3704,21 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025090346</v>
+        <v>2025090620</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3490,44 +3727,46 @@
         <v>29</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7">
-        <v>218331</v>
-      </c>
-      <c r="S35" s="7"/>
+        <v>164853</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
@@ -3535,11 +3774,9 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA35" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
     </row>
     <row r="36" spans="1:28">
@@ -3547,7 +3784,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2025090351</v>
+        <v>2025090826</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -3556,34 +3793,34 @@
         <v>29</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>40</v>
@@ -3591,7 +3828,7 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3">
-        <v>295043</v>
+        <v>47184</v>
       </c>
       <c r="S36" s="3" t="s">
         <v>41</v>
@@ -3603,17 +3840,21 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="AA36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="7">
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2025090352</v>
+        <v>2025090827</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -3622,34 +3863,34 @@
         <v>29</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>43</v>
@@ -3657,7 +3898,7 @@
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7">
-        <v>295043</v>
+        <v>47184</v>
       </c>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
@@ -3667,7 +3908,7 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="8" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="AA37" s="7" t="s">
         <v>41</v>
@@ -3679,7 +3920,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2025090343</v>
+        <v>2025090824</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -3688,34 +3929,34 @@
         <v>29</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>40</v>
@@ -3723,7 +3964,7 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3">
-        <v>116934</v>
+        <v>77485</v>
       </c>
       <c r="S38" s="3" t="s">
         <v>41</v>
@@ -3735,17 +3976,21 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="AA38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="7">
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025090344</v>
+        <v>2025090825</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -3754,34 +3999,34 @@
         <v>29</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>43</v>
@@ -3789,7 +4034,7 @@
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7">
-        <v>116934</v>
+        <v>77485</v>
       </c>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
@@ -3799,7 +4044,7 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="8" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="AA39" s="7" t="s">
         <v>41</v>
@@ -3811,7 +4056,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025090403</v>
+        <v>2025090341</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -3820,44 +4065,46 @@
         <v>29</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3">
-        <v>117282</v>
-      </c>
-      <c r="S40" s="3"/>
+        <v>276567</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -3865,21 +4112,17 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB40" s="3">
-        <v>1</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="7">
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>2025090402</v>
+        <v>2025090342</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -3888,46 +4131,44 @@
         <v>29</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7">
-        <v>117282</v>
-      </c>
-      <c r="S41" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>276567</v>
+      </c>
+      <c r="S41" s="7"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
@@ -3935,9 +4176,11 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA41" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="AA41" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB41" s="7"/>
     </row>
     <row r="42" spans="1:28">
@@ -3945,7 +4188,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>2025090631</v>
+        <v>2025090345</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -3954,34 +4197,34 @@
         <v>29</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>40</v>
@@ -3989,7 +4232,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3">
-        <v>11696</v>
+        <v>218331</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>41</v>
@@ -4001,7 +4244,7 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="6" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
@@ -4011,7 +4254,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>2025090632</v>
+        <v>2025090346</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -4020,34 +4263,34 @@
         <v>29</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>43</v>
@@ -4055,7 +4298,7 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7">
-        <v>11696</v>
+        <v>218331</v>
       </c>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
@@ -4065,7 +4308,7 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="8" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="AA43" s="7" t="s">
         <v>41</v>
@@ -4077,7 +4320,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>2025090626</v>
+        <v>2025090823</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -4086,46 +4329,44 @@
         <v>29</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3">
-        <v>266405</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>2957</v>
+      </c>
+      <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
@@ -4133,17 +4374,21 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="7">
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>2025090627</v>
+        <v>2025090822</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
@@ -4152,44 +4397,46 @@
         <v>29</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7">
-        <v>266405</v>
-      </c>
-      <c r="S45" s="7"/>
+        <v>2957</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
@@ -4197,7 +4444,7 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="8" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="AA45" s="7" t="s">
         <v>41</v>
@@ -4209,7 +4456,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2025090622</v>
+        <v>2025090351</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4218,34 +4465,34 @@
         <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>40</v>
@@ -4253,7 +4500,7 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3">
-        <v>152312</v>
+        <v>295043</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>41</v>
@@ -4265,7 +4512,7 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="6" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
@@ -4275,7 +4522,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>2025090623</v>
+        <v>2025090352</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4284,34 +4531,34 @@
         <v>29</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>43</v>
@@ -4319,7 +4566,7 @@
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7">
-        <v>152312</v>
+        <v>295043</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
@@ -4329,7 +4576,7 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="AA47" s="7" t="s">
         <v>41</v>
@@ -4341,7 +4588,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2025090349</v>
+        <v>2025090668</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -4350,46 +4597,44 @@
         <v>29</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3">
-        <v>183883</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>296708</v>
+      </c>
+      <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
@@ -4397,17 +4642,21 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
+        <v>196</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:28">
       <c r="A49" s="7">
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>2025090350</v>
+        <v>2025090343</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -4416,44 +4665,46 @@
         <v>29</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7">
-        <v>183883</v>
-      </c>
-      <c r="S49" s="7"/>
+        <v>116934</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
@@ -4461,11 +4712,9 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA49" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AA49" s="7"/>
       <c r="AB49" s="7"/>
     </row>
     <row r="50" spans="1:28">
@@ -4473,7 +4722,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>2025090347</v>
+        <v>2025090344</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -4482,46 +4731,44 @@
         <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3">
-        <v>355156</v>
-      </c>
-      <c r="S50" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>116934</v>
+      </c>
+      <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
@@ -4529,9 +4776,11 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA50" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="AA50" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB50" s="3"/>
     </row>
     <row r="51" spans="1:28">
@@ -4539,7 +4788,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>2025090348</v>
+        <v>2025090402</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
@@ -4548,44 +4797,46 @@
         <v>29</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7">
-        <v>355156</v>
-      </c>
-      <c r="S51" s="7"/>
+        <v>117282</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
@@ -4593,11 +4844,9 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA51" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AA51" s="7"/>
       <c r="AB51" s="7"/>
     </row>
     <row r="52" spans="1:28">
@@ -4605,7 +4854,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>2025090624</v>
+        <v>2025090403</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -4614,46 +4863,44 @@
         <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3">
-        <v>203749</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>117282</v>
+      </c>
+      <c r="S52" s="3"/>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
@@ -4661,9 +4908,11 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA52" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB52" s="3"/>
     </row>
     <row r="53" spans="1:28">
@@ -4671,7 +4920,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>2025090625</v>
+        <v>2025090631</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
@@ -4680,44 +4929,46 @@
         <v>29</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7">
-        <v>203749</v>
-      </c>
-      <c r="S53" s="7"/>
+        <v>11696</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
@@ -4725,11 +4976,9 @@
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA53" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AA53" s="7"/>
       <c r="AB53" s="7"/>
     </row>
     <row r="54" spans="1:28">
@@ -4737,7 +4986,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>2025090407</v>
+        <v>2025090632</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -4746,46 +4995,44 @@
         <v>29</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3">
-        <v>38923</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>11696</v>
+      </c>
+      <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
@@ -4793,9 +5040,11 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA54" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB54" s="3"/>
     </row>
     <row r="55" spans="1:28">
@@ -4803,7 +5052,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>2025090408</v>
+        <v>2025090720</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -4812,44 +5061,46 @@
         <v>29</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7">
-        <v>38923</v>
-      </c>
-      <c r="S55" s="7"/>
+        <v>152312</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
@@ -4857,11 +5108,9 @@
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA55" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AA55" s="7"/>
       <c r="AB55" s="7"/>
     </row>
     <row r="56" spans="1:28">
@@ -4869,7 +5118,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>2025090447</v>
+        <v>2025090721</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -4878,46 +5127,44 @@
         <v>29</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3">
-        <v>19</v>
-      </c>
-      <c r="S56" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>152312</v>
+      </c>
+      <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
@@ -4925,9 +5172,11 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA56" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="AA56" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB56" s="3"/>
     </row>
     <row r="57" spans="1:28">
@@ -4935,7 +5184,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>2025090448</v>
+        <v>2025090626</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
@@ -4944,44 +5193,46 @@
         <v>29</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7">
-        <v>19</v>
-      </c>
-      <c r="S57" s="7"/>
+        <v>266405</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
@@ -4989,11 +5240,9 @@
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA57" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AA57" s="7"/>
       <c r="AB57" s="7"/>
     </row>
     <row r="58" spans="1:28">
@@ -5001,7 +5250,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>2025090400</v>
+        <v>2025090627</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -5010,46 +5259,44 @@
         <v>29</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3">
-        <v>3113</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>266405</v>
+      </c>
+      <c r="S58" s="3"/>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
@@ -5057,9 +5304,11 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA58" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB58" s="3"/>
     </row>
     <row r="59" spans="1:28">
@@ -5067,7 +5316,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>2025090401</v>
+        <v>2025090622</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
@@ -5076,44 +5325,46 @@
         <v>29</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7">
-        <v>3113</v>
-      </c>
-      <c r="S59" s="7"/>
+        <v>152312</v>
+      </c>
+      <c r="S59" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
@@ -5121,11 +5372,9 @@
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA59" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AA59" s="7"/>
       <c r="AB59" s="7"/>
     </row>
     <row r="60" spans="1:28">
@@ -5133,7 +5382,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>2025090337</v>
+        <v>2025090623</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -5142,46 +5391,44 @@
         <v>29</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3">
-        <v>48945</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>152312</v>
+      </c>
+      <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
@@ -5189,9 +5436,11 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA60" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB60" s="3"/>
     </row>
     <row r="61" spans="1:28">
@@ -5199,7 +5448,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>2025090338</v>
+        <v>2025090723</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
@@ -5208,34 +5457,34 @@
         <v>29</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="O61" s="7" t="s">
         <v>43</v>
@@ -5243,7 +5492,7 @@
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7">
-        <v>48945</v>
+        <v>131134</v>
       </c>
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
@@ -5253,19 +5502,21 @@
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="8" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="AA61" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB61" s="7"/>
+      <c r="AB61" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:28">
       <c r="A62" s="3">
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>2025090603</v>
+        <v>2025090722</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -5274,34 +5525,34 @@
         <v>29</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>204</v>
+        <v>135</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>40</v>
@@ -5309,7 +5560,7 @@
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3">
-        <v>13789</v>
+        <v>131134</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>41</v>
@@ -5321,7 +5572,7 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="6" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
@@ -5331,7 +5582,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>2025090604</v>
+        <v>2025090349</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
@@ -5340,44 +5591,46 @@
         <v>29</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7">
-        <v>13789</v>
-      </c>
-      <c r="S63" s="7"/>
+        <v>183883</v>
+      </c>
+      <c r="S63" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
@@ -5385,11 +5638,9 @@
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA63" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
     </row>
     <row r="64" spans="1:28">
@@ -5397,7 +5648,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>2025090198</v>
+        <v>2025090350</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -5406,42 +5657,44 @@
         <v>29</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
+        <v>215</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L64" s="6" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3">
-        <v>0</v>
-      </c>
-      <c r="S64" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>183883</v>
+      </c>
+      <c r="S64" s="3"/>
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
@@ -5449,21 +5702,19 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="6" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="AA64" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB64" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB64" s="3"/>
     </row>
     <row r="65" spans="1:28">
       <c r="A65" s="7">
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>2025090208</v>
+        <v>2025090347</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -5472,30 +5723,34 @@
         <v>29</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
+        <v>217</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L65" s="8" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="O65" s="7" t="s">
         <v>40</v>
@@ -5503,7 +5758,7 @@
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7">
-        <v>0</v>
+        <v>355156</v>
       </c>
       <c r="S65" s="7" t="s">
         <v>41</v>
@@ -5515,21 +5770,17 @@
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA65" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB65" s="7">
-        <v>1</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
     </row>
     <row r="66" spans="1:28">
       <c r="A66" s="3">
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>2025090314</v>
+        <v>2025090348</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -5538,42 +5789,42 @@
         <v>29</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>217</v>
       </c>
       <c r="J66" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="M66" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="N66" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="L66" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M66" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="N66" s="6" t="s">
-        <v>221</v>
-      </c>
       <c r="O66" s="3" t="s">
-        <v>222</v>
+        <v>43</v>
       </c>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3">
-        <v>0</v>
+        <v>355156</v>
       </c>
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
@@ -5583,21 +5834,19 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="6" t="s">
-        <v>223</v>
+        <v>142</v>
       </c>
       <c r="AA66" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB66" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB66" s="3"/>
     </row>
     <row r="67" spans="1:28">
       <c r="A67" s="7">
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>2025090356</v>
+        <v>2025090624</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
@@ -5606,44 +5855,46 @@
         <v>29</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7">
-        <v>0</v>
-      </c>
-      <c r="S67" s="7"/>
+        <v>203749</v>
+      </c>
+      <c r="S67" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -5651,21 +5902,17 @@
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA67" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB67" s="7">
-        <v>1</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AA67" s="7"/>
+      <c r="AB67" s="7"/>
     </row>
     <row r="68" spans="1:28">
       <c r="A68" s="3">
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <v>2025090307</v>
+        <v>2025090625</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -5674,42 +5921,42 @@
         <v>29</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>231</v>
+        <v>136</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>222</v>
+        <v>43</v>
       </c>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3">
-        <v>0</v>
+        <v>203749</v>
       </c>
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
@@ -5719,21 +5966,19 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="6" t="s">
-        <v>237</v>
+        <v>142</v>
       </c>
       <c r="AA68" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB68" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB68" s="3"/>
     </row>
     <row r="69" spans="1:28">
       <c r="A69" s="7">
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>2025090382</v>
+        <v>2025090407</v>
       </c>
       <c r="C69" s="7">
         <v>1</v>
@@ -5742,30 +5987,34 @@
         <v>29</v>
       </c>
       <c r="E69" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="J69" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F69" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
+      <c r="K69" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L69" s="8" t="s">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="O69" s="7" t="s">
         <v>40</v>
@@ -5773,7 +6022,7 @@
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7">
-        <v>0</v>
+        <v>38923</v>
       </c>
       <c r="S69" s="7" t="s">
         <v>41</v>
@@ -5785,11 +6034,9 @@
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA69" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AA69" s="7"/>
       <c r="AB69" s="7"/>
     </row>
     <row r="70" spans="1:28">
@@ -5797,7 +6044,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <v>2025090012</v>
+        <v>2025090408</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
@@ -5806,42 +6053,42 @@
         <v>29</v>
       </c>
       <c r="E70" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J70" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="K70" s="3" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>222</v>
+        <v>43</v>
       </c>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>38923</v>
       </c>
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
@@ -5851,45 +6098,1773 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA70" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB70" s="3"/>
+    </row>
+    <row r="71" spans="1:28">
+      <c r="A71" s="7">
+        <v>69</v>
+      </c>
+      <c r="B71" s="7">
+        <v>2025090447</v>
+      </c>
+      <c r="C71" s="7">
+        <v>1</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="O71" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7">
+        <v>19</v>
+      </c>
+      <c r="S71" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA71" s="7"/>
+      <c r="AB71" s="7"/>
+    </row>
+    <row r="72" spans="1:28">
+      <c r="A72" s="3">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2025090448</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3">
+        <v>19</v>
+      </c>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB72" s="3"/>
+    </row>
+    <row r="73" spans="1:28">
+      <c r="A73" s="7">
+        <v>71</v>
+      </c>
+      <c r="B73" s="7">
+        <v>2025090400</v>
+      </c>
+      <c r="C73" s="7">
+        <v>1</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="O73" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7">
+        <v>3113</v>
+      </c>
+      <c r="S73" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA73" s="7"/>
+      <c r="AB73" s="7"/>
+    </row>
+    <row r="74" spans="1:28">
+      <c r="A74" s="3">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2025090401</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3">
+        <v>3113</v>
+      </c>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA74" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB74" s="3"/>
+    </row>
+    <row r="75" spans="1:28">
+      <c r="A75" s="7">
+        <v>73</v>
+      </c>
+      <c r="B75" s="7">
+        <v>2025090337</v>
+      </c>
+      <c r="C75" s="7">
+        <v>1</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="N75" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="O75" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7">
+        <v>48945</v>
+      </c>
+      <c r="S75" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="7"/>
+    </row>
+    <row r="76" spans="1:28">
+      <c r="A76" s="3">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3">
+        <v>2025090338</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3">
+        <v>48945</v>
+      </c>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB76" s="3"/>
+    </row>
+    <row r="77" spans="1:28">
+      <c r="A77" s="7">
+        <v>75</v>
+      </c>
+      <c r="B77" s="7">
+        <v>2025090603</v>
+      </c>
+      <c r="C77" s="7">
+        <v>1</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="N77" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7">
+        <v>13789</v>
+      </c>
+      <c r="S77" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7"/>
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA77" s="7"/>
+      <c r="AB77" s="7"/>
+    </row>
+    <row r="78" spans="1:28">
+      <c r="A78" s="3">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2025090604</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3">
+        <v>13789</v>
+      </c>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA78" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB78" s="3"/>
+    </row>
+    <row r="79" spans="1:28">
+      <c r="A79" s="7">
+        <v>77</v>
+      </c>
+      <c r="B79" s="7">
+        <v>2025090728</v>
+      </c>
+      <c r="C79" s="7">
+        <v>1</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J79" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="AA70" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB70" s="3"/>
-    </row>
-    <row r="71" spans="1:28">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
-      <c r="X71" s="9"/>
-      <c r="Y71" s="9"/>
-      <c r="Z71" s="10"/>
-      <c r="AA71" s="9" t="s">
+      <c r="K79" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M79" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="AB71" s="9">
-        <v>24</v>
+      <c r="N79" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="O79" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7">
+        <v>25836</v>
+      </c>
+      <c r="S79" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA79" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB79" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
+      <c r="A80" s="3">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3">
+        <v>2025090729</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="M80" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3">
+        <v>25836</v>
+      </c>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA80" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB80" s="3"/>
+    </row>
+    <row r="81" spans="1:28">
+      <c r="A81" s="7">
+        <v>79</v>
+      </c>
+      <c r="B81" s="7">
+        <v>2025090198</v>
+      </c>
+      <c r="C81" s="7">
+        <v>1</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="N81" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7">
+        <v>0</v>
+      </c>
+      <c r="S81" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+      <c r="Y81" s="7"/>
+      <c r="Z81" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA81" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB81" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
+      <c r="A82" s="3">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3">
+        <v>2025090719</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3">
+        <v>0</v>
+      </c>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA82" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
+      <c r="A83" s="7">
+        <v>81</v>
+      </c>
+      <c r="B83" s="7">
+        <v>2025090208</v>
+      </c>
+      <c r="C83" s="7">
+        <v>1</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="N83" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="O83" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7">
+        <v>0</v>
+      </c>
+      <c r="S83" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+      <c r="Y83" s="7"/>
+      <c r="Z83" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA83" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB83" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
+      <c r="A84" s="3">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2025090314</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M84" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="N84" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="O84" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA84" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
+      <c r="A85" s="7">
+        <v>83</v>
+      </c>
+      <c r="B85" s="7">
+        <v>2025090356</v>
+      </c>
+      <c r="C85" s="7">
+        <v>1</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M85" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="N85" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="O85" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7">
+        <v>0</v>
+      </c>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="7"/>
+      <c r="Z85" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA85" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB85" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
+      <c r="A86" s="3">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3">
+        <v>2025090785</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="O86" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA86" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
+      <c r="A87" s="7">
+        <v>85</v>
+      </c>
+      <c r="B87" s="7">
+        <v>2025090801</v>
+      </c>
+      <c r="C87" s="7">
+        <v>1</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M87" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="N87" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="O87" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7">
+        <v>0</v>
+      </c>
+      <c r="S87" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA87" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB87" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
+      <c r="A88" s="3">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2025090382</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA88" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
+      <c r="A89" s="7">
+        <v>87</v>
+      </c>
+      <c r="B89" s="7">
+        <v>2025090307</v>
+      </c>
+      <c r="C89" s="7">
+        <v>1</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M89" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="N89" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="O89" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7">
+        <v>0</v>
+      </c>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="7"/>
+      <c r="Y89" s="7"/>
+      <c r="Z89" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA89" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB89" s="7"/>
+    </row>
+    <row r="90" spans="1:28">
+      <c r="A90" s="3">
+        <v>88</v>
+      </c>
+      <c r="B90" s="3">
+        <v>2025090012</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="O90" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3">
+        <v>0</v>
+      </c>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA90" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="1:28">
+      <c r="A91" s="7">
+        <v>89</v>
+      </c>
+      <c r="B91" s="7">
+        <v>2025090712</v>
+      </c>
+      <c r="C91" s="7">
+        <v>1</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M91" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="N91" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="O91" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7">
+        <v>0</v>
+      </c>
+      <c r="S91" s="7"/>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
+      <c r="Y91" s="7"/>
+      <c r="Z91" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA91" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB91" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
+      <c r="A92" s="3">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3">
+        <v>2025090821</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="O92" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z92" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA92" s="3"/>
+      <c r="AB92" s="3"/>
+    </row>
+    <row r="93" spans="1:28">
+      <c r="A93" s="7">
+        <v>91</v>
+      </c>
+      <c r="B93" s="7">
+        <v>2025090555</v>
+      </c>
+      <c r="C93" s="7">
+        <v>1</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L93" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M93" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="N93" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="O93" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7">
+        <v>0</v>
+      </c>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA93" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB93" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
+      <c r="A94" s="3">
+        <v>92</v>
+      </c>
+      <c r="B94" s="3">
+        <v>2025090805</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
+      <c r="A95" s="7">
+        <v>93</v>
+      </c>
+      <c r="B95" s="7">
+        <v>2025090814</v>
+      </c>
+      <c r="C95" s="7">
+        <v>1</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M95" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="N95" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="O95" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7">
+        <v>0</v>
+      </c>
+      <c r="S95" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="7"/>
+      <c r="Y95" s="7"/>
+      <c r="Z95" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA95" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB95" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
+      <c r="A96" s="3">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3">
+        <v>2025090797</v>
+      </c>
+      <c r="C96" s="3">
+        <v>1</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M96" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N96" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="O96" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA96" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="9"/>
+      <c r="S97" s="9"/>
+      <c r="T97" s="9"/>
+      <c r="U97" s="9"/>
+      <c r="V97" s="9"/>
+      <c r="W97" s="9"/>
+      <c r="X97" s="9"/>
+      <c r="Y97" s="9"/>
+      <c r="Z97" s="10"/>
+      <c r="AA97" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB97" s="9">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202509_Service_Count_Report.xlsx
+++ b/IM/202509_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$97</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$111</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="349">
   <si>
     <t>服務次數統計表        篩選月份：202509</t>
   </si>
@@ -221,6 +221,33 @@
     <t>新北市淡水區中正路28號4樓(淡水)</t>
   </si>
   <si>
+    <t>2025-09-05</t>
+  </si>
+  <si>
+    <t>10:11:00</t>
+  </si>
+  <si>
+    <t>10:41:00</t>
+  </si>
+  <si>
+    <t>T552800002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eS-5528A 黑白複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奎山學校財團法人 </t>
+  </si>
+  <si>
+    <t>台北市北投區明德路200號</t>
+  </si>
+  <si>
+    <t>維修</t>
+  </si>
+  <si>
+    <t>送黑色碳粉 1</t>
+  </si>
+  <si>
     <t>2025-09-02</t>
   </si>
   <si>
@@ -437,18 +464,33 @@
     <t>湯家瑋</t>
   </si>
   <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>T251000029</t>
+  </si>
+  <si>
+    <t>eS-2510AC 彩色複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">力翔精密機械有限公司 </t>
+  </si>
+  <si>
+    <t>新北市蘆洲區和平路114巷8號6樓</t>
+  </si>
+  <si>
+    <t>鴻森</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
     <t>09:00:00</t>
   </si>
   <si>
-    <t>10:00:00</t>
-  </si>
-  <si>
     <t>T251000065</t>
   </si>
   <si>
-    <t>eS-2510AC 彩色複合機</t>
-  </si>
-  <si>
     <t xml:space="preserve">台固媒體股份有限公司 </t>
   </si>
   <si>
@@ -479,18 +521,54 @@
     <t>節目中心</t>
   </si>
   <si>
-    <t>維修</t>
-  </si>
-  <si>
     <t>紙匣驚嘆號，紙張未夾緊，重新裝紙正常</t>
   </si>
   <si>
+    <t>11:30:00</t>
+  </si>
+  <si>
+    <t>T252000025</t>
+  </si>
+  <si>
+    <t>eS-2520AC 彩色複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">品興營造股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市泰山區莊田路與信華三街交叉口(華固一莊)</t>
+  </si>
+  <si>
+    <t>華固一莊</t>
+  </si>
+  <si>
+    <t>10:30:00</t>
+  </si>
+  <si>
+    <t>T252000086</t>
+  </si>
+  <si>
+    <t>新北市三重區仁義街79巷旁工地</t>
+  </si>
+  <si>
+    <t>華固慕川</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>T252000113</t>
+  </si>
+  <si>
+    <t>新北市三重區仁義街與元信一街交叉口</t>
+  </si>
+  <si>
+    <t>華固織幸</t>
+  </si>
+  <si>
     <t>T252000125</t>
   </si>
   <si>
-    <t>eS-2520AC 彩色複合機</t>
-  </si>
-  <si>
     <t>合作金庫商業銀行股份有限公司林口文化分行</t>
   </si>
   <si>
@@ -518,12 +596,6 @@
     <t>三重</t>
   </si>
   <si>
-    <t>11:30:00</t>
-  </si>
-  <si>
-    <t>12:00:00</t>
-  </si>
-  <si>
     <t>T301800025</t>
   </si>
   <si>
@@ -554,9 +626,6 @@
     <t>新莊</t>
   </si>
   <si>
-    <t>PM</t>
-  </si>
-  <si>
     <t>15:00:00</t>
   </si>
   <si>
@@ -569,9 +638,6 @@
     <t>板橋</t>
   </si>
   <si>
-    <t>10:30:00</t>
-  </si>
-  <si>
     <t>T302800057</t>
   </si>
   <si>
@@ -699,6 +765,27 @@
   </si>
   <si>
     <t>工程部2</t>
+  </si>
+  <si>
+    <t>T351800123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">喬治費歇爾機械股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區興德路94號</t>
+  </si>
+  <si>
+    <t>T352500148</t>
+  </si>
+  <si>
+    <t>eS-3525AC 彩色複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宏偉營造工程有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區光復路1段61巷26號2樓</t>
   </si>
   <si>
     <t>T451800006</t>
@@ -948,6 +1035,15 @@
     <t>更換TCx800主機 硬碟無更換 
 換上 8185002961
 換下 8185002316</t>
+  </si>
+  <si>
+    <t>11:08:00</t>
+  </si>
+  <si>
+    <t>11:34:00</t>
+  </si>
+  <si>
+    <t>線路重插後測試正常</t>
   </si>
   <si>
     <t>15:08:00</t>
@@ -1403,10 +1499,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB97"/>
+  <dimension ref="A1:AB111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A97" sqref="A97"/>
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2108,7 +2204,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>2025090417</v>
+        <v>2025090896</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -2131,28 +2227,28 @@
       <c r="I11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L11" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N11" s="8" t="s">
         <v>69</v>
       </c>
+      <c r="N11" s="8"/>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7">
-        <v>0</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>34013</v>
+      </c>
+      <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
@@ -2160,7 +2256,7 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA11" s="7" t="s">
         <v>41</v>
@@ -2174,7 +2270,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>2025090282</v>
+        <v>2025090417</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -2186,27 +2282,27 @@
         <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>40</v>
@@ -2226,7 +2322,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>41</v>
@@ -2240,7 +2336,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>2025090217</v>
+        <v>2025090282</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -2252,27 +2348,27 @@
         <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="8" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>40</v>
@@ -2292,7 +2388,7 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AA13" s="7" t="s">
         <v>41</v>
@@ -2306,7 +2402,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>2025090650</v>
+        <v>2025090217</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -2318,27 +2414,27 @@
         <v>30</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>40</v>
@@ -2358,7 +2454,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>41</v>
@@ -2372,7 +2468,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>2025090413</v>
+        <v>2025090650</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -2384,27 +2480,27 @@
         <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="8" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -2424,7 +2520,7 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="8" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AA15" s="7" t="s">
         <v>41</v>
@@ -2438,7 +2534,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2025090599</v>
+        <v>2025090413</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -2450,27 +2546,27 @@
         <v>30</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>40</v>
@@ -2490,7 +2586,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="6" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AA16" s="3" t="s">
         <v>41</v>
@@ -2504,7 +2600,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2025090460</v>
+        <v>2025090599</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2516,27 +2612,27 @@
         <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="8" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>40</v>
@@ -2556,7 +2652,7 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="8" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="AA17" s="7" t="s">
         <v>41</v>
@@ -2570,7 +2666,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025090664</v>
+        <v>2025090460</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2582,27 +2678,27 @@
         <v>30</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>40</v>
@@ -2622,7 +2718,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>41</v>
@@ -2636,7 +2732,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025090428</v>
+        <v>2025090664</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2648,27 +2744,27 @@
         <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="8" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2688,7 +2784,7 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AA19" s="7" t="s">
         <v>41</v>
@@ -2702,7 +2798,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2025090467</v>
+        <v>2025090428</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2714,27 +2810,27 @@
         <v>30</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>40</v>
@@ -2754,7 +2850,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>41</v>
@@ -2768,7 +2864,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>2025090294</v>
+        <v>2025090467</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2780,27 +2876,27 @@
         <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="8" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>40</v>
@@ -2820,7 +2916,7 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="8" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AA21" s="7" t="s">
         <v>41</v>
@@ -2834,7 +2930,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2025090406</v>
+        <v>2025090294</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -2846,27 +2942,27 @@
         <v>30</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>120</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>40</v>
@@ -2886,7 +2982,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>41</v>
@@ -2900,7 +2996,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2025090290</v>
+        <v>2025090406</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -2912,27 +3008,27 @@
         <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="8" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2952,7 +3048,7 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="8" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AA23" s="7" t="s">
         <v>41</v>
@@ -2966,7 +3062,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2025090222</v>
+        <v>2025090290</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -2978,27 +3074,27 @@
         <v>30</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>40</v>
@@ -3018,7 +3114,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>41</v>
@@ -3032,7 +3128,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025090398</v>
+        <v>2025090222</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -3041,44 +3137,38 @@
         <v>29</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="8" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P25" s="7"/>
-      <c r="Q25" s="7">
-        <v>27754</v>
-      </c>
+      <c r="Q25" s="7"/>
       <c r="R25" s="7">
-        <v>44996</v>
+        <v>0</v>
       </c>
       <c r="S25" s="7" t="s">
         <v>41</v>
@@ -3090,17 +3180,21 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="AA25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025090399</v>
+        <v>2025090914</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -3109,46 +3203,48 @@
         <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3">
-        <v>27754</v>
+        <v>10988</v>
       </c>
       <c r="R26" s="3">
-        <v>44996</v>
-      </c>
-      <c r="S26" s="3"/>
+        <v>76907</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
@@ -3156,19 +3252,21 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="AA26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB26" s="3"/>
+      <c r="AB26" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="7">
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025090772</v>
+        <v>2025090915</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -3177,13 +3275,13 @@
         <v>29</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>144</v>
@@ -3192,29 +3290,29 @@
         <v>145</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7">
-        <v>29193</v>
+        <v>10988</v>
       </c>
       <c r="R27" s="7">
-        <v>25380</v>
+        <v>76907</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -3229,16 +3327,14 @@
       <c r="AA27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB27" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB27" s="7"/>
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025090339</v>
+        <v>2025090398</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -3247,22 +3343,22 @@
         <v>29</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>36</v>
@@ -3281,10 +3377,10 @@
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3">
-        <v>543</v>
+        <v>27754</v>
       </c>
       <c r="R28" s="3">
-        <v>33024</v>
+        <v>44996</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>41</v>
@@ -3296,7 +3392,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="6" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
@@ -3306,7 +3402,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025090340</v>
+        <v>2025090399</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -3315,22 +3411,22 @@
         <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>36</v>
@@ -3349,10 +3445,10 @@
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7">
-        <v>543</v>
+        <v>27754</v>
       </c>
       <c r="R29" s="7">
-        <v>33024</v>
+        <v>44996</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -3362,7 +3458,7 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="8" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="AA29" s="7" t="s">
         <v>41</v>
@@ -3374,7 +3470,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025090353</v>
+        <v>2025090772</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -3383,50 +3479,46 @@
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P30" s="3">
-        <v>0</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P30" s="3"/>
       <c r="Q30" s="3">
-        <v>0</v>
+        <v>29193</v>
       </c>
       <c r="R30" s="3">
-        <v>41</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>25380</v>
+      </c>
+      <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
@@ -3434,7 +3526,7 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="6" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="AA30" s="3" t="s">
         <v>41</v>
@@ -3448,7 +3540,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025090354</v>
+        <v>2025090953</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -3457,48 +3549,50 @@
         <v>29</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P31" s="7">
-        <v>0</v>
+        <v>6429</v>
       </c>
       <c r="Q31" s="7">
-        <v>0</v>
+        <v>15099</v>
       </c>
       <c r="R31" s="7">
-        <v>41</v>
-      </c>
-      <c r="S31" s="7"/>
+        <v>18367</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
@@ -3506,19 +3600,21 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="AA31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB31" s="7"/>
+      <c r="AB31" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2025090633</v>
+        <v>2025090954</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3527,46 +3623,48 @@
         <v>29</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="P32" s="3">
+        <v>6429</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>15099</v>
+      </c>
       <c r="R32" s="3">
-        <v>399312</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>18367</v>
+      </c>
+      <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
@@ -3574,9 +3672,11 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA32" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28">
@@ -3584,7 +3684,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2025090634</v>
+        <v>2025090951</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -3593,44 +3693,50 @@
         <v>29</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="P33" s="7">
+        <v>1773</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>2596</v>
+      </c>
       <c r="R33" s="7">
-        <v>399312</v>
-      </c>
-      <c r="S33" s="7"/>
+        <v>7150</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
@@ -3638,19 +3744,21 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="8" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="AA33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB33" s="7"/>
+      <c r="AB33" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2025090621</v>
+        <v>2025090952</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -3659,42 +3767,46 @@
         <v>29</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
+      <c r="P34" s="3">
+        <v>1773</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>2596</v>
+      </c>
       <c r="R34" s="3">
-        <v>164853</v>
+        <v>7150</v>
       </c>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
@@ -3704,21 +3816,19 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="AA34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB34" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025090620</v>
+        <v>2025090955</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3727,42 +3837,46 @@
         <v>29</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
+      <c r="P35" s="7">
+        <v>99</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>854</v>
+      </c>
       <c r="R35" s="7">
-        <v>164853</v>
+        <v>2805</v>
       </c>
       <c r="S35" s="7" t="s">
         <v>41</v>
@@ -3774,17 +3888,21 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
+        <v>150</v>
+      </c>
+      <c r="AA35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB35" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2025090826</v>
+        <v>2025090956</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -3793,46 +3911,48 @@
         <v>29</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="P36" s="3">
+        <v>99</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>854</v>
+      </c>
       <c r="R36" s="3">
-        <v>47184</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>2805</v>
+      </c>
+      <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
@@ -3840,21 +3960,19 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="6" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="AA36" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB36" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="7">
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2025090827</v>
+        <v>2025090339</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -3863,44 +3981,48 @@
         <v>29</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
+      <c r="Q37" s="7">
+        <v>543</v>
+      </c>
       <c r="R37" s="7">
-        <v>47184</v>
-      </c>
-      <c r="S37" s="7"/>
+        <v>33024</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
@@ -3908,11 +4030,9 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA37" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
     </row>
     <row r="38" spans="1:28">
@@ -3920,7 +4040,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2025090824</v>
+        <v>2025090340</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -3929,46 +4049,46 @@
         <v>29</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
+      <c r="Q38" s="3">
+        <v>543</v>
+      </c>
       <c r="R38" s="3">
-        <v>77485</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>33024</v>
+      </c>
+      <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -3976,21 +4096,19 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="6" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="AA38" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB38" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="7">
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025090825</v>
+        <v>2025090353</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -3999,44 +4117,50 @@
         <v>29</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="P39" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>0</v>
+      </c>
       <c r="R39" s="7">
-        <v>77485</v>
-      </c>
-      <c r="S39" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
@@ -4044,19 +4168,21 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="8" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="AA39" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB39" s="7"/>
+      <c r="AB39" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025090341</v>
+        <v>2025090354</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -4065,46 +4191,48 @@
         <v>29</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="P40" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>0</v>
+      </c>
       <c r="R40" s="3">
-        <v>276567</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -4112,9 +4240,11 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA40" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28">
@@ -4122,7 +4252,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>2025090342</v>
+        <v>2025090633</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -4131,44 +4261,46 @@
         <v>29</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7">
-        <v>276567</v>
-      </c>
-      <c r="S41" s="7"/>
+        <v>399312</v>
+      </c>
+      <c r="S41" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
@@ -4176,11 +4308,9 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA41" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
     </row>
     <row r="42" spans="1:28">
@@ -4188,7 +4318,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>2025090345</v>
+        <v>2025090634</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -4197,46 +4327,44 @@
         <v>29</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3">
-        <v>218331</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>399312</v>
+      </c>
+      <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
@@ -4244,9 +4372,11 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA42" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="1:28">
@@ -4254,7 +4384,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>2025090346</v>
+        <v>2025090620</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -4263,44 +4393,46 @@
         <v>29</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7">
-        <v>218331</v>
-      </c>
-      <c r="S43" s="7"/>
+        <v>164853</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
@@ -4308,11 +4440,9 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA43" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AA43" s="7"/>
       <c r="AB43" s="7"/>
     </row>
     <row r="44" spans="1:28">
@@ -4320,7 +4450,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>2025090823</v>
+        <v>2025090621</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -4329,34 +4459,34 @@
         <v>29</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>43</v>
@@ -4364,7 +4494,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3">
-        <v>2957</v>
+        <v>164853</v>
       </c>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
@@ -4374,21 +4504,19 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="6" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB44" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB44" s="3"/>
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="7">
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>2025090822</v>
+        <v>2025090826</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
@@ -4397,22 +4525,22 @@
         <v>29</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>36</v>
@@ -4421,10 +4549,10 @@
         <v>37</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>40</v>
@@ -4432,7 +4560,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7">
-        <v>2957</v>
+        <v>47184</v>
       </c>
       <c r="S45" s="7" t="s">
         <v>41</v>
@@ -4444,19 +4572,21 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="8" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="AA45" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB45" s="7"/>
+      <c r="AB45" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2025090351</v>
+        <v>2025090827</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4465,46 +4595,44 @@
         <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3">
-        <v>295043</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>47184</v>
+      </c>
+      <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
@@ -4512,9 +4640,11 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA46" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28">
@@ -4522,7 +4652,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>2025090352</v>
+        <v>2025090824</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4531,44 +4661,46 @@
         <v>29</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7">
-        <v>295043</v>
-      </c>
-      <c r="S47" s="7"/>
+        <v>77485</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
@@ -4576,19 +4708,21 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="AA47" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB47" s="7"/>
+      <c r="AB47" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2025090668</v>
+        <v>2025090825</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -4597,42 +4731,42 @@
         <v>29</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3">
-        <v>296708</v>
+        <v>77485</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
@@ -4642,21 +4776,19 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="6" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB48" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB48" s="3"/>
     </row>
     <row r="49" spans="1:28">
       <c r="A49" s="7">
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>2025090343</v>
+        <v>2025090341</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -4665,34 +4797,34 @@
         <v>29</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>192</v>
+        <v>48</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="O49" s="7" t="s">
         <v>40</v>
@@ -4700,7 +4832,7 @@
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7">
-        <v>116934</v>
+        <v>276567</v>
       </c>
       <c r="S49" s="7" t="s">
         <v>41</v>
@@ -4712,7 +4844,7 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="8" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="AA49" s="7"/>
       <c r="AB49" s="7"/>
@@ -4722,7 +4854,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>2025090344</v>
+        <v>2025090342</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -4731,34 +4863,34 @@
         <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>192</v>
+        <v>48</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>43</v>
@@ -4766,7 +4898,7 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3">
-        <v>116934</v>
+        <v>276567</v>
       </c>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
@@ -4776,7 +4908,7 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="6" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="AA50" s="3" t="s">
         <v>41</v>
@@ -4788,7 +4920,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>2025090402</v>
+        <v>2025090345</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
@@ -4797,34 +4929,34 @@
         <v>29</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>192</v>
+        <v>48</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>40</v>
@@ -4832,7 +4964,7 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7">
-        <v>117282</v>
+        <v>218331</v>
       </c>
       <c r="S51" s="7" t="s">
         <v>41</v>
@@ -4844,7 +4976,7 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="AA51" s="7"/>
       <c r="AB51" s="7"/>
@@ -4854,7 +4986,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>2025090403</v>
+        <v>2025090346</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -4863,34 +4995,34 @@
         <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>192</v>
+        <v>48</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>43</v>
@@ -4898,7 +5030,7 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3">
-        <v>117282</v>
+        <v>218331</v>
       </c>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
@@ -4908,7 +5040,7 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="6" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>41</v>
@@ -4920,7 +5052,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>2025090631</v>
+        <v>2025090822</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
@@ -4929,34 +5061,34 @@
         <v>29</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>192</v>
+        <v>48</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="O53" s="7" t="s">
         <v>40</v>
@@ -4964,7 +5096,7 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7">
-        <v>11696</v>
+        <v>2957</v>
       </c>
       <c r="S53" s="7" t="s">
         <v>41</v>
@@ -4976,17 +5108,21 @@
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA53" s="7"/>
-      <c r="AB53" s="7"/>
+        <v>150</v>
+      </c>
+      <c r="AA53" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB53" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>2025090632</v>
+        <v>2025090823</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -4995,34 +5131,34 @@
         <v>29</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>192</v>
+        <v>48</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>43</v>
@@ -5030,7 +5166,7 @@
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3">
-        <v>11696</v>
+        <v>2957</v>
       </c>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
@@ -5040,7 +5176,7 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>41</v>
@@ -5052,7 +5188,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>2025090720</v>
+        <v>2025090351</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -5061,34 +5197,34 @@
         <v>29</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>205</v>
+        <v>92</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>40</v>
@@ -5096,7 +5232,7 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7">
-        <v>152312</v>
+        <v>295043</v>
       </c>
       <c r="S55" s="7" t="s">
         <v>41</v>
@@ -5108,7 +5244,7 @@
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="8" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="AA55" s="7"/>
       <c r="AB55" s="7"/>
@@ -5118,7 +5254,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>2025090721</v>
+        <v>2025090352</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -5127,34 +5263,34 @@
         <v>29</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>205</v>
+        <v>92</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>43</v>
@@ -5162,7 +5298,7 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3">
-        <v>152312</v>
+        <v>295043</v>
       </c>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
@@ -5172,7 +5308,7 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="6" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="AA56" s="3" t="s">
         <v>41</v>
@@ -5184,7 +5320,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>2025090626</v>
+        <v>2025090668</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
@@ -5193,46 +5329,44 @@
         <v>29</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7">
-        <v>266405</v>
-      </c>
-      <c r="S57" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>296708</v>
+      </c>
+      <c r="S57" s="7"/>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
@@ -5240,17 +5374,21 @@
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA57" s="7"/>
-      <c r="AB57" s="7"/>
+        <v>218</v>
+      </c>
+      <c r="AA57" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB57" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:28">
       <c r="A58" s="3">
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>2025090627</v>
+        <v>2025090343</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -5259,44 +5397,46 @@
         <v>29</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3">
-        <v>266405</v>
-      </c>
-      <c r="S58" s="3"/>
+        <v>116934</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
@@ -5304,11 +5444,9 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA58" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
     </row>
     <row r="59" spans="1:28">
@@ -5316,7 +5454,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>2025090622</v>
+        <v>2025090344</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
@@ -5325,46 +5463,44 @@
         <v>29</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7">
-        <v>152312</v>
-      </c>
-      <c r="S59" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>116934</v>
+      </c>
+      <c r="S59" s="7"/>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
@@ -5372,9 +5508,11 @@
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA59" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AA59" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB59" s="7"/>
     </row>
     <row r="60" spans="1:28">
@@ -5382,7 +5520,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>2025090623</v>
+        <v>2025090402</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -5391,44 +5529,46 @@
         <v>29</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3">
-        <v>152312</v>
-      </c>
-      <c r="S60" s="3"/>
+        <v>117282</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
@@ -5436,11 +5576,9 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA60" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
     </row>
     <row r="61" spans="1:28">
@@ -5448,7 +5586,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>2025090723</v>
+        <v>2025090403</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
@@ -5457,34 +5595,34 @@
         <v>29</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="O61" s="7" t="s">
         <v>43</v>
@@ -5492,7 +5630,7 @@
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7">
-        <v>131134</v>
+        <v>117282</v>
       </c>
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
@@ -5502,21 +5640,19 @@
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="8" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="AA61" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB61" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB61" s="7"/>
     </row>
     <row r="62" spans="1:28">
       <c r="A62" s="3">
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>2025090722</v>
+        <v>2025090631</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -5525,34 +5661,34 @@
         <v>29</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>40</v>
@@ -5560,7 +5696,7 @@
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3">
-        <v>131134</v>
+        <v>11696</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>41</v>
@@ -5572,7 +5708,7 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="6" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
@@ -5582,7 +5718,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>2025090349</v>
+        <v>2025090632</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
@@ -5591,46 +5727,44 @@
         <v>29</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7">
-        <v>183883</v>
-      </c>
-      <c r="S63" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>11696</v>
+      </c>
+      <c r="S63" s="7"/>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
@@ -5638,9 +5772,11 @@
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA63" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AA63" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB63" s="7"/>
     </row>
     <row r="64" spans="1:28">
@@ -5648,7 +5784,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>2025090350</v>
+        <v>2025090720</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -5657,44 +5793,46 @@
         <v>29</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3">
-        <v>183883</v>
-      </c>
-      <c r="S64" s="3"/>
+        <v>152312</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
@@ -5702,11 +5840,9 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA64" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
     </row>
     <row r="65" spans="1:28">
@@ -5714,7 +5850,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>2025090347</v>
+        <v>2025090721</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -5723,46 +5859,44 @@
         <v>29</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7">
-        <v>355156</v>
-      </c>
-      <c r="S65" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>152312</v>
+      </c>
+      <c r="S65" s="7"/>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
       <c r="V65" s="7"/>
@@ -5770,9 +5904,11 @@
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA65" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AA65" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB65" s="7"/>
     </row>
     <row r="66" spans="1:28">
@@ -5780,7 +5916,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>2025090348</v>
+        <v>2025090626</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -5789,44 +5925,46 @@
         <v>29</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3">
-        <v>355156</v>
-      </c>
-      <c r="S66" s="3"/>
+        <v>266405</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
@@ -5834,11 +5972,9 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA66" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
     </row>
     <row r="67" spans="1:28">
@@ -5846,7 +5982,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>2025090624</v>
+        <v>2025090627</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
@@ -5855,46 +5991,44 @@
         <v>29</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7">
-        <v>203749</v>
-      </c>
-      <c r="S67" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>266405</v>
+      </c>
+      <c r="S67" s="7"/>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -5902,9 +6036,11 @@
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA67" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AA67" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB67" s="7"/>
     </row>
     <row r="68" spans="1:28">
@@ -5912,7 +6048,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <v>2025090625</v>
+        <v>2025090622</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -5921,44 +6057,46 @@
         <v>29</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3">
-        <v>203749</v>
-      </c>
-      <c r="S68" s="3"/>
+        <v>152312</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
@@ -5966,11 +6104,9 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA68" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
     </row>
     <row r="69" spans="1:28">
@@ -5978,7 +6114,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>2025090407</v>
+        <v>2025090623</v>
       </c>
       <c r="C69" s="7">
         <v>1</v>
@@ -5987,46 +6123,44 @@
         <v>29</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7">
-        <v>38923</v>
-      </c>
-      <c r="S69" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>152312</v>
+      </c>
+      <c r="S69" s="7"/>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
@@ -6034,9 +6168,11 @@
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA69" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AA69" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB69" s="7"/>
     </row>
     <row r="70" spans="1:28">
@@ -6044,7 +6180,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <v>2025090408</v>
+        <v>2025090722</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
@@ -6053,44 +6189,46 @@
         <v>29</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3">
-        <v>38923</v>
-      </c>
-      <c r="S70" s="3"/>
+        <v>131134</v>
+      </c>
+      <c r="S70" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
@@ -6098,11 +6236,9 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA70" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
     </row>
     <row r="71" spans="1:28">
@@ -6110,7 +6246,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>2025090447</v>
+        <v>2025090723</v>
       </c>
       <c r="C71" s="7">
         <v>1</v>
@@ -6119,46 +6255,44 @@
         <v>29</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7">
-        <v>19</v>
-      </c>
-      <c r="S71" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>131134</v>
+      </c>
+      <c r="S71" s="7"/>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
@@ -6166,9 +6300,11 @@
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
       <c r="Z71" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA71" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AA71" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB71" s="7"/>
     </row>
     <row r="72" spans="1:28">
@@ -6176,7 +6312,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>2025090448</v>
+        <v>2025090349</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -6185,44 +6321,46 @@
         <v>29</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3">
-        <v>19</v>
-      </c>
-      <c r="S72" s="3"/>
+        <v>183883</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
@@ -6230,11 +6368,9 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA72" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
     </row>
     <row r="73" spans="1:28">
@@ -6242,7 +6378,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>2025090400</v>
+        <v>2025090350</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
@@ -6251,46 +6387,44 @@
         <v>29</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7">
-        <v>3113</v>
-      </c>
-      <c r="S73" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>183883</v>
+      </c>
+      <c r="S73" s="7"/>
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
@@ -6298,9 +6432,11 @@
       <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
       <c r="Z73" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA73" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AA73" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB73" s="7"/>
     </row>
     <row r="74" spans="1:28">
@@ -6308,7 +6444,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3">
-        <v>2025090401</v>
+        <v>2025090347</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
@@ -6317,44 +6453,46 @@
         <v>29</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3">
-        <v>3113</v>
-      </c>
-      <c r="S74" s="3"/>
+        <v>355156</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
@@ -6362,11 +6500,9 @@
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA74" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
     </row>
     <row r="75" spans="1:28">
@@ -6374,7 +6510,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>2025090337</v>
+        <v>2025090348</v>
       </c>
       <c r="C75" s="7">
         <v>1</v>
@@ -6383,46 +6519,44 @@
         <v>29</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>52</v>
+        <v>198</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="K75" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7">
-        <v>48945</v>
-      </c>
-      <c r="S75" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>355156</v>
+      </c>
+      <c r="S75" s="7"/>
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
@@ -6430,9 +6564,11 @@
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA75" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AA75" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB75" s="7"/>
     </row>
     <row r="76" spans="1:28">
@@ -6440,7 +6576,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3">
-        <v>2025090338</v>
+        <v>2025090624</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
@@ -6449,44 +6585,46 @@
         <v>29</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3">
-        <v>48945</v>
-      </c>
-      <c r="S76" s="3"/>
+        <v>203749</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
@@ -6494,11 +6632,9 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
       <c r="Z76" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA76" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
     </row>
     <row r="77" spans="1:28">
@@ -6506,7 +6642,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="7">
-        <v>2025090603</v>
+        <v>2025090625</v>
       </c>
       <c r="C77" s="7">
         <v>1</v>
@@ -6515,46 +6651,44 @@
         <v>29</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7">
-        <v>13789</v>
-      </c>
-      <c r="S77" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>203749</v>
+      </c>
+      <c r="S77" s="7"/>
       <c r="T77" s="7"/>
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
@@ -6562,9 +6696,11 @@
       <c r="X77" s="7"/>
       <c r="Y77" s="7"/>
       <c r="Z77" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA77" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AA77" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB77" s="7"/>
     </row>
     <row r="78" spans="1:28">
@@ -6572,7 +6708,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <v>2025090604</v>
+        <v>2025090916</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
@@ -6581,44 +6717,44 @@
         <v>29</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="N78" s="6" t="s">
-        <v>239</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N78" s="6"/>
       <c r="O78" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="3">
-        <v>13789</v>
-      </c>
-      <c r="S78" s="3"/>
+        <v>136910</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T78" s="3"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
@@ -6626,19 +6762,21 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="AA78" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB78" s="3"/>
+      <c r="AB78" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:28">
       <c r="A79" s="7">
         <v>77</v>
       </c>
       <c r="B79" s="7">
-        <v>2025090728</v>
+        <v>2025090917</v>
       </c>
       <c r="C79" s="7">
         <v>1</v>
@@ -6647,46 +6785,42 @@
         <v>29</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>165</v>
+        <v>246</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="N79" s="8" t="s">
-        <v>243</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N79" s="8"/>
       <c r="O79" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7">
-        <v>25836</v>
-      </c>
-      <c r="S79" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>136910</v>
+      </c>
+      <c r="S79" s="7"/>
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
@@ -6694,21 +6828,19 @@
       <c r="X79" s="7"/>
       <c r="Y79" s="7"/>
       <c r="Z79" s="8" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="AA79" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB79" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB79" s="7"/>
     </row>
     <row r="80" spans="1:28">
       <c r="A80" s="3">
         <v>78</v>
       </c>
       <c r="B80" s="3">
-        <v>2025090729</v>
+        <v>2025090913</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
@@ -6717,42 +6849,44 @@
         <v>29</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="G80" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H80" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H80" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="I80" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>165</v>
+        <v>250</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="O80" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
+      <c r="Q80" s="3">
+        <v>1801</v>
+      </c>
       <c r="R80" s="3">
-        <v>25836</v>
+        <v>5799</v>
       </c>
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
@@ -6762,19 +6896,21 @@
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
       <c r="Z80" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="AA80" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB80" s="3"/>
+      <c r="AB80" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:28">
       <c r="A81" s="7">
         <v>79</v>
       </c>
       <c r="B81" s="7">
-        <v>2025090198</v>
+        <v>2025090912</v>
       </c>
       <c r="C81" s="7">
         <v>1</v>
@@ -6783,38 +6919,44 @@
         <v>29</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
+        <v>248</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L81" s="8" t="s">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="O81" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P81" s="7"/>
-      <c r="Q81" s="7"/>
+      <c r="Q81" s="7">
+        <v>1801</v>
+      </c>
       <c r="R81" s="7">
-        <v>0</v>
+        <v>5799</v>
       </c>
       <c r="S81" s="7" t="s">
         <v>41</v>
@@ -6826,21 +6968,19 @@
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="8" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AA81" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB81" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB81" s="7"/>
     </row>
     <row r="82" spans="1:28">
       <c r="A82" s="3">
         <v>80</v>
       </c>
       <c r="B82" s="3">
-        <v>2025090719</v>
+        <v>2025090407</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
@@ -6849,44 +6989,46 @@
         <v>29</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>247</v>
+        <v>164</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>67</v>
+        <v>254</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3">
-        <v>0</v>
-      </c>
-      <c r="S82" s="3"/>
+        <v>38923</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
@@ -6894,21 +7036,17 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA82" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB82" s="3">
-        <v>1</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
     </row>
     <row r="83" spans="1:28">
       <c r="A83" s="7">
         <v>81</v>
       </c>
       <c r="B83" s="7">
-        <v>2025090208</v>
+        <v>2025090408</v>
       </c>
       <c r="C83" s="7">
         <v>1</v>
@@ -6917,42 +7055,44 @@
         <v>29</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G83" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L83" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="M83" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="I83" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M83" s="8" t="s">
-        <v>257</v>
-      </c>
       <c r="N83" s="8" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7">
-        <v>0</v>
-      </c>
-      <c r="S83" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>38923</v>
+      </c>
+      <c r="S83" s="7"/>
       <c r="T83" s="7"/>
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
@@ -6960,21 +7100,19 @@
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
       <c r="Z83" s="8" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="AA83" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB83" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB83" s="7"/>
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="3">
         <v>82</v>
       </c>
       <c r="B84" s="3">
-        <v>2025090314</v>
+        <v>2025090447</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
@@ -6983,44 +7121,46 @@
         <v>29</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G84" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="M84" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="N84" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="H84" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="L84" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M84" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="N84" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="O84" s="3" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3">
-        <v>0</v>
-      </c>
-      <c r="S84" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
@@ -7028,21 +7168,17 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
       <c r="Z84" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA84" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB84" s="3">
-        <v>1</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AA84" s="3"/>
+      <c r="AB84" s="3"/>
     </row>
     <row r="85" spans="1:28">
       <c r="A85" s="7">
         <v>83</v>
       </c>
       <c r="B85" s="7">
-        <v>2025090356</v>
+        <v>2025090448</v>
       </c>
       <c r="C85" s="7">
         <v>1</v>
@@ -7051,42 +7187,42 @@
         <v>29</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>266</v>
+        <v>198</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>267</v>
+        <v>92</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>67</v>
+        <v>257</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="S85" s="7"/>
       <c r="T85" s="7"/>
@@ -7096,21 +7232,19 @@
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
       <c r="Z85" s="8" t="s">
-        <v>271</v>
+        <v>156</v>
       </c>
       <c r="AA85" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB85" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB85" s="7"/>
     </row>
     <row r="86" spans="1:28">
       <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="3">
-        <v>2025090785</v>
+        <v>2025090400</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
@@ -7119,30 +7253,34 @@
         <v>29</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>272</v>
+        <v>144</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>273</v>
+        <v>170</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
+        <v>260</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L86" s="6" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="O86" s="3" t="s">
         <v>40</v>
@@ -7150,7 +7288,7 @@
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="3">
-        <v>0</v>
+        <v>3113</v>
       </c>
       <c r="S86" s="3" t="s">
         <v>41</v>
@@ -7162,21 +7300,17 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
       <c r="Z86" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA86" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB86" s="3">
-        <v>1</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AA86" s="3"/>
+      <c r="AB86" s="3"/>
     </row>
     <row r="87" spans="1:28">
       <c r="A87" s="7">
         <v>85</v>
       </c>
       <c r="B87" s="7">
-        <v>2025090801</v>
+        <v>2025090401</v>
       </c>
       <c r="C87" s="7">
         <v>1</v>
@@ -7185,42 +7319,44 @@
         <v>29</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>278</v>
+        <v>170</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
+        <v>260</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L87" s="8" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>281</v>
+        <v>223</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7">
-        <v>0</v>
-      </c>
-      <c r="S87" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>3113</v>
+      </c>
+      <c r="S87" s="7"/>
       <c r="T87" s="7"/>
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
@@ -7228,21 +7364,19 @@
       <c r="X87" s="7"/>
       <c r="Y87" s="7"/>
       <c r="Z87" s="8" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="AA87" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB87" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB87" s="7"/>
     </row>
     <row r="88" spans="1:28">
       <c r="A88" s="3">
         <v>86</v>
       </c>
       <c r="B88" s="3">
-        <v>2025090382</v>
+        <v>2025090337</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
@@ -7251,30 +7385,34 @@
         <v>29</v>
       </c>
       <c r="E88" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="N88" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M88" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="N88" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="O88" s="3" t="s">
         <v>40</v>
@@ -7282,7 +7420,7 @@
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="3">
-        <v>0</v>
+        <v>48945</v>
       </c>
       <c r="S88" s="3" t="s">
         <v>41</v>
@@ -7294,21 +7432,17 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
       <c r="Z88" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA88" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB88" s="3">
-        <v>1</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AA88" s="3"/>
+      <c r="AB88" s="3"/>
     </row>
     <row r="89" spans="1:28">
       <c r="A89" s="7">
         <v>87</v>
       </c>
       <c r="B89" s="7">
-        <v>2025090307</v>
+        <v>2025090338</v>
       </c>
       <c r="C89" s="7">
         <v>1</v>
@@ -7317,42 +7451,42 @@
         <v>29</v>
       </c>
       <c r="E89" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M89" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="N89" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="F89" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="I89" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="J89" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="K89" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L89" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M89" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="N89" s="8" t="s">
-        <v>286</v>
-      </c>
       <c r="O89" s="7" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7">
-        <v>0</v>
+        <v>48945</v>
       </c>
       <c r="S89" s="7"/>
       <c r="T89" s="7"/>
@@ -7362,7 +7496,7 @@
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
       <c r="Z89" s="8" t="s">
-        <v>288</v>
+        <v>156</v>
       </c>
       <c r="AA89" s="7" t="s">
         <v>41</v>
@@ -7374,7 +7508,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3">
-        <v>2025090012</v>
+        <v>2025090603</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
@@ -7383,44 +7517,46 @@
         <v>29</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>290</v>
+        <v>151</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>67</v>
+        <v>257</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="O90" s="3" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3">
-        <v>0</v>
-      </c>
-      <c r="S90" s="3"/>
+        <v>13789</v>
+      </c>
+      <c r="S90" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
@@ -7428,11 +7564,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA90" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
     </row>
     <row r="91" spans="1:28">
@@ -7440,7 +7574,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="7">
-        <v>2025090712</v>
+        <v>2025090604</v>
       </c>
       <c r="C91" s="7">
         <v>1</v>
@@ -7449,42 +7583,42 @@
         <v>29</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>293</v>
+        <v>151</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>67</v>
+        <v>257</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7">
-        <v>0</v>
+        <v>13789</v>
       </c>
       <c r="S91" s="7"/>
       <c r="T91" s="7"/>
@@ -7494,21 +7628,19 @@
       <c r="X91" s="7"/>
       <c r="Y91" s="7"/>
       <c r="Z91" s="8" t="s">
-        <v>297</v>
+        <v>156</v>
       </c>
       <c r="AA91" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB91" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB91" s="7"/>
     </row>
     <row r="92" spans="1:28">
       <c r="A92" s="3">
         <v>90</v>
       </c>
       <c r="B92" s="3">
-        <v>2025090821</v>
+        <v>2025090728</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
@@ -7517,30 +7649,34 @@
         <v>29</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>292</v>
+        <v>52</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>293</v>
+        <v>144</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
+        <v>269</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L92" s="6" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="O92" s="3" t="s">
         <v>40</v>
@@ -7548,7 +7684,7 @@
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
       <c r="R92" s="3">
-        <v>0</v>
+        <v>25836</v>
       </c>
       <c r="S92" s="3" t="s">
         <v>41</v>
@@ -7558,21 +7694,23 @@
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
-      <c r="Y92" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y92" s="3"/>
       <c r="Z92" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA92" s="3"/>
-      <c r="AB92" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="AA92" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:28">
       <c r="A93" s="7">
         <v>91</v>
       </c>
       <c r="B93" s="7">
-        <v>2025090555</v>
+        <v>2025090729</v>
       </c>
       <c r="C93" s="7">
         <v>1</v>
@@ -7581,42 +7719,42 @@
         <v>29</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>298</v>
+        <v>144</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7">
-        <v>0</v>
+        <v>25836</v>
       </c>
       <c r="S93" s="7"/>
       <c r="T93" s="7"/>
@@ -7626,21 +7764,19 @@
       <c r="X93" s="7"/>
       <c r="Y93" s="7"/>
       <c r="Z93" s="8" t="s">
-        <v>302</v>
+        <v>156</v>
       </c>
       <c r="AA93" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB93" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB93" s="7"/>
     </row>
     <row r="94" spans="1:28">
       <c r="A94" s="3">
         <v>92</v>
       </c>
       <c r="B94" s="3">
-        <v>2025090805</v>
+        <v>2025090198</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
@@ -7649,30 +7785,30 @@
         <v>29</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>303</v>
+        <v>174</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>40</v>
@@ -7692,7 +7828,7 @@
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
       <c r="Z94" s="6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>41</v>
@@ -7706,7 +7842,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="7">
-        <v>2025090814</v>
+        <v>2025090719</v>
       </c>
       <c r="C95" s="7">
         <v>1</v>
@@ -7715,42 +7851,44 @@
         <v>29</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>307</v>
+        <v>174</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
+        <v>277</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="L95" s="8" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M95" s="8" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7">
         <v>0</v>
       </c>
-      <c r="S95" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S95" s="7"/>
       <c r="T95" s="7"/>
       <c r="U95" s="7"/>
       <c r="V95" s="7"/>
@@ -7758,7 +7896,7 @@
       <c r="X95" s="7"/>
       <c r="Y95" s="7"/>
       <c r="Z95" s="8" t="s">
-        <v>70</v>
+        <v>282</v>
       </c>
       <c r="AA95" s="7" t="s">
         <v>41</v>
@@ -7772,7 +7910,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3">
-        <v>2025090797</v>
+        <v>2025090208</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
@@ -7781,30 +7919,30 @@
         <v>29</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>144</v>
+        <v>283</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="O96" s="3" t="s">
         <v>40</v>
@@ -7824,47 +7962,979 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
       <c r="Z96" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA96" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
+      <c r="A97" s="7">
+        <v>95</v>
+      </c>
+      <c r="B97" s="7">
+        <v>2025090314</v>
+      </c>
+      <c r="C97" s="7">
+        <v>1</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M97" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="N97" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="O97" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AA96" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:28">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
-      <c r="L97" s="10"/>
-      <c r="M97" s="10"/>
-      <c r="N97" s="10"/>
-      <c r="O97" s="9"/>
-      <c r="P97" s="9"/>
-      <c r="Q97" s="9"/>
-      <c r="R97" s="9"/>
-      <c r="S97" s="9"/>
-      <c r="T97" s="9"/>
-      <c r="U97" s="9"/>
-      <c r="V97" s="9"/>
-      <c r="W97" s="9"/>
-      <c r="X97" s="9"/>
-      <c r="Y97" s="9"/>
-      <c r="Z97" s="10"/>
-      <c r="AA97" s="9" t="s">
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7">
+        <v>0</v>
+      </c>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="7"/>
+      <c r="Y97" s="7"/>
+      <c r="Z97" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA97" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB97" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28">
+      <c r="A98" s="3">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2025090356</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="N98" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="O98" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
+      <c r="Y98" s="3"/>
+      <c r="Z98" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA98" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28">
+      <c r="A99" s="7">
+        <v>97</v>
+      </c>
+      <c r="B99" s="7">
+        <v>2025090785</v>
+      </c>
+      <c r="C99" s="7">
+        <v>1</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M99" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="N99" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="O99" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7">
+        <v>0</v>
+      </c>
+      <c r="S99" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T99" s="7"/>
+      <c r="U99" s="7"/>
+      <c r="V99" s="7"/>
+      <c r="W99" s="7"/>
+      <c r="X99" s="7"/>
+      <c r="Y99" s="7"/>
+      <c r="Z99" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA99" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB99" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28">
+      <c r="A100" s="3">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3">
+        <v>2025090801</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M100" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="N100" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
+      <c r="Y100" s="3"/>
+      <c r="Z100" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA100" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28">
+      <c r="A101" s="7">
+        <v>99</v>
+      </c>
+      <c r="B101" s="7">
+        <v>2025090382</v>
+      </c>
+      <c r="C101" s="7">
+        <v>1</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M101" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="N101" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="O101" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7">
+        <v>0</v>
+      </c>
+      <c r="S101" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="7"/>
+      <c r="Y101" s="7"/>
+      <c r="Z101" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA101" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB101" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28">
+      <c r="A102" s="3">
+        <v>100</v>
+      </c>
+      <c r="B102" s="3">
+        <v>2025090307</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H102" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="AB97" s="9">
+      <c r="I102" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
+      <c r="U102" s="3"/>
+      <c r="V102" s="3"/>
+      <c r="W102" s="3"/>
+      <c r="X102" s="3"/>
+      <c r="Y102" s="3"/>
+      <c r="Z102" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA102" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB102" s="3"/>
+    </row>
+    <row r="103" spans="1:28">
+      <c r="A103" s="7">
+        <v>101</v>
+      </c>
+      <c r="B103" s="7">
+        <v>2025090012</v>
+      </c>
+      <c r="C103" s="7">
+        <v>1</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L103" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M103" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="N103" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="O103" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7">
+        <v>0</v>
+      </c>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7"/>
+      <c r="V103" s="7"/>
+      <c r="W103" s="7"/>
+      <c r="X103" s="7"/>
+      <c r="Y103" s="7"/>
+      <c r="Z103" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA103" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB103" s="7"/>
+    </row>
+    <row r="104" spans="1:28">
+      <c r="A104" s="3">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3">
+        <v>2025090712</v>
+      </c>
+      <c r="C104" s="3">
+        <v>1</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="O104" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3">
+        <v>0</v>
+      </c>
+      <c r="S104" s="3"/>
+      <c r="T104" s="3"/>
+      <c r="U104" s="3"/>
+      <c r="V104" s="3"/>
+      <c r="W104" s="3"/>
+      <c r="X104" s="3"/>
+      <c r="Y104" s="3"/>
+      <c r="Z104" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA104" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB104" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28">
+      <c r="A105" s="7">
+        <v>103</v>
+      </c>
+      <c r="B105" s="7">
+        <v>2025090821</v>
+      </c>
+      <c r="C105" s="7">
+        <v>1</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M105" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="N105" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="O105" s="7" t="s">
         <v>40</v>
+      </c>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7"/>
+      <c r="R105" s="7">
+        <v>0</v>
+      </c>
+      <c r="S105" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T105" s="7"/>
+      <c r="U105" s="7"/>
+      <c r="V105" s="7"/>
+      <c r="W105" s="7"/>
+      <c r="X105" s="7"/>
+      <c r="Y105" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z105" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA105" s="7"/>
+      <c r="AB105" s="7"/>
+    </row>
+    <row r="106" spans="1:28">
+      <c r="A106" s="3">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3">
+        <v>2025090555</v>
+      </c>
+      <c r="C106" s="3">
+        <v>1</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="O106" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3">
+        <v>0</v>
+      </c>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3"/>
+      <c r="U106" s="3"/>
+      <c r="V106" s="3"/>
+      <c r="W106" s="3"/>
+      <c r="X106" s="3"/>
+      <c r="Y106" s="3"/>
+      <c r="Z106" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA106" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB106" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28">
+      <c r="A107" s="7">
+        <v>105</v>
+      </c>
+      <c r="B107" s="7">
+        <v>2025090857</v>
+      </c>
+      <c r="C107" s="7">
+        <v>1</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M107" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="N107" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="O107" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7">
+        <v>0</v>
+      </c>
+      <c r="S107" s="7"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
+      <c r="V107" s="7"/>
+      <c r="W107" s="7"/>
+      <c r="X107" s="7"/>
+      <c r="Y107" s="7"/>
+      <c r="Z107" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA107" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB107" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28">
+      <c r="A108" s="3">
+        <v>106</v>
+      </c>
+      <c r="B108" s="3">
+        <v>2025090805</v>
+      </c>
+      <c r="C108" s="3">
+        <v>1</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M108" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="N108" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="O108" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3">
+        <v>0</v>
+      </c>
+      <c r="S108" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3"/>
+      <c r="V108" s="3"/>
+      <c r="W108" s="3"/>
+      <c r="X108" s="3"/>
+      <c r="Y108" s="3"/>
+      <c r="Z108" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA108" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB108" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28">
+      <c r="A109" s="7">
+        <v>107</v>
+      </c>
+      <c r="B109" s="7">
+        <v>2025090814</v>
+      </c>
+      <c r="C109" s="7">
+        <v>1</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M109" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="N109" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="O109" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="7"/>
+      <c r="R109" s="7">
+        <v>0</v>
+      </c>
+      <c r="S109" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T109" s="7"/>
+      <c r="U109" s="7"/>
+      <c r="V109" s="7"/>
+      <c r="W109" s="7"/>
+      <c r="X109" s="7"/>
+      <c r="Y109" s="7"/>
+      <c r="Z109" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA109" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB109" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28">
+      <c r="A110" s="3">
+        <v>108</v>
+      </c>
+      <c r="B110" s="3">
+        <v>2025090797</v>
+      </c>
+      <c r="C110" s="3">
+        <v>1</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="N110" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="O110" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3">
+        <v>0</v>
+      </c>
+      <c r="S110" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3"/>
+      <c r="V110" s="3"/>
+      <c r="W110" s="3"/>
+      <c r="X110" s="3"/>
+      <c r="Y110" s="3"/>
+      <c r="Z110" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA110" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB110" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28">
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="10"/>
+      <c r="O111" s="9"/>
+      <c r="P111" s="9"/>
+      <c r="Q111" s="9"/>
+      <c r="R111" s="9"/>
+      <c r="S111" s="9"/>
+      <c r="T111" s="9"/>
+      <c r="U111" s="9"/>
+      <c r="V111" s="9"/>
+      <c r="W111" s="9"/>
+      <c r="X111" s="9"/>
+      <c r="Y111" s="9"/>
+      <c r="Z111" s="10"/>
+      <c r="AA111" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB111" s="9">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202509_Service_Count_Report.xlsx
+++ b/IM/202509_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$111</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$122</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="369">
   <si>
     <t>服務次數統計表        篩選月份：202509</t>
   </si>
@@ -152,18 +152,18 @@
     <t>淡水</t>
   </si>
   <si>
+    <t>抄表</t>
+  </si>
+  <si>
+    <t>PM抄表</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
     <t>服務</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>PM抄表</t>
-  </si>
-  <si>
-    <t>抄表</t>
-  </si>
-  <si>
     <t>2025-09-04</t>
   </si>
   <si>
@@ -350,6 +350,32 @@
     <t>PMQ3 TVV</t>
   </si>
   <si>
+    <t>16:10:00</t>
+  </si>
+  <si>
+    <t>16:40:00</t>
+  </si>
+  <si>
+    <t>THILF04698</t>
+  </si>
+  <si>
+    <t>一般件</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>新北市三重區光復路二段117之1號</t>
+  </si>
+  <si>
+    <t>三重頂崁店</t>
+  </si>
+  <si>
+    <t>更換螢幕
+換下8133000923
+換上8133003666</t>
+  </si>
+  <si>
     <t>15:50:00</t>
   </si>
   <si>
@@ -407,9 +433,6 @@
     <t>淡水小坪頂</t>
   </si>
   <si>
-    <t>16:40:00</t>
-  </si>
-  <si>
     <t>THILF05197</t>
   </si>
   <si>
@@ -434,9 +457,6 @@
     <t>淡水金龍店</t>
   </si>
   <si>
-    <t>16:10:00</t>
-  </si>
-  <si>
     <t>THILF0D193</t>
   </si>
   <si>
@@ -485,6 +505,21 @@
     <t>PM</t>
   </si>
   <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>14:30:00</t>
+  </si>
+  <si>
+    <t>T251000051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">沛盈實業有限公司 </t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路665號9樓</t>
+  </si>
+  <si>
     <t>09:00:00</t>
   </si>
   <si>
@@ -554,6 +589,21 @@
     <t>華固慕川</t>
   </si>
   <si>
+    <t>13:30:00</t>
+  </si>
+  <si>
+    <t>T252000102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">仲誠不動產經紀有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區重新路3段110號</t>
+  </si>
+  <si>
+    <t>三重</t>
+  </si>
+  <si>
     <t>12:00:00</t>
   </si>
   <si>
@@ -593,9 +643,6 @@
     <t>台北市信義區德厚街76號7樓</t>
   </si>
   <si>
-    <t>三重</t>
-  </si>
-  <si>
     <t>T301800025</t>
   </si>
   <si>
@@ -638,6 +685,36 @@
     <t>板橋</t>
   </si>
   <si>
+    <t>T302800007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">財團法人台灣省私立台灣盲人重建院 </t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路384號3樓</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
+    <t>T302800008</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路384號4樓</t>
+  </si>
+  <si>
+    <t>4F</t>
+  </si>
+  <si>
+    <t>T302800012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">捷旺宅不動產經紀有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區捷運路32號</t>
+  </si>
+  <si>
     <t>T302800057</t>
   </si>
   <si>
@@ -650,12 +727,6 @@
     <t>五股DC廠工商運輸</t>
   </si>
   <si>
-    <t>14:00:00</t>
-  </si>
-  <si>
-    <t>14:30:00</t>
-  </si>
-  <si>
     <t>T302800060</t>
   </si>
   <si>
@@ -867,9 +938,6 @@
   </si>
   <si>
     <t>急修件</t>
-  </si>
-  <si>
-    <t>其他</t>
   </si>
   <si>
     <t>新北市新莊區中信街20號一樓全部、22號一樓部份</t>
@@ -884,9 +952,6 @@
 SC Slave 20250805</t>
   </si>
   <si>
-    <t>13:30:00</t>
-  </si>
-  <si>
     <t>13:50:00</t>
   </si>
   <si>
@@ -905,9 +970,6 @@
     <t>THILF04856</t>
   </si>
   <si>
-    <t>一般件</t>
-  </si>
-  <si>
     <t>新北市新莊區中港三街5及7號</t>
   </si>
   <si>
@@ -971,7 +1033,7 @@
     <t>08:50:00</t>
   </si>
   <si>
-    <t>10:20:00</t>
+    <t>09:50:00</t>
   </si>
   <si>
     <t>THILF03752</t>
@@ -981,14 +1043,14 @@
   </si>
   <si>
     <t>板橋豫章店</t>
-  </si>
-  <si>
-    <t>09:50:00</t>
   </si>
   <si>
     <t>更換TCx800主機 硬碟無更換 
 換上 8185000114
 換下 8185002487</t>
+  </si>
+  <si>
+    <t>10:20:00</t>
   </si>
   <si>
     <t>09:17:00</t>
@@ -1499,10 +1561,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB111"/>
+  <dimension ref="A1:AB122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A111" sqref="A111"/>
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1660,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>2025090593</v>
+        <v>2025090594</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -1706,9 +1768,7 @@
       <c r="R3" s="7">
         <v>24446</v>
       </c>
-      <c r="S3" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
@@ -1716,10 +1776,10 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB3" s="7">
         <v>1</v>
@@ -1730,7 +1790,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>2025090594</v>
+        <v>2025090593</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1776,7 +1836,9 @@
       <c r="R4" s="3">
         <v>24446</v>
       </c>
-      <c r="S4" s="3"/>
+      <c r="S4" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -1784,10 +1846,10 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB4" s="3"/>
     </row>
@@ -1835,7 +1897,7 @@
         <v>51</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -1843,7 +1905,7 @@
         <v>67393</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
@@ -1852,10 +1914,10 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB5" s="7">
         <v>1</v>
@@ -1905,7 +1967,7 @@
         <v>51</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -1920,10 +1982,10 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB6" s="3"/>
     </row>
@@ -1969,7 +2031,7 @@
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -1977,7 +2039,7 @@
         <v>27400</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -1986,10 +2048,10 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB7" s="7">
         <v>1</v>
@@ -2037,7 +2099,7 @@
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -2052,10 +2114,10 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB8" s="3"/>
     </row>
@@ -2103,7 +2165,7 @@
         <v>39</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7">
@@ -2113,7 +2175,7 @@
         <v>295402</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
@@ -2122,10 +2184,10 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB9" s="7">
         <v>1</v>
@@ -2175,7 +2237,7 @@
         <v>39</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3">
@@ -2192,10 +2254,10 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB10" s="3"/>
     </row>
@@ -2259,7 +2321,7 @@
         <v>71</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB11" s="7">
         <v>1</v>
@@ -2305,7 +2367,7 @@
         <v>78</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -2313,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -2325,7 +2387,7 @@
         <v>79</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB12" s="3">
         <v>1</v>
@@ -2371,7 +2433,7 @@
         <v>85</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -2379,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -2391,7 +2453,7 @@
         <v>79</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB13" s="7">
         <v>1</v>
@@ -2437,7 +2499,7 @@
         <v>90</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -2445,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -2457,7 +2519,7 @@
         <v>79</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB14" s="3">
         <v>1</v>
@@ -2503,7 +2565,7 @@
         <v>95</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -2511,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -2523,7 +2585,7 @@
         <v>79</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB15" s="7">
         <v>1</v>
@@ -2569,7 +2631,7 @@
         <v>100</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -2577,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -2589,7 +2651,7 @@
         <v>79</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB16" s="3">
         <v>1</v>
@@ -2635,7 +2697,7 @@
         <v>104</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -2643,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
@@ -2655,7 +2717,7 @@
         <v>105</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB17" s="7">
         <v>1</v>
@@ -2666,7 +2728,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025090460</v>
+        <v>2025090911</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2678,7 +2740,7 @@
         <v>30</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>106</v>
@@ -2689,28 +2751,30 @@
       <c r="I18" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="L18" s="6" t="s">
         <v>76</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3">
         <v>0</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -2718,10 +2782,10 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB18" s="3">
         <v>1</v>
@@ -2732,7 +2796,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025090664</v>
+        <v>2025090460</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2744,16 +2808,16 @@
         <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -2761,13 +2825,13 @@
         <v>76</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
@@ -2775,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -2787,7 +2851,7 @@
         <v>79</v>
       </c>
       <c r="AA19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB19" s="7">
         <v>1</v>
@@ -2798,7 +2862,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2025090428</v>
+        <v>2025090664</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2810,16 +2874,16 @@
         <v>30</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -2827,13 +2891,13 @@
         <v>76</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -2841,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
@@ -2853,7 +2917,7 @@
         <v>79</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB20" s="3">
         <v>1</v>
@@ -2864,7 +2928,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>2025090467</v>
+        <v>2025090428</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2879,13 +2943,13 @@
         <v>72</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -2893,13 +2957,13 @@
         <v>76</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -2907,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
@@ -2919,7 +2983,7 @@
         <v>79</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB21" s="7">
         <v>1</v>
@@ -2930,7 +2994,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2025090294</v>
+        <v>2025090467</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -2942,16 +3006,16 @@
         <v>30</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -2959,13 +3023,13 @@
         <v>76</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -2973,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
@@ -2985,7 +3049,7 @@
         <v>79</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB22" s="3">
         <v>1</v>
@@ -2996,7 +3060,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2025090406</v>
+        <v>2025090294</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -3008,16 +3072,16 @@
         <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -3025,13 +3089,13 @@
         <v>76</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
@@ -3039,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
@@ -3051,7 +3115,7 @@
         <v>79</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB23" s="7">
         <v>1</v>
@@ -3062,7 +3126,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2025090290</v>
+        <v>2025090406</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -3074,16 +3138,16 @@
         <v>30</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -3091,13 +3155,13 @@
         <v>76</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -3105,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
@@ -3117,7 +3181,7 @@
         <v>79</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB24" s="3">
         <v>1</v>
@@ -3128,7 +3192,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025090222</v>
+        <v>2025090290</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -3143,13 +3207,13 @@
         <v>80</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -3157,13 +3221,13 @@
         <v>76</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
@@ -3171,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
@@ -3183,7 +3247,7 @@
         <v>79</v>
       </c>
       <c r="AA25" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB25" s="7">
         <v>1</v>
@@ -3194,7 +3258,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025090914</v>
+        <v>2025090222</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -3203,47 +3267,41 @@
         <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="J26" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M26" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M26" s="6" t="s">
+      <c r="N26" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="N26" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="O26" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3">
-        <v>10988</v>
-      </c>
+      <c r="Q26" s="3"/>
       <c r="R26" s="3">
-        <v>76907</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -3252,10 +3310,10 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="AA26" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB26" s="3">
         <v>1</v>
@@ -3275,7 +3333,7 @@
         <v>29</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>63</v>
@@ -3284,28 +3342,28 @@
         <v>52</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7">
@@ -3322,19 +3380,21 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AA27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB27" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="AB27" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025090398</v>
+        <v>2025090914</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -3343,22 +3403,22 @@
         <v>29</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>36</v>
@@ -3373,17 +3433,17 @@
         <v>155</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3">
-        <v>27754</v>
+        <v>10988</v>
       </c>
       <c r="R28" s="3">
-        <v>44996</v>
+        <v>76907</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
@@ -3394,7 +3454,9 @@
       <c r="Z28" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AA28" s="3"/>
+      <c r="AA28" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AB28" s="3"/>
     </row>
     <row r="29" spans="1:28">
@@ -3402,7 +3464,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025090399</v>
+        <v>2025091001</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -3411,46 +3473,46 @@
         <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="I29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>155</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N29" s="8"/>
       <c r="O29" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7">
-        <v>27754</v>
+        <v>2100</v>
       </c>
       <c r="R29" s="7">
-        <v>44996</v>
-      </c>
-      <c r="S29" s="7"/>
+        <v>42000</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
@@ -3461,16 +3523,18 @@
         <v>156</v>
       </c>
       <c r="AA29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB29" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="AB29" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:28">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025090772</v>
+        <v>2025091002</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -3479,10 +3543,10 @@
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>157</v>
@@ -3494,7 +3558,7 @@
         <v>159</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>36</v>
@@ -3505,18 +3569,16 @@
       <c r="M30" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="N30" s="6" t="s">
-        <v>162</v>
-      </c>
+      <c r="N30" s="6"/>
       <c r="O30" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3">
-        <v>29193</v>
+        <v>2100</v>
       </c>
       <c r="R30" s="3">
-        <v>25380</v>
+        <v>42000</v>
       </c>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
@@ -3526,21 +3588,19 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="6" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB30" s="3">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025090953</v>
+        <v>2025090398</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -3549,49 +3609,47 @@
         <v>29</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7">
-        <v>6429</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="P31" s="7"/>
       <c r="Q31" s="7">
-        <v>15099</v>
+        <v>27754</v>
       </c>
       <c r="R31" s="7">
-        <v>18367</v>
+        <v>44996</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
@@ -3600,21 +3658,17 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB31" s="7">
-        <v>1</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2025090954</v>
+        <v>2025090399</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3623,46 +3677,44 @@
         <v>29</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P32" s="3">
-        <v>6429</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="P32" s="3"/>
       <c r="Q32" s="3">
-        <v>15099</v>
+        <v>27754</v>
       </c>
       <c r="R32" s="3">
-        <v>18367</v>
+        <v>44996</v>
       </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
@@ -3672,10 +3724,10 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="6" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB32" s="3"/>
     </row>
@@ -3684,7 +3736,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2025090951</v>
+        <v>2025090772</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -3693,28 +3745,28 @@
         <v>29</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G33" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I33" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H33" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>172</v>
@@ -3723,20 +3775,16 @@
         <v>173</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P33" s="7">
-        <v>1773</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P33" s="7"/>
       <c r="Q33" s="7">
-        <v>2596</v>
+        <v>29193</v>
       </c>
       <c r="R33" s="7">
-        <v>7150</v>
-      </c>
-      <c r="S33" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>25380</v>
+      </c>
+      <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
@@ -3744,10 +3792,10 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="8" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="AA33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB33" s="7">
         <v>1</v>
@@ -3758,7 +3806,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2025090952</v>
+        <v>2025090953</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -3767,48 +3815,50 @@
         <v>29</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P34" s="3">
-        <v>1773</v>
+        <v>6429</v>
       </c>
       <c r="Q34" s="3">
-        <v>2596</v>
+        <v>15099</v>
       </c>
       <c r="R34" s="3">
-        <v>7150</v>
-      </c>
-      <c r="S34" s="3"/>
+        <v>18367</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
@@ -3816,19 +3866,21 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="6" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AA34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB34" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025090955</v>
+        <v>2025090954</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3837,50 +3889,48 @@
         <v>29</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P35" s="7">
-        <v>99</v>
+        <v>6429</v>
       </c>
       <c r="Q35" s="7">
-        <v>854</v>
+        <v>15099</v>
       </c>
       <c r="R35" s="7">
-        <v>2805</v>
-      </c>
-      <c r="S35" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>18367</v>
+      </c>
+      <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
@@ -3888,21 +3938,19 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AA35" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB35" s="7">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB35" s="7"/>
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2025090956</v>
+        <v>2025090951</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -3911,48 +3959,50 @@
         <v>29</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P36" s="3">
-        <v>99</v>
+        <v>1773</v>
       </c>
       <c r="Q36" s="3">
-        <v>854</v>
+        <v>2596</v>
       </c>
       <c r="R36" s="3">
-        <v>2805</v>
-      </c>
-      <c r="S36" s="3"/>
+        <v>7150</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
@@ -3960,19 +4010,21 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="6" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AA36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB36" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="7">
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2025090339</v>
+        <v>2025090952</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -3981,48 +4033,48 @@
         <v>29</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P37" s="7"/>
+      <c r="P37" s="7">
+        <v>1773</v>
+      </c>
       <c r="Q37" s="7">
-        <v>543</v>
+        <v>2596</v>
       </c>
       <c r="R37" s="7">
-        <v>33024</v>
-      </c>
-      <c r="S37" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>7150</v>
+      </c>
+      <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
@@ -4032,7 +4084,9 @@
       <c r="Z37" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="AA37" s="7"/>
+      <c r="AA37" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="AB37" s="7"/>
     </row>
     <row r="38" spans="1:28">
@@ -4040,7 +4094,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2025090340</v>
+        <v>2025090969</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -4049,46 +4103,48 @@
         <v>29</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3">
-        <v>543</v>
+        <v>800</v>
       </c>
       <c r="R38" s="3">
-        <v>33024</v>
-      </c>
-      <c r="S38" s="3"/>
+        <v>12000</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -4099,16 +4155,18 @@
         <v>156</v>
       </c>
       <c r="AA38" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB38" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="7">
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025090353</v>
+        <v>2025090970</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -4117,50 +4175,46 @@
         <v>29</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>182</v>
+        <v>73</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P39" s="7">
-        <v>0</v>
-      </c>
+      <c r="P39" s="7"/>
       <c r="Q39" s="7">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="R39" s="7">
-        <v>41</v>
-      </c>
-      <c r="S39" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>12000</v>
+      </c>
+      <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
@@ -4171,18 +4225,16 @@
         <v>156</v>
       </c>
       <c r="AA39" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB39" s="7">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB39" s="7"/>
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025090354</v>
+        <v>2025090955</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -4191,48 +4243,50 @@
         <v>29</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P40" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="Q40" s="3">
-        <v>0</v>
+        <v>854</v>
       </c>
       <c r="R40" s="3">
-        <v>41</v>
-      </c>
-      <c r="S40" s="3"/>
+        <v>2805</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -4243,16 +4297,18 @@
         <v>156</v>
       </c>
       <c r="AA40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB40" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="7">
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>2025090633</v>
+        <v>2025090956</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -4261,46 +4317,48 @@
         <v>29</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
+      <c r="P41" s="7">
+        <v>99</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>854</v>
+      </c>
       <c r="R41" s="7">
-        <v>399312</v>
-      </c>
-      <c r="S41" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>2805</v>
+      </c>
+      <c r="S41" s="7"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
@@ -4310,7 +4368,9 @@
       <c r="Z41" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="AA41" s="7"/>
+      <c r="AA41" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="AB41" s="7"/>
     </row>
     <row r="42" spans="1:28">
@@ -4318,7 +4378,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>2025090634</v>
+        <v>2025090339</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -4327,44 +4387,48 @@
         <v>29</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
+      <c r="Q42" s="3">
+        <v>543</v>
+      </c>
       <c r="R42" s="3">
-        <v>399312</v>
-      </c>
-      <c r="S42" s="3"/>
+        <v>33024</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
@@ -4372,11 +4436,9 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA42" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="1:28">
@@ -4384,7 +4446,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>2025090620</v>
+        <v>2025090340</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -4393,46 +4455,46 @@
         <v>29</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
+      <c r="Q43" s="7">
+        <v>543</v>
+      </c>
       <c r="R43" s="7">
-        <v>164853</v>
-      </c>
-      <c r="S43" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>33024</v>
+      </c>
+      <c r="S43" s="7"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
@@ -4440,9 +4502,11 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA43" s="7"/>
+        <v>167</v>
+      </c>
+      <c r="AA43" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="AB43" s="7"/>
     </row>
     <row r="44" spans="1:28">
@@ -4450,7 +4514,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>2025090621</v>
+        <v>2025090353</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -4459,44 +4523,50 @@
         <v>29</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L44" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="N44" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
       <c r="R44" s="3">
-        <v>164853</v>
-      </c>
-      <c r="S44" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
@@ -4504,19 +4574,21 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="6" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AA44" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB44" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="7">
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>2025090826</v>
+        <v>2025090354</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
@@ -4525,46 +4597,48 @@
         <v>29</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>37</v>
+        <v>201</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
+      <c r="P45" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>0</v>
+      </c>
       <c r="R45" s="7">
-        <v>47184</v>
-      </c>
-      <c r="S45" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="S45" s="7"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
@@ -4572,21 +4646,19 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="8" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AA45" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB45" s="7">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB45" s="7"/>
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2025090827</v>
+        <v>2025090633</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4595,19 +4667,19 @@
         <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>35</v>
@@ -4616,13 +4688,13 @@
         <v>36</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>43</v>
@@ -4630,9 +4702,11 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3">
-        <v>47184</v>
-      </c>
-      <c r="S46" s="3"/>
+        <v>399312</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
@@ -4640,11 +4714,9 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA46" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28">
@@ -4652,7 +4724,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>2025090824</v>
+        <v>2025090634</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4661,19 +4733,19 @@
         <v>29</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>35</v>
@@ -4682,13 +4754,13 @@
         <v>36</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>40</v>
@@ -4696,11 +4768,9 @@
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7">
-        <v>77485</v>
-      </c>
-      <c r="S47" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>399312</v>
+      </c>
+      <c r="S47" s="7"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
@@ -4708,21 +4778,19 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AA47" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB47" s="7">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB47" s="7"/>
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2025090825</v>
+        <v>2025090620</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -4731,19 +4799,19 @@
         <v>29</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>35</v>
@@ -4752,13 +4820,13 @@
         <v>36</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>43</v>
@@ -4766,9 +4834,11 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3">
-        <v>77485</v>
-      </c>
-      <c r="S48" s="3"/>
+        <v>164853</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
@@ -4776,11 +4846,9 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA48" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
     </row>
     <row r="49" spans="1:28">
@@ -4788,7 +4856,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>2025090341</v>
+        <v>2025090621</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -4797,34 +4865,34 @@
         <v>29</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="O49" s="7" t="s">
         <v>40</v>
@@ -4832,11 +4900,9 @@
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7">
-        <v>276567</v>
-      </c>
-      <c r="S49" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>164853</v>
+      </c>
+      <c r="S49" s="7"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
@@ -4844,9 +4910,11 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA49" s="7"/>
+        <v>167</v>
+      </c>
+      <c r="AA49" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="AB49" s="7"/>
     </row>
     <row r="50" spans="1:28">
@@ -4854,7 +4922,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>2025090342</v>
+        <v>2025090826</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -4863,34 +4931,34 @@
         <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>203</v>
+        <v>37</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>43</v>
@@ -4898,9 +4966,11 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3">
-        <v>276567</v>
-      </c>
-      <c r="S50" s="3"/>
+        <v>47184</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
@@ -4911,16 +4981,18 @@
         <v>156</v>
       </c>
       <c r="AA50" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB50" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:28">
       <c r="A51" s="7">
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>2025090345</v>
+        <v>2025090827</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
@@ -4929,34 +5001,34 @@
         <v>29</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>206</v>
+        <v>92</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>203</v>
+        <v>37</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>40</v>
@@ -4964,11 +5036,9 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7">
-        <v>218331</v>
-      </c>
-      <c r="S51" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>47184</v>
+      </c>
+      <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
@@ -4978,7 +5048,9 @@
       <c r="Z51" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="AA51" s="7"/>
+      <c r="AA51" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="AB51" s="7"/>
     </row>
     <row r="52" spans="1:28">
@@ -4986,7 +5058,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>2025090346</v>
+        <v>2025090824</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -4995,34 +5067,34 @@
         <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>203</v>
+        <v>37</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>43</v>
@@ -5030,9 +5102,11 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3">
-        <v>218331</v>
-      </c>
-      <c r="S52" s="3"/>
+        <v>77485</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
@@ -5043,16 +5117,18 @@
         <v>156</v>
       </c>
       <c r="AA52" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB52" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:28">
       <c r="A53" s="7">
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>2025090822</v>
+        <v>2025090825</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
@@ -5061,22 +5137,22 @@
         <v>29</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>198</v>
+        <v>92</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>36</v>
@@ -5085,10 +5161,10 @@
         <v>37</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="O53" s="7" t="s">
         <v>40</v>
@@ -5096,11 +5172,9 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7">
-        <v>2957</v>
-      </c>
-      <c r="S53" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>77485</v>
+      </c>
+      <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
@@ -5108,21 +5182,19 @@
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AA53" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB53" s="7">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB53" s="7"/>
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>2025090823</v>
+        <v>2025091007</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -5131,19 +5203,19 @@
         <v>29</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>198</v>
+        <v>92</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>48</v>
@@ -5152,13 +5224,13 @@
         <v>36</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>37</v>
+        <v>218</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>43</v>
@@ -5166,9 +5238,11 @@
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3">
-        <v>2957</v>
-      </c>
-      <c r="S54" s="3"/>
+        <v>151225</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
@@ -5176,19 +5250,21 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="6" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AA54" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB54" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="7">
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>2025090351</v>
+        <v>2025091008</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -5197,34 +5273,34 @@
         <v>29</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G55" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H55" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H55" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="I55" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>214</v>
+        <v>48</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>40</v>
@@ -5232,11 +5308,9 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7">
-        <v>295043</v>
-      </c>
-      <c r="S55" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>151225</v>
+      </c>
+      <c r="S55" s="7"/>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
@@ -5246,7 +5320,9 @@
       <c r="Z55" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="AA55" s="7"/>
+      <c r="AA55" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="AB55" s="7"/>
     </row>
     <row r="56" spans="1:28">
@@ -5254,7 +5330,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>2025090352</v>
+        <v>2025091009</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -5263,34 +5339,34 @@
         <v>29</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>92</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>214</v>
+        <v>48</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>43</v>
@@ -5298,9 +5374,11 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3">
-        <v>295043</v>
-      </c>
-      <c r="S56" s="3"/>
+        <v>136290</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
@@ -5311,16 +5389,18 @@
         <v>156</v>
       </c>
       <c r="AA56" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB56" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="AB56" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:28">
       <c r="A57" s="7">
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>2025090668</v>
+        <v>2025091010</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
@@ -5329,42 +5409,42 @@
         <v>29</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>214</v>
+        <v>48</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7">
-        <v>296708</v>
+        <v>136290</v>
       </c>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
@@ -5374,21 +5454,19 @@
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="8" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="AA57" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB57" s="7">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB57" s="7"/>
     </row>
     <row r="58" spans="1:28">
       <c r="A58" s="3">
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>2025090343</v>
+        <v>2025090971</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -5397,45 +5475,43 @@
         <v>29</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>214</v>
+        <v>48</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="N58" s="6" t="s">
-        <v>221</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N58" s="6"/>
       <c r="O58" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3">
-        <v>116934</v>
+        <v>48000</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
@@ -5446,15 +5522,19 @@
       <c r="Z58" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AA58" s="3"/>
-      <c r="AB58" s="3"/>
+      <c r="AA58" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:28">
       <c r="A59" s="7">
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>2025090344</v>
+        <v>2025090972</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
@@ -5463,42 +5543,40 @@
         <v>29</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>214</v>
+        <v>48</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="N59" s="8" t="s">
-        <v>221</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N59" s="8"/>
       <c r="O59" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7">
-        <v>116934</v>
+        <v>48000</v>
       </c>
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
@@ -5511,7 +5589,7 @@
         <v>156</v>
       </c>
       <c r="AA59" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB59" s="7"/>
     </row>
@@ -5520,7 +5598,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>2025090402</v>
+        <v>2025090341</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -5529,45 +5607,45 @@
         <v>29</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>214</v>
+        <v>48</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3">
-        <v>117282</v>
+        <v>276567</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
@@ -5576,7 +5654,7 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="6" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
@@ -5586,7 +5664,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>2025090403</v>
+        <v>2025090342</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
@@ -5595,42 +5673,42 @@
         <v>29</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>214</v>
+        <v>48</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7">
-        <v>117282</v>
+        <v>276567</v>
       </c>
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
@@ -5640,10 +5718,10 @@
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="8" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AA61" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB61" s="7"/>
     </row>
@@ -5652,7 +5730,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>2025090631</v>
+        <v>2025090345</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -5661,45 +5739,45 @@
         <v>29</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>214</v>
+        <v>48</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3">
-        <v>11696</v>
+        <v>218331</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
@@ -5708,7 +5786,7 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="6" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
@@ -5718,7 +5796,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>2025090632</v>
+        <v>2025090346</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
@@ -5727,42 +5805,42 @@
         <v>29</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>214</v>
+        <v>48</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7">
-        <v>11696</v>
+        <v>218331</v>
       </c>
       <c r="S63" s="7"/>
       <c r="T63" s="7"/>
@@ -5772,10 +5850,10 @@
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="8" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AA63" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB63" s="7"/>
     </row>
@@ -5784,7 +5862,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>2025090720</v>
+        <v>2025090822</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -5793,45 +5871,45 @@
         <v>29</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>227</v>
+        <v>158</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>214</v>
+        <v>48</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L64" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="N64" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="M64" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="N64" s="6" t="s">
-        <v>230</v>
-      </c>
       <c r="O64" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3">
-        <v>152312</v>
+        <v>2957</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
@@ -5842,15 +5920,19 @@
       <c r="Z64" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AA64" s="3"/>
-      <c r="AB64" s="3"/>
+      <c r="AA64" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:28">
       <c r="A65" s="7">
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>2025090721</v>
+        <v>2025090823</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -5859,42 +5941,42 @@
         <v>29</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>227</v>
+        <v>158</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>214</v>
+        <v>48</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L65" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="N65" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="M65" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="N65" s="8" t="s">
-        <v>230</v>
-      </c>
       <c r="O65" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7">
-        <v>152312</v>
+        <v>2957</v>
       </c>
       <c r="S65" s="7"/>
       <c r="T65" s="7"/>
@@ -5907,7 +5989,7 @@
         <v>156</v>
       </c>
       <c r="AA65" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB65" s="7"/>
     </row>
@@ -5916,7 +5998,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>2025090626</v>
+        <v>2025090351</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -5925,45 +6007,45 @@
         <v>29</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3">
-        <v>266405</v>
+        <v>295043</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
@@ -5972,7 +6054,7 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="6" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
@@ -5982,7 +6064,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>2025090627</v>
+        <v>2025090352</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
@@ -5991,42 +6073,42 @@
         <v>29</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7">
-        <v>266405</v>
+        <v>295043</v>
       </c>
       <c r="S67" s="7"/>
       <c r="T67" s="7"/>
@@ -6036,10 +6118,10 @@
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="8" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AA67" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB67" s="7"/>
     </row>
@@ -6048,7 +6130,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <v>2025090622</v>
+        <v>2025090668</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -6057,46 +6139,44 @@
         <v>29</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3">
-        <v>152312</v>
-      </c>
-      <c r="S68" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>296708</v>
+      </c>
+      <c r="S68" s="3"/>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
@@ -6104,17 +6184,21 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA68" s="3"/>
-      <c r="AB68" s="3"/>
+        <v>241</v>
+      </c>
+      <c r="AA68" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:28">
       <c r="A69" s="7">
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>2025090623</v>
+        <v>2025090343</v>
       </c>
       <c r="C69" s="7">
         <v>1</v>
@@ -6123,34 +6207,34 @@
         <v>29</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="O69" s="7" t="s">
         <v>43</v>
@@ -6158,9 +6242,11 @@
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7">
-        <v>152312</v>
-      </c>
-      <c r="S69" s="7"/>
+        <v>116934</v>
+      </c>
+      <c r="S69" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
@@ -6168,11 +6254,9 @@
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA69" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AA69" s="7"/>
       <c r="AB69" s="7"/>
     </row>
     <row r="70" spans="1:28">
@@ -6180,7 +6264,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <v>2025090722</v>
+        <v>2025090344</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
@@ -6189,34 +6273,34 @@
         <v>29</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="O70" s="3" t="s">
         <v>40</v>
@@ -6224,11 +6308,9 @@
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3">
-        <v>131134</v>
-      </c>
-      <c r="S70" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>116934</v>
+      </c>
+      <c r="S70" s="3"/>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
@@ -6236,9 +6318,11 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA70" s="3"/>
+        <v>167</v>
+      </c>
+      <c r="AA70" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AB70" s="3"/>
     </row>
     <row r="71" spans="1:28">
@@ -6246,7 +6330,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>2025090723</v>
+        <v>2025090402</v>
       </c>
       <c r="C71" s="7">
         <v>1</v>
@@ -6255,34 +6339,34 @@
         <v>29</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="O71" s="7" t="s">
         <v>43</v>
@@ -6290,9 +6374,11 @@
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7">
-        <v>131134</v>
-      </c>
-      <c r="S71" s="7"/>
+        <v>117282</v>
+      </c>
+      <c r="S71" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
@@ -6300,11 +6386,9 @@
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
       <c r="Z71" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA71" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AA71" s="7"/>
       <c r="AB71" s="7"/>
     </row>
     <row r="72" spans="1:28">
@@ -6312,7 +6396,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>2025090349</v>
+        <v>2025090403</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -6321,34 +6405,34 @@
         <v>29</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="I72" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J72" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>238</v>
+        <v>165</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>40</v>
@@ -6356,11 +6440,9 @@
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3">
-        <v>183883</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>117282</v>
+      </c>
+      <c r="S72" s="3"/>
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
@@ -6368,9 +6450,11 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA72" s="3"/>
+        <v>167</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AB72" s="3"/>
     </row>
     <row r="73" spans="1:28">
@@ -6378,7 +6462,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>2025090350</v>
+        <v>2025090631</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
@@ -6387,34 +6471,34 @@
         <v>29</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="I73" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="J73" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="O73" s="7" t="s">
         <v>43</v>
@@ -6422,9 +6506,11 @@
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7">
-        <v>183883</v>
-      </c>
-      <c r="S73" s="7"/>
+        <v>11696</v>
+      </c>
+      <c r="S73" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
@@ -6432,11 +6518,9 @@
       <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
       <c r="Z73" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA73" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AA73" s="7"/>
       <c r="AB73" s="7"/>
     </row>
     <row r="74" spans="1:28">
@@ -6444,7 +6528,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3">
-        <v>2025090347</v>
+        <v>2025090632</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
@@ -6453,34 +6537,34 @@
         <v>29</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="O74" s="3" t="s">
         <v>40</v>
@@ -6488,11 +6572,9 @@
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3">
-        <v>355156</v>
-      </c>
-      <c r="S74" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>11696</v>
+      </c>
+      <c r="S74" s="3"/>
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
@@ -6500,9 +6582,11 @@
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA74" s="3"/>
+        <v>167</v>
+      </c>
+      <c r="AA74" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AB74" s="3"/>
     </row>
     <row r="75" spans="1:28">
@@ -6510,7 +6594,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>2025090348</v>
+        <v>2025090720</v>
       </c>
       <c r="C75" s="7">
         <v>1</v>
@@ -6519,34 +6603,34 @@
         <v>29</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="K75" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="O75" s="7" t="s">
         <v>43</v>
@@ -6554,9 +6638,11 @@
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7">
-        <v>355156</v>
-      </c>
-      <c r="S75" s="7"/>
+        <v>152312</v>
+      </c>
+      <c r="S75" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
@@ -6564,11 +6650,9 @@
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA75" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AA75" s="7"/>
       <c r="AB75" s="7"/>
     </row>
     <row r="76" spans="1:28">
@@ -6576,7 +6660,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3">
-        <v>2025090624</v>
+        <v>2025090721</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
@@ -6585,34 +6669,34 @@
         <v>29</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>144</v>
+        <v>250</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>40</v>
@@ -6620,11 +6704,9 @@
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3">
-        <v>203749</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>152312</v>
+      </c>
+      <c r="S76" s="3"/>
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
@@ -6632,9 +6714,11 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
       <c r="Z76" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA76" s="3"/>
+        <v>167</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AB76" s="3"/>
     </row>
     <row r="77" spans="1:28">
@@ -6642,7 +6726,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="7">
-        <v>2025090625</v>
+        <v>2025090626</v>
       </c>
       <c r="C77" s="7">
         <v>1</v>
@@ -6651,34 +6735,34 @@
         <v>29</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="O77" s="7" t="s">
         <v>43</v>
@@ -6686,9 +6770,11 @@
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7">
-        <v>203749</v>
-      </c>
-      <c r="S77" s="7"/>
+        <v>266405</v>
+      </c>
+      <c r="S77" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T77" s="7"/>
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
@@ -6696,11 +6782,9 @@
       <c r="X77" s="7"/>
       <c r="Y77" s="7"/>
       <c r="Z77" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA77" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AA77" s="7"/>
       <c r="AB77" s="7"/>
     </row>
     <row r="78" spans="1:28">
@@ -6708,7 +6792,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <v>2025090916</v>
+        <v>2025090627</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
@@ -6717,44 +6801,44 @@
         <v>29</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="N78" s="6"/>
+        <v>255</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>256</v>
+      </c>
       <c r="O78" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="3">
-        <v>136910</v>
-      </c>
-      <c r="S78" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>266405</v>
+      </c>
+      <c r="S78" s="3"/>
       <c r="T78" s="3"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
@@ -6762,21 +6846,19 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="6" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AA78" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB78" s="3">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB78" s="3"/>
     </row>
     <row r="79" spans="1:28">
       <c r="A79" s="7">
         <v>77</v>
       </c>
       <c r="B79" s="7">
-        <v>2025090917</v>
+        <v>2025090622</v>
       </c>
       <c r="C79" s="7">
         <v>1</v>
@@ -6785,42 +6867,46 @@
         <v>29</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="N79" s="8"/>
+        <v>258</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>259</v>
+      </c>
       <c r="O79" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7">
-        <v>136910</v>
-      </c>
-      <c r="S79" s="7"/>
+        <v>152312</v>
+      </c>
+      <c r="S79" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
@@ -6828,11 +6914,9 @@
       <c r="X79" s="7"/>
       <c r="Y79" s="7"/>
       <c r="Z79" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA79" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AA79" s="7"/>
       <c r="AB79" s="7"/>
     </row>
     <row r="80" spans="1:28">
@@ -6840,7 +6924,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3">
-        <v>2025090913</v>
+        <v>2025090623</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
@@ -6849,44 +6933,42 @@
         <v>29</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P80" s="3"/>
-      <c r="Q80" s="3">
-        <v>1801</v>
-      </c>
+      <c r="Q80" s="3"/>
       <c r="R80" s="3">
-        <v>5799</v>
+        <v>152312</v>
       </c>
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
@@ -6896,21 +6978,19 @@
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
       <c r="Z80" s="6" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AA80" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB80" s="3">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB80" s="3"/>
     </row>
     <row r="81" spans="1:28">
       <c r="A81" s="7">
         <v>79</v>
       </c>
       <c r="B81" s="7">
-        <v>2025090912</v>
+        <v>2025090722</v>
       </c>
       <c r="C81" s="7">
         <v>1</v>
@@ -6919,47 +6999,45 @@
         <v>29</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P81" s="7"/>
-      <c r="Q81" s="7">
-        <v>1801</v>
-      </c>
+      <c r="Q81" s="7"/>
       <c r="R81" s="7">
-        <v>5799</v>
+        <v>131134</v>
       </c>
       <c r="S81" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
@@ -6968,11 +7046,9 @@
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA81" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AA81" s="7"/>
       <c r="AB81" s="7"/>
     </row>
     <row r="82" spans="1:28">
@@ -6980,7 +7056,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3">
-        <v>2025090407</v>
+        <v>2025090723</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
@@ -6989,34 +7065,34 @@
         <v>29</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="O82" s="3" t="s">
         <v>40</v>
@@ -7024,11 +7100,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3">
-        <v>38923</v>
-      </c>
-      <c r="S82" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>131134</v>
+      </c>
+      <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
@@ -7036,9 +7110,11 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA82" s="3"/>
+        <v>167</v>
+      </c>
+      <c r="AA82" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AB82" s="3"/>
     </row>
     <row r="83" spans="1:28">
@@ -7046,7 +7122,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="7">
-        <v>2025090408</v>
+        <v>2025090349</v>
       </c>
       <c r="C83" s="7">
         <v>1</v>
@@ -7055,34 +7131,34 @@
         <v>29</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="K83" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="O83" s="7" t="s">
         <v>43</v>
@@ -7090,9 +7166,11 @@
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7">
-        <v>38923</v>
-      </c>
-      <c r="S83" s="7"/>
+        <v>183883</v>
+      </c>
+      <c r="S83" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T83" s="7"/>
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
@@ -7100,11 +7178,9 @@
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
       <c r="Z83" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA83" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AA83" s="7"/>
       <c r="AB83" s="7"/>
     </row>
     <row r="84" spans="1:28">
@@ -7112,7 +7188,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3">
-        <v>2025090447</v>
+        <v>2025090350</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
@@ -7121,34 +7197,34 @@
         <v>29</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>92</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="O84" s="3" t="s">
         <v>40</v>
@@ -7156,11 +7232,9 @@
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3">
-        <v>19</v>
-      </c>
-      <c r="S84" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>183883</v>
+      </c>
+      <c r="S84" s="3"/>
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
@@ -7168,9 +7242,11 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
       <c r="Z84" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA84" s="3"/>
+        <v>167</v>
+      </c>
+      <c r="AA84" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AB84" s="3"/>
     </row>
     <row r="85" spans="1:28">
@@ -7178,7 +7254,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="7">
-        <v>2025090448</v>
+        <v>2025090347</v>
       </c>
       <c r="C85" s="7">
         <v>1</v>
@@ -7187,34 +7263,34 @@
         <v>29</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="K85" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="O85" s="7" t="s">
         <v>43</v>
@@ -7222,9 +7298,11 @@
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7">
-        <v>19</v>
-      </c>
-      <c r="S85" s="7"/>
+        <v>355156</v>
+      </c>
+      <c r="S85" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
@@ -7232,11 +7310,9 @@
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
       <c r="Z85" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA85" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AA85" s="7"/>
       <c r="AB85" s="7"/>
     </row>
     <row r="86" spans="1:28">
@@ -7244,7 +7320,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3">
-        <v>2025090400</v>
+        <v>2025090348</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
@@ -7253,34 +7329,34 @@
         <v>29</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="O86" s="3" t="s">
         <v>40</v>
@@ -7288,11 +7364,9 @@
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="3">
-        <v>3113</v>
-      </c>
-      <c r="S86" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>355156</v>
+      </c>
+      <c r="S86" s="3"/>
       <c r="T86" s="3"/>
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
@@ -7300,9 +7374,11 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
       <c r="Z86" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA86" s="3"/>
+        <v>167</v>
+      </c>
+      <c r="AA86" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AB86" s="3"/>
     </row>
     <row r="87" spans="1:28">
@@ -7310,7 +7386,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="7">
-        <v>2025090401</v>
+        <v>2025090624</v>
       </c>
       <c r="C87" s="7">
         <v>1</v>
@@ -7319,34 +7395,34 @@
         <v>29</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="K87" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="O87" s="7" t="s">
         <v>43</v>
@@ -7354,9 +7430,11 @@
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7">
-        <v>3113</v>
-      </c>
-      <c r="S87" s="7"/>
+        <v>203749</v>
+      </c>
+      <c r="S87" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T87" s="7"/>
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
@@ -7364,11 +7442,9 @@
       <c r="X87" s="7"/>
       <c r="Y87" s="7"/>
       <c r="Z87" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA87" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AA87" s="7"/>
       <c r="AB87" s="7"/>
     </row>
     <row r="88" spans="1:28">
@@ -7376,7 +7452,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3">
-        <v>2025090337</v>
+        <v>2025090625</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
@@ -7385,34 +7461,34 @@
         <v>29</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O88" s="3" t="s">
         <v>40</v>
@@ -7420,11 +7496,9 @@
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="3">
-        <v>48945</v>
-      </c>
-      <c r="S88" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>203749</v>
+      </c>
+      <c r="S88" s="3"/>
       <c r="T88" s="3"/>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
@@ -7432,9 +7506,11 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
       <c r="Z88" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA88" s="3"/>
+        <v>167</v>
+      </c>
+      <c r="AA88" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AB88" s="3"/>
     </row>
     <row r="89" spans="1:28">
@@ -7442,7 +7518,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="7">
-        <v>2025090338</v>
+        <v>2025090916</v>
       </c>
       <c r="C89" s="7">
         <v>1</v>
@@ -7451,44 +7527,44 @@
         <v>29</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="K89" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="N89" s="8" t="s">
-        <v>265</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N89" s="8"/>
       <c r="O89" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7">
-        <v>48945</v>
-      </c>
-      <c r="S89" s="7"/>
+        <v>136910</v>
+      </c>
+      <c r="S89" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T89" s="7"/>
       <c r="U89" s="7"/>
       <c r="V89" s="7"/>
@@ -7499,16 +7575,18 @@
         <v>156</v>
       </c>
       <c r="AA89" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB89" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="AB89" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:28">
       <c r="A90" s="3">
         <v>88</v>
       </c>
       <c r="B90" s="3">
-        <v>2025090603</v>
+        <v>2025090917</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
@@ -7517,46 +7595,42 @@
         <v>29</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="N90" s="6" t="s">
-        <v>268</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N90" s="6"/>
       <c r="O90" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3">
-        <v>13789</v>
-      </c>
-      <c r="S90" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>136910</v>
+      </c>
+      <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
@@ -7566,7 +7640,9 @@
       <c r="Z90" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AA90" s="3"/>
+      <c r="AA90" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AB90" s="3"/>
     </row>
     <row r="91" spans="1:28">
@@ -7574,7 +7650,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="7">
-        <v>2025090604</v>
+        <v>2025090912</v>
       </c>
       <c r="C91" s="7">
         <v>1</v>
@@ -7583,44 +7659,48 @@
         <v>29</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>227</v>
+        <v>162</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="K91" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>268</v>
+        <v>189</v>
       </c>
       <c r="O91" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P91" s="7"/>
-      <c r="Q91" s="7"/>
+      <c r="Q91" s="7">
+        <v>1801</v>
+      </c>
       <c r="R91" s="7">
-        <v>13789</v>
-      </c>
-      <c r="S91" s="7"/>
+        <v>5799</v>
+      </c>
+      <c r="S91" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T91" s="7"/>
       <c r="U91" s="7"/>
       <c r="V91" s="7"/>
@@ -7631,16 +7711,18 @@
         <v>156</v>
       </c>
       <c r="AA91" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB91" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="AB91" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:28">
       <c r="A92" s="3">
         <v>90</v>
       </c>
       <c r="B92" s="3">
-        <v>2025090728</v>
+        <v>2025090913</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
@@ -7649,46 +7731,46 @@
         <v>29</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="G92" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H92" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H92" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="I92" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L92" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="N92" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="M92" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="N92" s="6" t="s">
-        <v>272</v>
       </c>
       <c r="O92" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P92" s="3"/>
-      <c r="Q92" s="3"/>
+      <c r="Q92" s="3">
+        <v>1801</v>
+      </c>
       <c r="R92" s="3">
-        <v>25836</v>
-      </c>
-      <c r="S92" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>5799</v>
+      </c>
+      <c r="S92" s="3"/>
       <c r="T92" s="3"/>
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
@@ -7699,18 +7781,16 @@
         <v>156</v>
       </c>
       <c r="AA92" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB92" s="3">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB92" s="3"/>
     </row>
     <row r="93" spans="1:28">
       <c r="A93" s="7">
         <v>91</v>
       </c>
       <c r="B93" s="7">
-        <v>2025090729</v>
+        <v>2025090407</v>
       </c>
       <c r="C93" s="7">
         <v>1</v>
@@ -7719,34 +7799,34 @@
         <v>29</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K93" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>189</v>
+        <v>277</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="O93" s="7" t="s">
         <v>43</v>
@@ -7754,9 +7834,11 @@
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7">
-        <v>25836</v>
-      </c>
-      <c r="S93" s="7"/>
+        <v>38923</v>
+      </c>
+      <c r="S93" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T93" s="7"/>
       <c r="U93" s="7"/>
       <c r="V93" s="7"/>
@@ -7764,11 +7846,9 @@
       <c r="X93" s="7"/>
       <c r="Y93" s="7"/>
       <c r="Z93" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA93" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AA93" s="7"/>
       <c r="AB93" s="7"/>
     </row>
     <row r="94" spans="1:28">
@@ -7776,7 +7856,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3">
-        <v>2025090198</v>
+        <v>2025090408</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
@@ -7785,30 +7865,34 @@
         <v>29</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
+        <v>275</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L94" s="6" t="s">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>275</v>
+        <v>212</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>40</v>
@@ -7816,11 +7900,9 @@
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>38923</v>
+      </c>
+      <c r="S94" s="3"/>
       <c r="T94" s="3"/>
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
@@ -7828,21 +7910,19 @@
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
       <c r="Z94" s="6" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AA94" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB94" s="3">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB94" s="3"/>
     </row>
     <row r="95" spans="1:28">
       <c r="A95" s="7">
         <v>93</v>
       </c>
       <c r="B95" s="7">
-        <v>2025090719</v>
+        <v>2025090447</v>
       </c>
       <c r="C95" s="7">
         <v>1</v>
@@ -7851,44 +7931,46 @@
         <v>29</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="H95" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J95" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="I95" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J95" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="K95" s="7" t="s">
-        <v>279</v>
+        <v>36</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="M95" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7">
-        <v>0</v>
-      </c>
-      <c r="S95" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="S95" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T95" s="7"/>
       <c r="U95" s="7"/>
       <c r="V95" s="7"/>
@@ -7896,21 +7978,17 @@
       <c r="X95" s="7"/>
       <c r="Y95" s="7"/>
       <c r="Z95" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA95" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB95" s="7">
-        <v>1</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AA95" s="7"/>
+      <c r="AB95" s="7"/>
     </row>
     <row r="96" spans="1:28">
       <c r="A96" s="3">
         <v>94</v>
       </c>
       <c r="B96" s="3">
-        <v>2025090208</v>
+        <v>2025090448</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
@@ -7919,30 +7997,34 @@
         <v>29</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>283</v>
+        <v>213</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
+        <v>279</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L96" s="6" t="s">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="O96" s="3" t="s">
         <v>40</v>
@@ -7950,11 +8032,9 @@
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
       <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="S96" s="3"/>
       <c r="T96" s="3"/>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
@@ -7962,21 +8042,19 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
       <c r="Z96" s="6" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AA96" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB96" s="3"/>
     </row>
     <row r="97" spans="1:28">
       <c r="A97" s="7">
         <v>95</v>
       </c>
       <c r="B97" s="7">
-        <v>2025090314</v>
+        <v>2025090400</v>
       </c>
       <c r="C97" s="7">
         <v>1</v>
@@ -7985,44 +8063,46 @@
         <v>29</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>288</v>
+        <v>150</v>
       </c>
       <c r="H97" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="M97" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="I97" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="J97" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="K97" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L97" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="M97" s="8" t="s">
-        <v>291</v>
-      </c>
       <c r="N97" s="8" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7">
-        <v>0</v>
-      </c>
-      <c r="S97" s="7"/>
+        <v>3113</v>
+      </c>
+      <c r="S97" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T97" s="7"/>
       <c r="U97" s="7"/>
       <c r="V97" s="7"/>
@@ -8030,21 +8110,17 @@
       <c r="X97" s="7"/>
       <c r="Y97" s="7"/>
       <c r="Z97" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA97" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB97" s="7">
-        <v>1</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AA97" s="7"/>
+      <c r="AB97" s="7"/>
     </row>
     <row r="98" spans="1:28">
       <c r="A98" s="3">
         <v>96</v>
       </c>
       <c r="B98" s="3">
-        <v>2025090356</v>
+        <v>2025090401</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
@@ -8053,42 +8129,42 @@
         <v>29</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>294</v>
+        <v>149</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>72</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>295</v>
+        <v>150</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>296</v>
+        <v>181</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>279</v>
+        <v>36</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>299</v>
+        <v>246</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
       <c r="R98" s="3">
-        <v>0</v>
+        <v>3113</v>
       </c>
       <c r="S98" s="3"/>
       <c r="T98" s="3"/>
@@ -8098,21 +8174,19 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
       <c r="Z98" s="6" t="s">
-        <v>300</v>
+        <v>167</v>
       </c>
       <c r="AA98" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB98" s="3">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB98" s="3"/>
     </row>
     <row r="99" spans="1:28">
       <c r="A99" s="7">
         <v>97</v>
       </c>
       <c r="B99" s="7">
-        <v>2025090785</v>
+        <v>2025090337</v>
       </c>
       <c r="C99" s="7">
         <v>1</v>
@@ -8121,41 +8195,45 @@
         <v>29</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>294</v>
+        <v>149</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>301</v>
+        <v>162</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>302</v>
+        <v>52</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
+        <v>285</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L99" s="8" t="s">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="M99" s="8" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="N99" s="8" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7">
-        <v>0</v>
+        <v>48945</v>
       </c>
       <c r="S99" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T99" s="7"/>
       <c r="U99" s="7"/>
@@ -8164,21 +8242,17 @@
       <c r="X99" s="7"/>
       <c r="Y99" s="7"/>
       <c r="Z99" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA99" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB99" s="7">
-        <v>1</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AA99" s="7"/>
+      <c r="AB99" s="7"/>
     </row>
     <row r="100" spans="1:28">
       <c r="A100" s="3">
         <v>98</v>
       </c>
       <c r="B100" s="3">
-        <v>2025090801</v>
+        <v>2025090338</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
@@ -8187,30 +8261,34 @@
         <v>29</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>294</v>
+        <v>149</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>306</v>
+        <v>162</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>307</v>
+        <v>52</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
+        <v>285</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L100" s="6" t="s">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>40</v>
@@ -8218,11 +8296,9 @@
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
       <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>48945</v>
+      </c>
+      <c r="S100" s="3"/>
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
@@ -8230,21 +8306,19 @@
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
       <c r="Z100" s="6" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AA100" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB100" s="3">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB100" s="3"/>
     </row>
     <row r="101" spans="1:28">
       <c r="A101" s="7">
         <v>99</v>
       </c>
       <c r="B101" s="7">
-        <v>2025090382</v>
+        <v>2025090603</v>
       </c>
       <c r="C101" s="7">
         <v>1</v>
@@ -8253,41 +8327,45 @@
         <v>29</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>294</v>
+        <v>149</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>312</v>
+        <v>162</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
+        <v>289</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L101" s="8" t="s">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="M101" s="8" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="N101" s="8" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7">
-        <v>0</v>
+        <v>13789</v>
       </c>
       <c r="S101" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T101" s="7"/>
       <c r="U101" s="7"/>
@@ -8296,21 +8374,17 @@
       <c r="X101" s="7"/>
       <c r="Y101" s="7"/>
       <c r="Z101" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA101" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB101" s="7">
-        <v>1</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AA101" s="7"/>
+      <c r="AB101" s="7"/>
     </row>
     <row r="102" spans="1:28">
       <c r="A102" s="3">
         <v>100</v>
       </c>
       <c r="B102" s="3">
-        <v>2025090307</v>
+        <v>2025090604</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
@@ -8319,42 +8393,42 @@
         <v>29</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>294</v>
+        <v>149</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>316</v>
+        <v>162</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>279</v>
+        <v>36</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="O102" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>13789</v>
       </c>
       <c r="S102" s="3"/>
       <c r="T102" s="3"/>
@@ -8364,10 +8438,10 @@
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
       <c r="Z102" s="6" t="s">
-        <v>317</v>
+        <v>167</v>
       </c>
       <c r="AA102" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB102" s="3"/>
     </row>
@@ -8376,7 +8450,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="7">
-        <v>2025090012</v>
+        <v>2025090728</v>
       </c>
       <c r="C103" s="7">
         <v>1</v>
@@ -8385,44 +8459,46 @@
         <v>29</v>
       </c>
       <c r="E103" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L103" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="M103" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="F103" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="I103" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="J103" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="K103" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L103" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="M103" s="8" t="s">
-        <v>314</v>
-      </c>
       <c r="N103" s="8" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7">
-        <v>0</v>
-      </c>
-      <c r="S103" s="7"/>
+        <v>25836</v>
+      </c>
+      <c r="S103" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T103" s="7"/>
       <c r="U103" s="7"/>
       <c r="V103" s="7"/>
@@ -8430,19 +8506,21 @@
       <c r="X103" s="7"/>
       <c r="Y103" s="7"/>
       <c r="Z103" s="8" t="s">
-        <v>320</v>
+        <v>167</v>
       </c>
       <c r="AA103" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB103" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="AB103" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="1:28">
       <c r="A104" s="3">
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <v>2025090712</v>
+        <v>2025090729</v>
       </c>
       <c r="C104" s="3">
         <v>1</v>
@@ -8451,42 +8529,42 @@
         <v>29</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>294</v>
+        <v>149</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>321</v>
+        <v>52</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>322</v>
+        <v>150</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>279</v>
+        <v>36</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="O104" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
       <c r="R104" s="3">
-        <v>0</v>
+        <v>25836</v>
       </c>
       <c r="S104" s="3"/>
       <c r="T104" s="3"/>
@@ -8496,21 +8574,19 @@
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
       <c r="Z104" s="6" t="s">
-        <v>326</v>
+        <v>167</v>
       </c>
       <c r="AA104" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB104" s="3">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB104" s="3"/>
     </row>
     <row r="105" spans="1:28">
       <c r="A105" s="7">
         <v>103</v>
       </c>
       <c r="B105" s="7">
-        <v>2025090821</v>
+        <v>2025090198</v>
       </c>
       <c r="C105" s="7">
         <v>1</v>
@@ -8519,19 +8595,19 @@
         <v>29</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>294</v>
+        <v>149</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>321</v>
+        <v>175</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>322</v>
+        <v>190</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
@@ -8539,13 +8615,13 @@
         <v>76</v>
       </c>
       <c r="M105" s="8" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="N105" s="8" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
@@ -8553,28 +8629,30 @@
         <v>0</v>
       </c>
       <c r="S105" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T105" s="7"/>
       <c r="U105" s="7"/>
       <c r="V105" s="7"/>
       <c r="W105" s="7"/>
       <c r="X105" s="7"/>
-      <c r="Y105" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y105" s="7"/>
       <c r="Z105" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AA105" s="7"/>
-      <c r="AB105" s="7"/>
+      <c r="AA105" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB105" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:28">
       <c r="A106" s="3">
         <v>104</v>
       </c>
       <c r="B106" s="3">
-        <v>2025090555</v>
+        <v>2025090719</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
@@ -8583,34 +8661,34 @@
         <v>29</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>294</v>
+        <v>149</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>279</v>
+        <v>110</v>
       </c>
       <c r="L106" s="6" t="s">
         <v>76</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="O106" s="3" t="s">
         <v>70</v>
@@ -8628,10 +8706,10 @@
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
       <c r="Z106" s="6" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="AA106" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB106" s="3">
         <v>1</v>
@@ -8642,7 +8720,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="7">
-        <v>2025090857</v>
+        <v>2025090208</v>
       </c>
       <c r="C107" s="7">
         <v>1</v>
@@ -8651,44 +8729,42 @@
         <v>29</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>294</v>
+        <v>149</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>332</v>
+        <v>185</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="J107" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="K107" s="7" t="s">
-        <v>279</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
       <c r="L107" s="8" t="s">
         <v>76</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7">
         <v>0</v>
       </c>
-      <c r="S107" s="7"/>
+      <c r="S107" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T107" s="7"/>
       <c r="U107" s="7"/>
       <c r="V107" s="7"/>
@@ -8696,10 +8772,10 @@
       <c r="X107" s="7"/>
       <c r="Y107" s="7"/>
       <c r="Z107" s="8" t="s">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AA107" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB107" s="7">
         <v>1</v>
@@ -8710,7 +8786,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3">
-        <v>2025090805</v>
+        <v>2025090314</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
@@ -8719,42 +8795,44 @@
         <v>29</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>294</v>
+        <v>149</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>139</v>
+        <v>309</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
+        <v>310</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="L108" s="6" t="s">
         <v>76</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="O108" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
       <c r="R108" s="3">
         <v>0</v>
       </c>
-      <c r="S108" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S108" s="3"/>
       <c r="T108" s="3"/>
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
@@ -8762,10 +8840,10 @@
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
       <c r="Z108" s="6" t="s">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="AA108" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB108" s="3">
         <v>1</v>
@@ -8776,7 +8854,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="7">
-        <v>2025090814</v>
+        <v>2025090356</v>
       </c>
       <c r="C109" s="7">
         <v>1</v>
@@ -8785,42 +8863,44 @@
         <v>29</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
+        <v>317</v>
+      </c>
+      <c r="J109" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="L109" s="8" t="s">
         <v>76</v>
       </c>
       <c r="M109" s="8" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="N109" s="8" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7">
         <v>0</v>
       </c>
-      <c r="S109" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S109" s="7"/>
       <c r="T109" s="7"/>
       <c r="U109" s="7"/>
       <c r="V109" s="7"/>
@@ -8828,10 +8908,10 @@
       <c r="X109" s="7"/>
       <c r="Y109" s="7"/>
       <c r="Z109" s="8" t="s">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="AA109" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB109" s="7">
         <v>1</v>
@@ -8842,7 +8922,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3">
-        <v>2025090797</v>
+        <v>2025090785</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
@@ -8851,19 +8931,19 @@
         <v>29</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>158</v>
+        <v>321</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
@@ -8871,13 +8951,13 @@
         <v>76</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="N110" s="6" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="O110" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
@@ -8885,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="S110" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T110" s="3"/>
       <c r="U110" s="3"/>
@@ -8897,44 +8977,774 @@
         <v>79</v>
       </c>
       <c r="AA110" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB110" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:28">
-      <c r="A111" s="9"/>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
-      <c r="K111" s="9"/>
-      <c r="L111" s="10"/>
-      <c r="M111" s="10"/>
-      <c r="N111" s="10"/>
-      <c r="O111" s="9"/>
-      <c r="P111" s="9"/>
-      <c r="Q111" s="9"/>
-      <c r="R111" s="9"/>
-      <c r="S111" s="9"/>
-      <c r="T111" s="9"/>
-      <c r="U111" s="9"/>
-      <c r="V111" s="9"/>
-      <c r="W111" s="9"/>
-      <c r="X111" s="9"/>
-      <c r="Y111" s="9"/>
-      <c r="Z111" s="10"/>
-      <c r="AA111" s="9" t="s">
+      <c r="A111" s="7">
+        <v>109</v>
+      </c>
+      <c r="B111" s="7">
+        <v>2025090801</v>
+      </c>
+      <c r="C111" s="7">
+        <v>1</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M111" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="N111" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="O111" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="7"/>
+      <c r="R111" s="7">
+        <v>0</v>
+      </c>
+      <c r="S111" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
+      <c r="V111" s="7"/>
+      <c r="W111" s="7"/>
+      <c r="X111" s="7"/>
+      <c r="Y111" s="7"/>
+      <c r="Z111" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA111" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB111" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28">
+      <c r="A112" s="3">
+        <v>110</v>
+      </c>
+      <c r="B112" s="3">
+        <v>2025090307</v>
+      </c>
+      <c r="C112" s="3">
+        <v>1</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M112" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="N112" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="O112" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3">
+        <v>0</v>
+      </c>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3"/>
+      <c r="V112" s="3"/>
+      <c r="W112" s="3"/>
+      <c r="X112" s="3"/>
+      <c r="Y112" s="3"/>
+      <c r="Z112" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA112" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB112" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28">
+      <c r="A113" s="7">
+        <v>111</v>
+      </c>
+      <c r="B113" s="7">
+        <v>2025090382</v>
+      </c>
+      <c r="C113" s="7">
+        <v>1</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M113" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="N113" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="O113" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P113" s="7"/>
+      <c r="Q113" s="7"/>
+      <c r="R113" s="7">
+        <v>0</v>
+      </c>
+      <c r="S113" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T113" s="7"/>
+      <c r="U113" s="7"/>
+      <c r="V113" s="7"/>
+      <c r="W113" s="7"/>
+      <c r="X113" s="7"/>
+      <c r="Y113" s="7"/>
+      <c r="Z113" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA113" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB113" s="7"/>
+    </row>
+    <row r="114" spans="1:28">
+      <c r="A114" s="3">
+        <v>112</v>
+      </c>
+      <c r="B114" s="3">
+        <v>2025090012</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L114" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M114" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="N114" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="O114" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3">
+        <v>0</v>
+      </c>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+      <c r="Y114" s="3"/>
+      <c r="Z114" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA114" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB114" s="3"/>
+    </row>
+    <row r="115" spans="1:28">
+      <c r="A115" s="7">
+        <v>113</v>
+      </c>
+      <c r="B115" s="7">
+        <v>2025090712</v>
+      </c>
+      <c r="C115" s="7">
+        <v>1</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L115" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M115" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="N115" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="O115" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P115" s="7"/>
+      <c r="Q115" s="7"/>
+      <c r="R115" s="7">
+        <v>0</v>
+      </c>
+      <c r="S115" s="7"/>
+      <c r="T115" s="7"/>
+      <c r="U115" s="7"/>
+      <c r="V115" s="7"/>
+      <c r="W115" s="7"/>
+      <c r="X115" s="7"/>
+      <c r="Y115" s="7"/>
+      <c r="Z115" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA115" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB115" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28">
+      <c r="A116" s="3">
+        <v>114</v>
+      </c>
+      <c r="B116" s="3">
+        <v>2025090821</v>
+      </c>
+      <c r="C116" s="3">
+        <v>1</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M116" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="N116" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="O116" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3">
+        <v>0</v>
+      </c>
+      <c r="S116" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
+      <c r="Y116" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z116" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA116" s="3"/>
+      <c r="AB116" s="3"/>
+    </row>
+    <row r="117" spans="1:28">
+      <c r="A117" s="7">
+        <v>115</v>
+      </c>
+      <c r="B117" s="7">
+        <v>2025090555</v>
+      </c>
+      <c r="C117" s="7">
+        <v>1</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="I117" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="AB111" s="9">
-        <v>46</v>
+      <c r="J117" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K117" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L117" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M117" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="N117" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="O117" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="7"/>
+      <c r="R117" s="7">
+        <v>0</v>
+      </c>
+      <c r="S117" s="7"/>
+      <c r="T117" s="7"/>
+      <c r="U117" s="7"/>
+      <c r="V117" s="7"/>
+      <c r="W117" s="7"/>
+      <c r="X117" s="7"/>
+      <c r="Y117" s="7"/>
+      <c r="Z117" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA117" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB117" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28">
+      <c r="A118" s="3">
+        <v>116</v>
+      </c>
+      <c r="B118" s="3">
+        <v>2025090857</v>
+      </c>
+      <c r="C118" s="3">
+        <v>1</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="N118" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="O118" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+      <c r="R118" s="3">
+        <v>0</v>
+      </c>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3"/>
+      <c r="U118" s="3"/>
+      <c r="V118" s="3"/>
+      <c r="W118" s="3"/>
+      <c r="X118" s="3"/>
+      <c r="Y118" s="3"/>
+      <c r="Z118" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA118" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28">
+      <c r="A119" s="7">
+        <v>117</v>
+      </c>
+      <c r="B119" s="7">
+        <v>2025090805</v>
+      </c>
+      <c r="C119" s="7">
+        <v>1</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M119" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="N119" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="O119" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P119" s="7"/>
+      <c r="Q119" s="7"/>
+      <c r="R119" s="7">
+        <v>0</v>
+      </c>
+      <c r="S119" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T119" s="7"/>
+      <c r="U119" s="7"/>
+      <c r="V119" s="7"/>
+      <c r="W119" s="7"/>
+      <c r="X119" s="7"/>
+      <c r="Y119" s="7"/>
+      <c r="Z119" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA119" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB119" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28">
+      <c r="A120" s="3">
+        <v>118</v>
+      </c>
+      <c r="B120" s="3">
+        <v>2025090814</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M120" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="N120" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="O120" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="3">
+        <v>0</v>
+      </c>
+      <c r="S120" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T120" s="3"/>
+      <c r="U120" s="3"/>
+      <c r="V120" s="3"/>
+      <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
+      <c r="Y120" s="3"/>
+      <c r="Z120" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA120" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB120" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28">
+      <c r="A121" s="7">
+        <v>119</v>
+      </c>
+      <c r="B121" s="7">
+        <v>2025090797</v>
+      </c>
+      <c r="C121" s="7">
+        <v>1</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="J121" s="7"/>
+      <c r="K121" s="7"/>
+      <c r="L121" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M121" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="N121" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="O121" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P121" s="7"/>
+      <c r="Q121" s="7"/>
+      <c r="R121" s="7">
+        <v>0</v>
+      </c>
+      <c r="S121" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T121" s="7"/>
+      <c r="U121" s="7"/>
+      <c r="V121" s="7"/>
+      <c r="W121" s="7"/>
+      <c r="X121" s="7"/>
+      <c r="Y121" s="7"/>
+      <c r="Z121" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA121" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB121" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28">
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="10"/>
+      <c r="M122" s="10"/>
+      <c r="N122" s="10"/>
+      <c r="O122" s="9"/>
+      <c r="P122" s="9"/>
+      <c r="Q122" s="9"/>
+      <c r="R122" s="9"/>
+      <c r="S122" s="9"/>
+      <c r="T122" s="9"/>
+      <c r="U122" s="9"/>
+      <c r="V122" s="9"/>
+      <c r="W122" s="9"/>
+      <c r="X122" s="9"/>
+      <c r="Y122" s="9"/>
+      <c r="Z122" s="10"/>
+      <c r="AA122" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB122" s="9">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202509_Service_Count_Report.xlsx
+++ b/IM/202509_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$122</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$136</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="424">
   <si>
     <t>服務次數統計表        篩選月份：202509</t>
   </si>
@@ -418,6 +418,27 @@
     <t>三芝天涯店</t>
   </si>
   <si>
+    <t>2025-09-08</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>10:55:00</t>
+  </si>
+  <si>
+    <t>THILF05080</t>
+  </si>
+  <si>
+    <t>新北市三芝區車埕69之6、7號</t>
+  </si>
+  <si>
+    <t>三芝楓愛林</t>
+  </si>
+  <si>
+    <t>原機版本更新至8 5版，目前測試結果非設備問題，SIN卡外蓋遺失</t>
+  </si>
+  <si>
     <t>16:20:00</t>
   </si>
   <si>
@@ -457,6 +478,24 @@
     <t>淡水金龍店</t>
   </si>
   <si>
+    <t>14:25:00</t>
+  </si>
+  <si>
+    <t>14:55:00</t>
+  </si>
+  <si>
+    <t>THILF0D087</t>
+  </si>
+  <si>
+    <t>新北市三重區中興北街134號</t>
+  </si>
+  <si>
+    <t>三重中興北</t>
+  </si>
+  <si>
+    <t>電源線脫落，插上後正常</t>
+  </si>
+  <si>
     <t>THILF0D193</t>
   </si>
   <si>
@@ -466,6 +505,23 @@
     <t>蘆洲權義店</t>
   </si>
   <si>
+    <t>16:28:00</t>
+  </si>
+  <si>
+    <t>THILF0D649</t>
+  </si>
+  <si>
+    <t>新北市三重區中正北路105號</t>
+  </si>
+  <si>
+    <t>三重運動公園</t>
+  </si>
+  <si>
+    <t>更換主機，無更換硬碟
+換下8185000697
+換上8185000168</t>
+  </si>
+  <si>
     <t>14:33:00</t>
   </si>
   <si>
@@ -484,9 +540,6 @@
     <t>湯家瑋</t>
   </si>
   <si>
-    <t>10:00:00</t>
-  </si>
-  <si>
     <t>T251000029</t>
   </si>
   <si>
@@ -845,6 +898,21 @@
   </si>
   <si>
     <t>新北市三重區興德路94號</t>
+  </si>
+  <si>
+    <t>11:11:00</t>
+  </si>
+  <si>
+    <t>T351800128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">德森精密有限公司 </t>
+  </si>
+  <si>
+    <t>新北市林口區文化北路1段60巷108號3樓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">漏粉 更換OD OD刮 回刮 </t>
   </si>
   <si>
     <t>T352500148</t>
@@ -952,6 +1020,15 @@
 SC Slave 20250805</t>
   </si>
   <si>
+    <t>THILF04282</t>
+  </si>
+  <si>
+    <t>新北市林口區文化北路一段258號一樓</t>
+  </si>
+  <si>
+    <t>林口建林店</t>
+  </si>
+  <si>
     <t>13:50:00</t>
   </si>
   <si>
@@ -964,6 +1041,51 @@
     <t>五股工商店</t>
   </si>
   <si>
+    <t>THILF04326</t>
+  </si>
+  <si>
+    <t>新北市林口區忠孝路1號1樓</t>
+  </si>
+  <si>
+    <t>林口建安店</t>
+  </si>
+  <si>
+    <t>THILF04483</t>
+  </si>
+  <si>
+    <t>新北市林口區仁愛路一段619號</t>
+  </si>
+  <si>
+    <t>林口築夢店</t>
+  </si>
+  <si>
+    <t>THILF04514</t>
+  </si>
+  <si>
+    <t>新北市林口區自強二街8、10號</t>
+  </si>
+  <si>
+    <t>林口老師店</t>
+  </si>
+  <si>
+    <t>THILF04715</t>
+  </si>
+  <si>
+    <t>新北市林口區文化北路一段123號一樓</t>
+  </si>
+  <si>
+    <t>林口捷韻店</t>
+  </si>
+  <si>
+    <t>THILF04834</t>
+  </si>
+  <si>
+    <t>新北市林口區文化三路一段39巷297號1、2樓</t>
+  </si>
+  <si>
+    <t>林口大千苑店</t>
+  </si>
+  <si>
     <t>13:20:00</t>
   </si>
   <si>
@@ -1033,16 +1155,19 @@
     <t>08:50:00</t>
   </si>
   <si>
+    <t>10:20:00</t>
+  </si>
+  <si>
+    <t>THILF03752</t>
+  </si>
+  <si>
+    <t>新北市板橋區四川路一段391號1F</t>
+  </si>
+  <si>
+    <t>板橋豫章店</t>
+  </si>
+  <si>
     <t>09:50:00</t>
-  </si>
-  <si>
-    <t>THILF03752</t>
-  </si>
-  <si>
-    <t>新北市板橋區四川路一段391號1F</t>
-  </si>
-  <si>
-    <t>板橋豫章店</t>
   </si>
   <si>
     <t>更換TCx800主機 硬碟無更換 
@@ -1050,9 +1175,6 @@
 換下 8185002487</t>
   </si>
   <si>
-    <t>10:20:00</t>
-  </si>
-  <si>
     <t>09:17:00</t>
   </si>
   <si>
@@ -1082,6 +1204,12 @@
 換下 8155004152</t>
   </si>
   <si>
+    <t>11:40:00</t>
+  </si>
+  <si>
+    <t>12:10:00</t>
+  </si>
+  <si>
     <t>13:35:00</t>
   </si>
   <si>
@@ -1120,6 +1248,30 @@
     <t>板橋合安店</t>
   </si>
   <si>
+    <t>15:17:00</t>
+  </si>
+  <si>
+    <t>15:47:00</t>
+  </si>
+  <si>
+    <t>THILF05384</t>
+  </si>
+  <si>
+    <t>新北市板橋區民生路三段68-1號1樓</t>
+  </si>
+  <si>
+    <t>板橋民生站</t>
+  </si>
+  <si>
+    <t>15:36:00</t>
+  </si>
+  <si>
+    <t>重新接電後正常開機，更換變壓器觀察
+1 開機後入帳日仍為2025 09 08
+2 登入收銀員顯示多日未清障
+3 清障後與騰雲確認帳務無異常</t>
+  </si>
+  <si>
     <t>15:15:00</t>
   </si>
   <si>
@@ -1133,6 +1285,26 @@
   </si>
   <si>
     <t>北縣僑中三店</t>
+  </si>
+  <si>
+    <t>12:23:00</t>
+  </si>
+  <si>
+    <t>12:55:00</t>
+  </si>
+  <si>
+    <t>THILF0D349</t>
+  </si>
+  <si>
+    <t>新北市板橋區重慶路245巷61號</t>
+  </si>
+  <si>
+    <t>板橋成都店</t>
+  </si>
+  <si>
+    <t>更換CCD掃槍
+換上 8119011523
+換下 8119012066</t>
   </si>
   <si>
     <t>14:23:00</t>
@@ -1561,10 +1733,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB122"/>
+  <dimension ref="A1:AB136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A122" sqref="A122"/>
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2994,7 +3166,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2025090467</v>
+        <v>2025090433</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -3006,39 +3178,41 @@
         <v>30</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="L22" s="6" t="s">
         <v>76</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -3046,7 +3220,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="6" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>42</v>
@@ -3060,7 +3234,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2025090294</v>
+        <v>2025090467</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -3072,16 +3246,16 @@
         <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -3089,10 +3263,10 @@
         <v>76</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>43</v>
@@ -3126,7 +3300,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2025090406</v>
+        <v>2025090294</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -3138,16 +3312,16 @@
         <v>30</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -3155,10 +3329,10 @@
         <v>76</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>43</v>
@@ -3192,7 +3366,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025090290</v>
+        <v>2025090406</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -3204,16 +3378,16 @@
         <v>30</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -3221,10 +3395,10 @@
         <v>76</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>43</v>
@@ -3258,7 +3432,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025090222</v>
+        <v>2025091040</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -3270,39 +3444,41 @@
         <v>30</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="L26" s="6" t="s">
         <v>76</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3">
         <v>0</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
@@ -3310,7 +3486,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AA26" s="3" t="s">
         <v>42</v>
@@ -3324,7 +3500,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025090915</v>
+        <v>2025090290</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -3333,46 +3509,42 @@
         <v>29</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="8" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P27" s="7"/>
-      <c r="Q27" s="7">
-        <v>10988</v>
-      </c>
+      <c r="Q27" s="7"/>
       <c r="R27" s="7">
-        <v>76907</v>
-      </c>
-      <c r="S27" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
@@ -3380,7 +3552,7 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="AA27" s="7" t="s">
         <v>42</v>
@@ -3394,7 +3566,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025090914</v>
+        <v>2025091038</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -3403,48 +3575,44 @@
         <v>29</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="P28" s="3"/>
-      <c r="Q28" s="3">
-        <v>10988</v>
-      </c>
+      <c r="Q28" s="3"/>
       <c r="R28" s="3">
-        <v>76907</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -3452,19 +3620,21 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="6" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AA28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB28" s="3"/>
+      <c r="AB28" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025091001</v>
+        <v>2025090222</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -3473,42 +3643,38 @@
         <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="8" t="s">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="N29" s="8"/>
+        <v>165</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>166</v>
+      </c>
       <c r="O29" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P29" s="7"/>
-      <c r="Q29" s="7">
-        <v>2100</v>
-      </c>
+      <c r="Q29" s="7"/>
       <c r="R29" s="7">
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="S29" s="7" t="s">
         <v>42</v>
@@ -3520,7 +3686,7 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="8" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="AA29" s="7" t="s">
         <v>42</v>
@@ -3534,7 +3700,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025091002</v>
+        <v>2025090915</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -3543,42 +3709,44 @@
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="N30" s="6"/>
+        <v>171</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>172</v>
+      </c>
       <c r="O30" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3">
-        <v>2100</v>
+        <v>10988</v>
       </c>
       <c r="R30" s="3">
-        <v>42000</v>
+        <v>76907</v>
       </c>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
@@ -3588,19 +3756,21 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="6" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="AA30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB30" s="3"/>
+      <c r="AB30" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025090398</v>
+        <v>2025090914</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -3609,44 +3779,44 @@
         <v>29</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7">
-        <v>27754</v>
+        <v>10988</v>
       </c>
       <c r="R31" s="7">
-        <v>44996</v>
+        <v>76907</v>
       </c>
       <c r="S31" s="7" t="s">
         <v>42</v>
@@ -3658,9 +3828,11 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA31" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="AA31" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="AB31" s="7"/>
     </row>
     <row r="32" spans="1:28">
@@ -3668,7 +3840,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2025090399</v>
+        <v>2025091001</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3677,46 +3849,46 @@
         <v>29</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>166</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N32" s="6"/>
       <c r="O32" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3">
-        <v>27754</v>
+        <v>2100</v>
       </c>
       <c r="R32" s="3">
-        <v>44996</v>
-      </c>
-      <c r="S32" s="3"/>
+        <v>42000</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
@@ -3724,19 +3896,21 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB32" s="3"/>
+      <c r="AB32" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="7">
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2025090772</v>
+        <v>2025091002</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -3745,44 +3919,42 @@
         <v>29</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H33" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="J33" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>173</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N33" s="8"/>
       <c r="O33" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7">
-        <v>29193</v>
+        <v>2100</v>
       </c>
       <c r="R33" s="7">
-        <v>25380</v>
+        <v>42000</v>
       </c>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
@@ -3792,21 +3964,19 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA33" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB33" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB33" s="7"/>
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2025090953</v>
+        <v>2025090398</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -3815,46 +3985,44 @@
         <v>29</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P34" s="3">
-        <v>6429</v>
-      </c>
+      <c r="P34" s="3"/>
       <c r="Q34" s="3">
-        <v>15099</v>
+        <v>27754</v>
       </c>
       <c r="R34" s="3">
-        <v>18367</v>
+        <v>44996</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>42</v>
@@ -3866,21 +4034,17 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB34" s="3">
-        <v>1</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025090954</v>
+        <v>2025090399</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3889,46 +4053,44 @@
         <v>29</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P35" s="7">
-        <v>6429</v>
-      </c>
+      <c r="P35" s="7"/>
       <c r="Q35" s="7">
-        <v>15099</v>
+        <v>27754</v>
       </c>
       <c r="R35" s="7">
-        <v>18367</v>
+        <v>44996</v>
       </c>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
@@ -3938,7 +4100,7 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="8" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="AA35" s="7" t="s">
         <v>42</v>
@@ -3950,7 +4112,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2025090951</v>
+        <v>2025090772</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -3959,50 +4121,46 @@
         <v>29</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P36" s="3">
-        <v>1773</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P36" s="3"/>
       <c r="Q36" s="3">
-        <v>2596</v>
+        <v>29193</v>
       </c>
       <c r="R36" s="3">
-        <v>7150</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>25380</v>
+      </c>
+      <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
@@ -4010,7 +4168,7 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="6" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="AA36" s="3" t="s">
         <v>42</v>
@@ -4024,7 +4182,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2025090952</v>
+        <v>2025090953</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -4033,48 +4191,50 @@
         <v>29</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P37" s="7">
-        <v>1773</v>
+        <v>6429</v>
       </c>
       <c r="Q37" s="7">
-        <v>2596</v>
+        <v>15099</v>
       </c>
       <c r="R37" s="7">
-        <v>7150</v>
-      </c>
-      <c r="S37" s="7"/>
+        <v>18367</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
@@ -4082,19 +4242,21 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="8" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="AA37" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB37" s="7"/>
+      <c r="AB37" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2025090969</v>
+        <v>2025090954</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -4103,48 +4265,48 @@
         <v>29</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P38" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="P38" s="3">
+        <v>6429</v>
+      </c>
       <c r="Q38" s="3">
-        <v>800</v>
+        <v>15099</v>
       </c>
       <c r="R38" s="3">
-        <v>12000</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>18367</v>
+      </c>
+      <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -4152,21 +4314,19 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="6" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="AA38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB38" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="7">
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025090970</v>
+        <v>2025090951</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -4175,46 +4335,50 @@
         <v>29</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P39" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="P39" s="7">
+        <v>1773</v>
+      </c>
       <c r="Q39" s="7">
-        <v>800</v>
+        <v>2596</v>
       </c>
       <c r="R39" s="7">
-        <v>12000</v>
-      </c>
-      <c r="S39" s="7"/>
+        <v>7150</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
@@ -4222,19 +4386,21 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="8" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="AA39" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB39" s="7"/>
+      <c r="AB39" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025090955</v>
+        <v>2025090952</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -4243,50 +4409,48 @@
         <v>29</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P40" s="3">
-        <v>99</v>
+        <v>1773</v>
       </c>
       <c r="Q40" s="3">
-        <v>854</v>
+        <v>2596</v>
       </c>
       <c r="R40" s="3">
-        <v>2805</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>7150</v>
+      </c>
+      <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -4294,21 +4458,19 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="6" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="AA40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB40" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="7">
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>2025090956</v>
+        <v>2025090969</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -4317,48 +4479,48 @@
         <v>29</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>175</v>
+        <v>73</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P41" s="7">
-        <v>99</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="P41" s="7"/>
       <c r="Q41" s="7">
-        <v>854</v>
+        <v>800</v>
       </c>
       <c r="R41" s="7">
-        <v>2805</v>
-      </c>
-      <c r="S41" s="7"/>
+        <v>12000</v>
+      </c>
+      <c r="S41" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
@@ -4366,19 +4528,21 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="8" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="AA41" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB41" s="7"/>
+      <c r="AB41" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>2025090339</v>
+        <v>2025090970</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -4387,48 +4551,46 @@
         <v>29</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="I42" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3">
-        <v>543</v>
+        <v>800</v>
       </c>
       <c r="R42" s="3">
-        <v>33024</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>12000</v>
+      </c>
+      <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
@@ -4436,9 +4598,11 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA42" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="1:28">
@@ -4446,7 +4610,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>2025090340</v>
+        <v>2025090955</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -4455,22 +4619,22 @@
         <v>29</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="I43" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>36</v>
@@ -4479,22 +4643,26 @@
         <v>195</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P43" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="P43" s="7">
+        <v>99</v>
+      </c>
       <c r="Q43" s="7">
-        <v>543</v>
+        <v>854</v>
       </c>
       <c r="R43" s="7">
-        <v>33024</v>
-      </c>
-      <c r="S43" s="7"/>
+        <v>2805</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
@@ -4502,19 +4670,21 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="8" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AA43" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB43" s="7"/>
+      <c r="AB43" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>2025090353</v>
+        <v>2025090956</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -4523,50 +4693,48 @@
         <v>29</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P44" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="Q44" s="3">
-        <v>0</v>
+        <v>854</v>
       </c>
       <c r="R44" s="3">
-        <v>41</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>2805</v>
+      </c>
+      <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
@@ -4574,21 +4742,19 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB44" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB44" s="3"/>
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="7">
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>2025090354</v>
+        <v>2025090339</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
@@ -4597,48 +4763,48 @@
         <v>29</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>80</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P45" s="7">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="P45" s="7"/>
       <c r="Q45" s="7">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="R45" s="7">
-        <v>41</v>
-      </c>
-      <c r="S45" s="7"/>
+        <v>33024</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
@@ -4646,11 +4812,9 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA45" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="AA45" s="7"/>
       <c r="AB45" s="7"/>
     </row>
     <row r="46" spans="1:28">
@@ -4658,7 +4822,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2025090633</v>
+        <v>2025090340</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4667,46 +4831,46 @@
         <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
+      <c r="Q46" s="3">
+        <v>543</v>
+      </c>
       <c r="R46" s="3">
-        <v>399312</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>33024</v>
+      </c>
+      <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
@@ -4714,9 +4878,11 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA46" s="3"/>
+        <v>184</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28">
@@ -4724,7 +4890,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>2025090634</v>
+        <v>2025090353</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4733,44 +4899,50 @@
         <v>29</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="N47" s="8" t="s">
         <v>206</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="P47" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>0</v>
+      </c>
       <c r="R47" s="7">
-        <v>399312</v>
-      </c>
-      <c r="S47" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
@@ -4778,19 +4950,21 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="AA47" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB47" s="7"/>
+      <c r="AB47" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2025090620</v>
+        <v>2025090354</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -4799,46 +4973,48 @@
         <v>29</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>52</v>
+        <v>216</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
       <c r="R48" s="3">
-        <v>164853</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
@@ -4846,9 +5022,11 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA48" s="3"/>
+        <v>184</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AB48" s="3"/>
     </row>
     <row r="49" spans="1:28">
@@ -4856,7 +5034,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>2025090621</v>
+        <v>2025090633</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -4865,19 +5043,19 @@
         <v>29</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>52</v>
+        <v>207</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>35</v>
@@ -4886,23 +5064,25 @@
         <v>36</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7">
-        <v>164853</v>
-      </c>
-      <c r="S49" s="7"/>
+        <v>399312</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
@@ -4910,11 +5090,9 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA49" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="AA49" s="7"/>
       <c r="AB49" s="7"/>
     </row>
     <row r="50" spans="1:28">
@@ -4922,7 +5100,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>2025090826</v>
+        <v>2025090634</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -4931,19 +5109,19 @@
         <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>35</v>
@@ -4952,25 +5130,23 @@
         <v>36</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3">
-        <v>47184</v>
-      </c>
-      <c r="S50" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>399312</v>
+      </c>
+      <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
@@ -4978,21 +5154,19 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="6" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="AA50" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB50" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB50" s="3"/>
     </row>
     <row r="51" spans="1:28">
       <c r="A51" s="7">
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>2025090827</v>
+        <v>2025090620</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
@@ -5001,19 +5175,19 @@
         <v>29</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>35</v>
@@ -5022,23 +5196,25 @@
         <v>36</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7">
-        <v>47184</v>
-      </c>
-      <c r="S51" s="7"/>
+        <v>164853</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
@@ -5046,11 +5222,9 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA51" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="AA51" s="7"/>
       <c r="AB51" s="7"/>
     </row>
     <row r="52" spans="1:28">
@@ -5058,7 +5232,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>2025090824</v>
+        <v>2025090621</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -5067,19 +5241,19 @@
         <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>35</v>
@@ -5088,25 +5262,23 @@
         <v>36</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3">
-        <v>77485</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>164853</v>
+      </c>
+      <c r="S52" s="3"/>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
@@ -5114,21 +5286,19 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="6" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB52" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB52" s="3"/>
     </row>
     <row r="53" spans="1:28">
       <c r="A53" s="7">
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>2025090825</v>
+        <v>2025090826</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
@@ -5137,19 +5307,19 @@
         <v>29</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>213</v>
+        <v>92</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>35</v>
@@ -5161,20 +5331,22 @@
         <v>37</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7">
-        <v>77485</v>
-      </c>
-      <c r="S53" s="7"/>
+        <v>47184</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
@@ -5182,19 +5354,21 @@
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="8" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="AA53" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB53" s="7"/>
+      <c r="AB53" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>2025091007</v>
+        <v>2025090827</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -5203,46 +5377,44 @@
         <v>29</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>213</v>
+        <v>92</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3">
-        <v>151225</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>47184</v>
+      </c>
+      <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
@@ -5250,21 +5422,19 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="6" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB54" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB54" s="3"/>
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="7">
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>2025091008</v>
+        <v>2025090824</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -5273,44 +5443,46 @@
         <v>29</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>92</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7">
-        <v>151225</v>
-      </c>
-      <c r="S55" s="7"/>
+        <v>77485</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
@@ -5318,19 +5490,21 @@
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="8" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="AA55" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB55" s="7"/>
+      <c r="AB55" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="3">
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>2025091009</v>
+        <v>2025090825</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -5339,46 +5513,44 @@
         <v>29</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G56" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="I56" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3">
-        <v>136290</v>
-      </c>
-      <c r="S56" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>77485</v>
+      </c>
+      <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
@@ -5386,21 +5558,19 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="6" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="AA56" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB56" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB56" s="3"/>
     </row>
     <row r="57" spans="1:28">
       <c r="A57" s="7">
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>2025091010</v>
+        <v>2025091007</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
@@ -5409,19 +5579,19 @@
         <v>29</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G57" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H57" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="I57" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>48</v>
@@ -5430,23 +5600,25 @@
         <v>36</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7">
-        <v>136290</v>
-      </c>
-      <c r="S57" s="7"/>
+        <v>151225</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
@@ -5454,19 +5626,21 @@
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="8" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="AA57" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB57" s="7"/>
+      <c r="AB57" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:28">
       <c r="A58" s="3">
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>2025090971</v>
+        <v>2025091008</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -5475,19 +5649,19 @@
         <v>29</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>48</v>
@@ -5496,23 +5670,23 @@
         <v>36</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="N58" s="6"/>
+        <v>236</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>237</v>
+      </c>
       <c r="O58" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3">
-        <v>48000</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>151225</v>
+      </c>
+      <c r="S58" s="3"/>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
@@ -5520,21 +5694,19 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="6" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB58" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB58" s="3"/>
     </row>
     <row r="59" spans="1:28">
       <c r="A59" s="7">
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>2025090972</v>
+        <v>2025091009</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
@@ -5543,19 +5715,19 @@
         <v>29</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>48</v>
@@ -5564,21 +5736,25 @@
         <v>36</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="N59" s="8"/>
+        <v>239</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>240</v>
+      </c>
       <c r="O59" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7">
-        <v>48000</v>
-      </c>
-      <c r="S59" s="7"/>
+        <v>136290</v>
+      </c>
+      <c r="S59" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
@@ -5586,19 +5762,21 @@
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="8" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="AA59" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB59" s="7"/>
+      <c r="AB59" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:28">
       <c r="A60" s="3">
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>2025090341</v>
+        <v>2025091010</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -5607,19 +5785,19 @@
         <v>29</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>48</v>
@@ -5628,25 +5806,23 @@
         <v>36</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3">
-        <v>276567</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>136290</v>
+      </c>
+      <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
@@ -5654,9 +5830,11 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA60" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AB60" s="3"/>
     </row>
     <row r="61" spans="1:28">
@@ -5664,7 +5842,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>2025090342</v>
+        <v>2025090971</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
@@ -5673,19 +5851,19 @@
         <v>29</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>48</v>
@@ -5694,23 +5872,23 @@
         <v>36</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="N61" s="8" t="s">
-        <v>230</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N61" s="8"/>
       <c r="O61" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7">
-        <v>276567</v>
-      </c>
-      <c r="S61" s="7"/>
+        <v>48000</v>
+      </c>
+      <c r="S61" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
       <c r="V61" s="7"/>
@@ -5718,19 +5896,21 @@
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="8" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AA61" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB61" s="7"/>
+      <c r="AB61" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:28">
       <c r="A62" s="3">
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>2025090345</v>
+        <v>2025090972</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -5739,19 +5919,19 @@
         <v>29</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>48</v>
@@ -5760,25 +5940,21 @@
         <v>36</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="N62" s="6" t="s">
-        <v>233</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N62" s="6"/>
       <c r="O62" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3">
-        <v>218331</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>48000</v>
+      </c>
+      <c r="S62" s="3"/>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
@@ -5786,9 +5962,11 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA62" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AB62" s="3"/>
     </row>
     <row r="63" spans="1:28">
@@ -5796,7 +5974,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>2025090346</v>
+        <v>2025090341</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
@@ -5805,19 +5983,19 @@
         <v>29</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>80</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>48</v>
@@ -5826,23 +6004,25 @@
         <v>36</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7">
-        <v>218331</v>
-      </c>
-      <c r="S63" s="7"/>
+        <v>276567</v>
+      </c>
+      <c r="S63" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
@@ -5850,11 +6030,9 @@
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA63" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
     </row>
     <row r="64" spans="1:28">
@@ -5862,7 +6040,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>2025090822</v>
+        <v>2025090342</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -5871,19 +6049,19 @@
         <v>29</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>48</v>
@@ -5892,25 +6070,23 @@
         <v>36</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>189</v>
+        <v>247</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3">
-        <v>2957</v>
-      </c>
-      <c r="S64" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>276567</v>
+      </c>
+      <c r="S64" s="3"/>
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
@@ -5918,21 +6094,19 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="6" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="AA64" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB64" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB64" s="3"/>
     </row>
     <row r="65" spans="1:28">
       <c r="A65" s="7">
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>2025090823</v>
+        <v>2025090345</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -5941,19 +6115,19 @@
         <v>29</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>48</v>
@@ -5962,23 +6136,25 @@
         <v>36</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7">
-        <v>2957</v>
-      </c>
-      <c r="S65" s="7"/>
+        <v>218331</v>
+      </c>
+      <c r="S65" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
       <c r="V65" s="7"/>
@@ -5986,11 +6162,9 @@
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA65" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="AA65" s="7"/>
       <c r="AB65" s="7"/>
     </row>
     <row r="66" spans="1:28">
@@ -5998,7 +6172,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>2025090351</v>
+        <v>2025090346</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -6007,46 +6181,44 @@
         <v>29</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>80</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>237</v>
+        <v>48</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3">
-        <v>295043</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>218331</v>
+      </c>
+      <c r="S66" s="3"/>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
@@ -6054,9 +6226,11 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA66" s="3"/>
+        <v>184</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AB66" s="3"/>
     </row>
     <row r="67" spans="1:28">
@@ -6064,7 +6238,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>2025090352</v>
+        <v>2025090822</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
@@ -6073,44 +6247,46 @@
         <v>29</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>237</v>
+        <v>48</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7">
-        <v>295043</v>
-      </c>
-      <c r="S67" s="7"/>
+        <v>2957</v>
+      </c>
+      <c r="S67" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -6118,19 +6294,21 @@
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="8" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AA67" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB67" s="7"/>
+      <c r="AB67" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:28">
       <c r="A68" s="3">
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <v>2025090668</v>
+        <v>2025090823</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -6139,42 +6317,42 @@
         <v>29</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>237</v>
+        <v>48</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3">
-        <v>296708</v>
+        <v>2957</v>
       </c>
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
@@ -6184,21 +6362,19 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="6" t="s">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="AA68" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB68" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB68" s="3"/>
     </row>
     <row r="69" spans="1:28">
       <c r="A69" s="7">
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>2025090343</v>
+        <v>2025090351</v>
       </c>
       <c r="C69" s="7">
         <v>1</v>
@@ -6207,34 +6383,34 @@
         <v>29</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>80</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="O69" s="7" t="s">
         <v>43</v>
@@ -6242,7 +6418,7 @@
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7">
-        <v>116934</v>
+        <v>295043</v>
       </c>
       <c r="S69" s="7" t="s">
         <v>42</v>
@@ -6254,7 +6430,7 @@
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="8" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="AA69" s="7"/>
       <c r="AB69" s="7"/>
@@ -6264,7 +6440,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <v>2025090344</v>
+        <v>2025090352</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
@@ -6273,34 +6449,34 @@
         <v>29</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>80</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="O70" s="3" t="s">
         <v>40</v>
@@ -6308,7 +6484,7 @@
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3">
-        <v>116934</v>
+        <v>295043</v>
       </c>
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
@@ -6318,7 +6494,7 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="6" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="AA70" s="3" t="s">
         <v>42</v>
@@ -6330,7 +6506,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>2025090402</v>
+        <v>2025090668</v>
       </c>
       <c r="C71" s="7">
         <v>1</v>
@@ -6339,46 +6515,44 @@
         <v>29</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>164</v>
+        <v>255</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>165</v>
+        <v>256</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7">
-        <v>117282</v>
-      </c>
-      <c r="S71" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>296708</v>
+      </c>
+      <c r="S71" s="7"/>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
@@ -6386,17 +6560,21 @@
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
       <c r="Z71" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA71" s="7"/>
-      <c r="AB71" s="7"/>
+        <v>258</v>
+      </c>
+      <c r="AA71" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB71" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:28">
       <c r="A72" s="3">
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>2025090403</v>
+        <v>2025090343</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -6405,44 +6583,46 @@
         <v>29</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>164</v>
+        <v>245</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3">
-        <v>117282</v>
-      </c>
-      <c r="S72" s="3"/>
+        <v>116934</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
@@ -6450,11 +6630,9 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA72" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
     </row>
     <row r="73" spans="1:28">
@@ -6462,7 +6640,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>2025090631</v>
+        <v>2025090344</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
@@ -6471,46 +6649,44 @@
         <v>29</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7">
-        <v>11696</v>
-      </c>
-      <c r="S73" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>116934</v>
+      </c>
+      <c r="S73" s="7"/>
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
@@ -6518,9 +6694,11 @@
       <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
       <c r="Z73" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA73" s="7"/>
+        <v>184</v>
+      </c>
+      <c r="AA73" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="AB73" s="7"/>
     </row>
     <row r="74" spans="1:28">
@@ -6528,7 +6706,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3">
-        <v>2025090632</v>
+        <v>2025090402</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
@@ -6537,44 +6715,46 @@
         <v>29</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>248</v>
+        <v>182</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3">
-        <v>11696</v>
-      </c>
-      <c r="S74" s="3"/>
+        <v>117282</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
@@ -6582,11 +6762,9 @@
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA74" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
     </row>
     <row r="75" spans="1:28">
@@ -6594,7 +6772,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>2025090720</v>
+        <v>2025090403</v>
       </c>
       <c r="C75" s="7">
         <v>1</v>
@@ -6603,46 +6781,44 @@
         <v>29</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K75" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7">
-        <v>152312</v>
-      </c>
-      <c r="S75" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>117282</v>
+      </c>
+      <c r="S75" s="7"/>
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
@@ -6650,9 +6826,11 @@
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA75" s="7"/>
+        <v>184</v>
+      </c>
+      <c r="AA75" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="AB75" s="7"/>
     </row>
     <row r="76" spans="1:28">
@@ -6660,7 +6838,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3">
-        <v>2025090721</v>
+        <v>2025090631</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
@@ -6669,44 +6847,46 @@
         <v>29</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>250</v>
+        <v>143</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3">
-        <v>152312</v>
-      </c>
-      <c r="S76" s="3"/>
+        <v>11696</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
@@ -6714,11 +6894,9 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
       <c r="Z76" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA76" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
     </row>
     <row r="77" spans="1:28">
@@ -6726,7 +6904,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="7">
-        <v>2025090626</v>
+        <v>2025090632</v>
       </c>
       <c r="C77" s="7">
         <v>1</v>
@@ -6735,46 +6913,44 @@
         <v>29</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="I77" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="J77" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7">
-        <v>266405</v>
-      </c>
-      <c r="S77" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>11696</v>
+      </c>
+      <c r="S77" s="7"/>
       <c r="T77" s="7"/>
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
@@ -6782,9 +6958,11 @@
       <c r="X77" s="7"/>
       <c r="Y77" s="7"/>
       <c r="Z77" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA77" s="7"/>
+        <v>184</v>
+      </c>
+      <c r="AA77" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="AB77" s="7"/>
     </row>
     <row r="78" spans="1:28">
@@ -6792,7 +6970,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <v>2025090627</v>
+        <v>2025090720</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
@@ -6801,44 +6979,46 @@
         <v>29</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="I78" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J78" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="3">
-        <v>266405</v>
-      </c>
-      <c r="S78" s="3"/>
+        <v>152312</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T78" s="3"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
@@ -6846,11 +7026,9 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA78" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
     </row>
     <row r="79" spans="1:28">
@@ -6858,7 +7036,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="7">
-        <v>2025090622</v>
+        <v>2025090721</v>
       </c>
       <c r="C79" s="7">
         <v>1</v>
@@ -6867,46 +7045,44 @@
         <v>29</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>52</v>
+        <v>267</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7">
         <v>152312</v>
       </c>
-      <c r="S79" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="S79" s="7"/>
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
@@ -6914,9 +7090,11 @@
       <c r="X79" s="7"/>
       <c r="Y79" s="7"/>
       <c r="Z79" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA79" s="7"/>
+        <v>184</v>
+      </c>
+      <c r="AA79" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="AB79" s="7"/>
     </row>
     <row r="80" spans="1:28">
@@ -6924,7 +7102,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3">
-        <v>2025090623</v>
+        <v>2025090627</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
@@ -6933,34 +7111,34 @@
         <v>29</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>52</v>
+        <v>198</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="O80" s="3" t="s">
         <v>40</v>
@@ -6968,7 +7146,7 @@
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="3">
-        <v>152312</v>
+        <v>266405</v>
       </c>
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
@@ -6978,19 +7156,21 @@
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
       <c r="Z80" s="6" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="AA80" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB80" s="3"/>
+      <c r="AB80" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:28">
       <c r="A81" s="7">
         <v>79</v>
       </c>
       <c r="B81" s="7">
-        <v>2025090722</v>
+        <v>2025090626</v>
       </c>
       <c r="C81" s="7">
         <v>1</v>
@@ -6999,34 +7179,34 @@
         <v>29</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="O81" s="7" t="s">
         <v>43</v>
@@ -7034,7 +7214,7 @@
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7">
-        <v>131134</v>
+        <v>266405</v>
       </c>
       <c r="S81" s="7" t="s">
         <v>42</v>
@@ -7046,7 +7226,7 @@
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="8" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="AA81" s="7"/>
       <c r="AB81" s="7"/>
@@ -7056,7 +7236,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3">
-        <v>2025090723</v>
+        <v>2025090622</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
@@ -7065,44 +7245,46 @@
         <v>29</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3">
-        <v>131134</v>
-      </c>
-      <c r="S82" s="3"/>
+        <v>152312</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
@@ -7110,11 +7292,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA82" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
     </row>
     <row r="83" spans="1:28">
@@ -7122,7 +7302,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="7">
-        <v>2025090349</v>
+        <v>2025090623</v>
       </c>
       <c r="C83" s="7">
         <v>1</v>
@@ -7131,46 +7311,44 @@
         <v>29</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>213</v>
+        <v>52</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K83" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7">
-        <v>183883</v>
-      </c>
-      <c r="S83" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>152312</v>
+      </c>
+      <c r="S83" s="7"/>
       <c r="T83" s="7"/>
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
@@ -7178,9 +7356,11 @@
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
       <c r="Z83" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA83" s="7"/>
+        <v>184</v>
+      </c>
+      <c r="AA83" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="AB83" s="7"/>
     </row>
     <row r="84" spans="1:28">
@@ -7188,7 +7368,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3">
-        <v>2025090350</v>
+        <v>2025090722</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
@@ -7197,44 +7377,46 @@
         <v>29</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3">
-        <v>183883</v>
-      </c>
-      <c r="S84" s="3"/>
+        <v>131134</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
@@ -7242,11 +7424,9 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
       <c r="Z84" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA84" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
     </row>
     <row r="85" spans="1:28">
@@ -7254,7 +7434,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="7">
-        <v>2025090347</v>
+        <v>2025090723</v>
       </c>
       <c r="C85" s="7">
         <v>1</v>
@@ -7263,46 +7443,44 @@
         <v>29</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>213</v>
+        <v>52</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K85" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7">
-        <v>355156</v>
-      </c>
-      <c r="S85" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>131134</v>
+      </c>
+      <c r="S85" s="7"/>
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
@@ -7310,9 +7488,11 @@
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
       <c r="Z85" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA85" s="7"/>
+        <v>184</v>
+      </c>
+      <c r="AA85" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="AB85" s="7"/>
     </row>
     <row r="86" spans="1:28">
@@ -7320,7 +7500,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3">
-        <v>2025090348</v>
+        <v>2025090349</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
@@ -7329,44 +7509,46 @@
         <v>29</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>80</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>213</v>
+        <v>92</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="3">
-        <v>355156</v>
-      </c>
-      <c r="S86" s="3"/>
+        <v>183883</v>
+      </c>
+      <c r="S86" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T86" s="3"/>
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
@@ -7374,11 +7556,9 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
       <c r="Z86" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA86" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
     </row>
     <row r="87" spans="1:28">
@@ -7386,7 +7566,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="7">
-        <v>2025090624</v>
+        <v>2025090350</v>
       </c>
       <c r="C87" s="7">
         <v>1</v>
@@ -7395,46 +7575,44 @@
         <v>29</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K87" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7">
-        <v>203749</v>
-      </c>
-      <c r="S87" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>183883</v>
+      </c>
+      <c r="S87" s="7"/>
       <c r="T87" s="7"/>
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
@@ -7442,9 +7620,11 @@
       <c r="X87" s="7"/>
       <c r="Y87" s="7"/>
       <c r="Z87" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA87" s="7"/>
+        <v>184</v>
+      </c>
+      <c r="AA87" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="AB87" s="7"/>
     </row>
     <row r="88" spans="1:28">
@@ -7452,7 +7632,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3">
-        <v>2025090625</v>
+        <v>2025090347</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
@@ -7461,44 +7641,46 @@
         <v>29</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="3">
-        <v>203749</v>
-      </c>
-      <c r="S88" s="3"/>
+        <v>355156</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T88" s="3"/>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
@@ -7506,11 +7688,9 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
       <c r="Z88" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA88" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="AA88" s="3"/>
       <c r="AB88" s="3"/>
     </row>
     <row r="89" spans="1:28">
@@ -7518,7 +7698,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="7">
-        <v>2025090916</v>
+        <v>2025090348</v>
       </c>
       <c r="C89" s="7">
         <v>1</v>
@@ -7527,44 +7707,44 @@
         <v>29</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K89" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="N89" s="8"/>
+        <v>280</v>
+      </c>
+      <c r="N89" s="8" t="s">
+        <v>281</v>
+      </c>
       <c r="O89" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7">
-        <v>136910</v>
-      </c>
-      <c r="S89" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>355156</v>
+      </c>
+      <c r="S89" s="7"/>
       <c r="T89" s="7"/>
       <c r="U89" s="7"/>
       <c r="V89" s="7"/>
@@ -7572,21 +7752,19 @@
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
       <c r="Z89" s="8" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="AA89" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB89" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB89" s="7"/>
     </row>
     <row r="90" spans="1:28">
       <c r="A90" s="3">
         <v>88</v>
       </c>
       <c r="B90" s="3">
-        <v>2025090917</v>
+        <v>2025090624</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
@@ -7595,42 +7773,46 @@
         <v>29</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="N90" s="6"/>
+        <v>283</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>284</v>
+      </c>
       <c r="O90" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3">
-        <v>136910</v>
-      </c>
-      <c r="S90" s="3"/>
+        <v>203749</v>
+      </c>
+      <c r="S90" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
@@ -7638,11 +7820,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA90" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
     </row>
     <row r="91" spans="1:28">
@@ -7650,7 +7830,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="7">
-        <v>2025090912</v>
+        <v>2025090625</v>
       </c>
       <c r="C91" s="7">
         <v>1</v>
@@ -7659,48 +7839,44 @@
         <v>29</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>52</v>
+        <v>198</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="K91" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>273</v>
+        <v>221</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>189</v>
+        <v>284</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P91" s="7"/>
-      <c r="Q91" s="7">
-        <v>1801</v>
-      </c>
+      <c r="Q91" s="7"/>
       <c r="R91" s="7">
-        <v>5799</v>
-      </c>
-      <c r="S91" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>203749</v>
+      </c>
+      <c r="S91" s="7"/>
       <c r="T91" s="7"/>
       <c r="U91" s="7"/>
       <c r="V91" s="7"/>
@@ -7708,21 +7884,19 @@
       <c r="X91" s="7"/>
       <c r="Y91" s="7"/>
       <c r="Z91" s="8" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="AA91" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB91" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB91" s="7"/>
     </row>
     <row r="92" spans="1:28">
       <c r="A92" s="3">
         <v>90</v>
       </c>
       <c r="B92" s="3">
-        <v>2025090913</v>
+        <v>2025090916</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
@@ -7731,46 +7905,44 @@
         <v>29</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>52</v>
+        <v>198</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="N92" s="6" t="s">
-        <v>189</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N92" s="6"/>
       <c r="O92" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P92" s="3"/>
-      <c r="Q92" s="3">
-        <v>1801</v>
-      </c>
+      <c r="Q92" s="3"/>
       <c r="R92" s="3">
-        <v>5799</v>
-      </c>
-      <c r="S92" s="3"/>
+        <v>136910</v>
+      </c>
+      <c r="S92" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T92" s="3"/>
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
@@ -7778,19 +7950,21 @@
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
       <c r="Z92" s="6" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="AA92" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB92" s="3"/>
+      <c r="AB92" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:28">
       <c r="A93" s="7">
         <v>91</v>
       </c>
       <c r="B93" s="7">
-        <v>2025090407</v>
+        <v>2025090917</v>
       </c>
       <c r="C93" s="7">
         <v>1</v>
@@ -7799,46 +7973,42 @@
         <v>29</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="K93" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="N93" s="8" t="s">
-        <v>212</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N93" s="8"/>
       <c r="O93" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7">
-        <v>38923</v>
-      </c>
-      <c r="S93" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>136910</v>
+      </c>
+      <c r="S93" s="7"/>
       <c r="T93" s="7"/>
       <c r="U93" s="7"/>
       <c r="V93" s="7"/>
@@ -7846,9 +8016,11 @@
       <c r="X93" s="7"/>
       <c r="Y93" s="7"/>
       <c r="Z93" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA93" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="AA93" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="AB93" s="7"/>
     </row>
     <row r="94" spans="1:28">
@@ -7856,7 +8028,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3">
-        <v>2025090408</v>
+        <v>2025091090</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
@@ -7865,42 +8037,40 @@
         <v>29</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>175</v>
+        <v>288</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="N94" s="6" t="s">
-        <v>212</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N94" s="6"/>
       <c r="O94" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="3">
-        <v>38923</v>
+        <v>83082</v>
       </c>
       <c r="S94" s="3"/>
       <c r="T94" s="3"/>
@@ -7910,19 +8080,21 @@
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
       <c r="Z94" s="6" t="s">
-        <v>167</v>
+        <v>292</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB94" s="3"/>
+      <c r="AB94" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:28">
       <c r="A95" s="7">
         <v>93</v>
       </c>
       <c r="B95" s="7">
-        <v>2025090447</v>
+        <v>2025090912</v>
       </c>
       <c r="C95" s="7">
         <v>1</v>
@@ -7931,42 +8103,44 @@
         <v>29</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="K95" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="M95" s="8" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="O95" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
+      <c r="Q95" s="7">
+        <v>1801</v>
+      </c>
       <c r="R95" s="7">
-        <v>19</v>
+        <v>5799</v>
       </c>
       <c r="S95" s="7" t="s">
         <v>42</v>
@@ -7978,17 +8152,21 @@
       <c r="X95" s="7"/>
       <c r="Y95" s="7"/>
       <c r="Z95" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA95" s="7"/>
-      <c r="AB95" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="AA95" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB95" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:28">
       <c r="A96" s="3">
         <v>94</v>
       </c>
       <c r="B96" s="3">
-        <v>2025090448</v>
+        <v>2025090913</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
@@ -7997,42 +8175,44 @@
         <v>29</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="O96" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P96" s="3"/>
-      <c r="Q96" s="3"/>
+      <c r="Q96" s="3">
+        <v>1801</v>
+      </c>
       <c r="R96" s="3">
-        <v>19</v>
+        <v>5799</v>
       </c>
       <c r="S96" s="3"/>
       <c r="T96" s="3"/>
@@ -8042,7 +8222,7 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
       <c r="Z96" s="6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AA96" s="3" t="s">
         <v>42</v>
@@ -8054,7 +8234,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="7">
-        <v>2025090400</v>
+        <v>2025090408</v>
       </c>
       <c r="C97" s="7">
         <v>1</v>
@@ -8063,46 +8243,44 @@
         <v>29</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="K97" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>164</v>
+        <v>299</v>
       </c>
       <c r="M97" s="8" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="N97" s="8" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7">
-        <v>3113</v>
-      </c>
-      <c r="S97" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>38923</v>
+      </c>
+      <c r="S97" s="7"/>
       <c r="T97" s="7"/>
       <c r="U97" s="7"/>
       <c r="V97" s="7"/>
@@ -8110,17 +8288,21 @@
       <c r="X97" s="7"/>
       <c r="Y97" s="7"/>
       <c r="Z97" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA97" s="7"/>
-      <c r="AB97" s="7"/>
+        <v>184</v>
+      </c>
+      <c r="AA97" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB97" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:28">
       <c r="A98" s="3">
         <v>96</v>
       </c>
       <c r="B98" s="3">
-        <v>2025090401</v>
+        <v>2025090407</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
@@ -8129,44 +8311,46 @@
         <v>29</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>72</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>164</v>
+        <v>299</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
       <c r="R98" s="3">
-        <v>3113</v>
-      </c>
-      <c r="S98" s="3"/>
+        <v>38923</v>
+      </c>
+      <c r="S98" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T98" s="3"/>
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
@@ -8174,11 +8358,9 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
       <c r="Z98" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA98" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="AA98" s="3"/>
       <c r="AB98" s="3"/>
     </row>
     <row r="99" spans="1:28">
@@ -8186,7 +8368,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="7">
-        <v>2025090337</v>
+        <v>2025090447</v>
       </c>
       <c r="C99" s="7">
         <v>1</v>
@@ -8195,34 +8377,34 @@
         <v>29</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="K99" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L99" s="8" t="s">
-        <v>195</v>
+        <v>302</v>
       </c>
       <c r="M99" s="8" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="N99" s="8" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="O99" s="7" t="s">
         <v>43</v>
@@ -8230,7 +8412,7 @@
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7">
-        <v>48945</v>
+        <v>19</v>
       </c>
       <c r="S99" s="7" t="s">
         <v>42</v>
@@ -8242,7 +8424,7 @@
       <c r="X99" s="7"/>
       <c r="Y99" s="7"/>
       <c r="Z99" s="8" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="AA99" s="7"/>
       <c r="AB99" s="7"/>
@@ -8252,7 +8434,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3">
-        <v>2025090338</v>
+        <v>2025090448</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
@@ -8261,34 +8443,34 @@
         <v>29</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>195</v>
+        <v>302</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>40</v>
@@ -8296,7 +8478,7 @@
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
       <c r="R100" s="3">
-        <v>48945</v>
+        <v>19</v>
       </c>
       <c r="S100" s="3"/>
       <c r="T100" s="3"/>
@@ -8306,7 +8488,7 @@
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
       <c r="Z100" s="6" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="AA100" s="3" t="s">
         <v>42</v>
@@ -8318,7 +8500,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="7">
-        <v>2025090603</v>
+        <v>2025090400</v>
       </c>
       <c r="C101" s="7">
         <v>1</v>
@@ -8327,34 +8509,34 @@
         <v>29</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="K101" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="M101" s="8" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="N101" s="8" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="O101" s="7" t="s">
         <v>43</v>
@@ -8362,7 +8544,7 @@
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7">
-        <v>13789</v>
+        <v>3113</v>
       </c>
       <c r="S101" s="7" t="s">
         <v>42</v>
@@ -8374,7 +8556,7 @@
       <c r="X101" s="7"/>
       <c r="Y101" s="7"/>
       <c r="Z101" s="8" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="AA101" s="7"/>
       <c r="AB101" s="7"/>
@@ -8384,7 +8566,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3">
-        <v>2025090604</v>
+        <v>2025090401</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
@@ -8393,34 +8575,34 @@
         <v>29</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>40</v>
@@ -8428,7 +8610,7 @@
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
       <c r="R102" s="3">
-        <v>13789</v>
+        <v>3113</v>
       </c>
       <c r="S102" s="3"/>
       <c r="T102" s="3"/>
@@ -8438,7 +8620,7 @@
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
       <c r="Z102" s="6" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="AA102" s="3" t="s">
         <v>42</v>
@@ -8450,7 +8632,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="7">
-        <v>2025090728</v>
+        <v>2025090337</v>
       </c>
       <c r="C103" s="7">
         <v>1</v>
@@ -8459,34 +8641,34 @@
         <v>29</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G103" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H103" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H103" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="I103" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="K103" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M103" s="8" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="N103" s="8" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="O103" s="7" t="s">
         <v>43</v>
@@ -8494,7 +8676,7 @@
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7">
-        <v>25836</v>
+        <v>48945</v>
       </c>
       <c r="S103" s="7" t="s">
         <v>42</v>
@@ -8506,21 +8688,17 @@
       <c r="X103" s="7"/>
       <c r="Y103" s="7"/>
       <c r="Z103" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA103" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB103" s="7">
-        <v>1</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="AA103" s="7"/>
+      <c r="AB103" s="7"/>
     </row>
     <row r="104" spans="1:28">
       <c r="A104" s="3">
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <v>2025090729</v>
+        <v>2025090338</v>
       </c>
       <c r="C104" s="3">
         <v>1</v>
@@ -8529,34 +8707,34 @@
         <v>29</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G104" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H104" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H104" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="I104" s="3" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="K104" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="O104" s="3" t="s">
         <v>40</v>
@@ -8564,7 +8742,7 @@
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
       <c r="R104" s="3">
-        <v>25836</v>
+        <v>48945</v>
       </c>
       <c r="S104" s="3"/>
       <c r="T104" s="3"/>
@@ -8574,7 +8752,7 @@
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
       <c r="Z104" s="6" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="AA104" s="3" t="s">
         <v>42</v>
@@ -8586,7 +8764,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="7">
-        <v>2025090198</v>
+        <v>2025090603</v>
       </c>
       <c r="C105" s="7">
         <v>1</v>
@@ -8595,30 +8773,34 @@
         <v>29</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
+        <v>311</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L105" s="8" t="s">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="M105" s="8" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="N105" s="8" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="O105" s="7" t="s">
         <v>43</v>
@@ -8626,7 +8808,7 @@
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7">
-        <v>0</v>
+        <v>13789</v>
       </c>
       <c r="S105" s="7" t="s">
         <v>42</v>
@@ -8638,21 +8820,17 @@
       <c r="X105" s="7"/>
       <c r="Y105" s="7"/>
       <c r="Z105" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA105" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB105" s="7">
-        <v>1</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="AA105" s="7"/>
+      <c r="AB105" s="7"/>
     </row>
     <row r="106" spans="1:28">
       <c r="A106" s="3">
         <v>104</v>
       </c>
       <c r="B106" s="3">
-        <v>2025090719</v>
+        <v>2025090604</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
@@ -8661,42 +8839,42 @@
         <v>29</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>299</v>
+        <v>179</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="L106" s="6" t="s">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="O106" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
       <c r="R106" s="3">
-        <v>0</v>
+        <v>13789</v>
       </c>
       <c r="S106" s="3"/>
       <c r="T106" s="3"/>
@@ -8706,21 +8884,19 @@
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
       <c r="Z106" s="6" t="s">
-        <v>304</v>
+        <v>184</v>
       </c>
       <c r="AA106" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB106" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB106" s="3"/>
     </row>
     <row r="107" spans="1:28">
       <c r="A107" s="7">
         <v>105</v>
       </c>
       <c r="B107" s="7">
-        <v>2025090208</v>
+        <v>2025090728</v>
       </c>
       <c r="C107" s="7">
         <v>1</v>
@@ -8729,30 +8905,34 @@
         <v>29</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>305</v>
+        <v>129</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
+        <v>314</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L107" s="8" t="s">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="O107" s="7" t="s">
         <v>43</v>
@@ -8760,7 +8940,7 @@
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7">
-        <v>0</v>
+        <v>25836</v>
       </c>
       <c r="S107" s="7" t="s">
         <v>42</v>
@@ -8772,7 +8952,7 @@
       <c r="X107" s="7"/>
       <c r="Y107" s="7"/>
       <c r="Z107" s="8" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="AA107" s="7" t="s">
         <v>42</v>
@@ -8786,7 +8966,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3">
-        <v>2025090314</v>
+        <v>2025090729</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
@@ -8795,42 +8975,42 @@
         <v>29</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>309</v>
+        <v>52</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>305</v>
+        <v>129</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>109</v>
+        <v>315</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="O108" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
       <c r="R108" s="3">
-        <v>0</v>
+        <v>25836</v>
       </c>
       <c r="S108" s="3"/>
       <c r="T108" s="3"/>
@@ -8840,21 +9020,19 @@
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
       <c r="Z108" s="6" t="s">
-        <v>313</v>
+        <v>184</v>
       </c>
       <c r="AA108" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB108" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB108" s="3"/>
     </row>
     <row r="109" spans="1:28">
       <c r="A109" s="7">
         <v>107</v>
       </c>
       <c r="B109" s="7">
-        <v>2025090356</v>
+        <v>2025090198</v>
       </c>
       <c r="C109" s="7">
         <v>1</v>
@@ -8863,44 +9041,42 @@
         <v>29</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>314</v>
+        <v>167</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>315</v>
+        <v>192</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>316</v>
+        <v>207</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="J109" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K109" s="7" t="s">
-        <v>110</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
       <c r="L109" s="8" t="s">
         <v>76</v>
       </c>
       <c r="M109" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N109" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7">
         <v>0</v>
       </c>
-      <c r="S109" s="7"/>
+      <c r="S109" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T109" s="7"/>
       <c r="U109" s="7"/>
       <c r="V109" s="7"/>
@@ -8908,7 +9084,7 @@
       <c r="X109" s="7"/>
       <c r="Y109" s="7"/>
       <c r="Z109" s="8" t="s">
-        <v>320</v>
+        <v>79</v>
       </c>
       <c r="AA109" s="7" t="s">
         <v>42</v>
@@ -8922,7 +9098,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3">
-        <v>2025090785</v>
+        <v>2025090719</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
@@ -8931,22 +9107,26 @@
         <v>29</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>314</v>
+        <v>167</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G110" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H110" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="I110" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="I110" s="3" t="s">
+      <c r="J110" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
+      <c r="K110" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="L110" s="6" t="s">
         <v>76</v>
       </c>
@@ -8957,16 +9137,14 @@
         <v>325</v>
       </c>
       <c r="O110" s="3" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
       <c r="R110" s="3">
         <v>0</v>
       </c>
-      <c r="S110" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="S110" s="3"/>
       <c r="T110" s="3"/>
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
@@ -8974,7 +9152,7 @@
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
       <c r="Z110" s="6" t="s">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="AA110" s="3" t="s">
         <v>42</v>
@@ -8988,7 +9166,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="7">
-        <v>2025090801</v>
+        <v>2025091070</v>
       </c>
       <c r="C111" s="7">
         <v>1</v>
@@ -8997,19 +9175,19 @@
         <v>29</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>314</v>
+        <v>167</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="H111" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I111" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="I111" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
@@ -9017,10 +9195,10 @@
         <v>76</v>
       </c>
       <c r="M111" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="N111" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="N111" s="8" t="s">
-        <v>330</v>
       </c>
       <c r="O111" s="7" t="s">
         <v>43</v>
@@ -9038,9 +9216,11 @@
       <c r="V111" s="7"/>
       <c r="W111" s="7"/>
       <c r="X111" s="7"/>
-      <c r="Y111" s="7"/>
+      <c r="Y111" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="Z111" s="8" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="AA111" s="7" t="s">
         <v>42</v>
@@ -9054,7 +9234,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3">
-        <v>2025090307</v>
+        <v>2025090208</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
@@ -9063,44 +9243,42 @@
         <v>29</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>314</v>
+        <v>167</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G112" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I112" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="H112" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="K112" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
       <c r="L112" s="6" t="s">
         <v>76</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O112" s="3" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
       <c r="R112" s="3">
         <v>0</v>
       </c>
-      <c r="S112" s="3"/>
+      <c r="S112" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T112" s="3"/>
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
@@ -9108,7 +9286,7 @@
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
       <c r="Z112" s="6" t="s">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="AA112" s="3" t="s">
         <v>42</v>
@@ -9122,7 +9300,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="7">
-        <v>2025090382</v>
+        <v>2025091095</v>
       </c>
       <c r="C113" s="7">
         <v>1</v>
@@ -9131,19 +9309,19 @@
         <v>29</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>314</v>
+        <v>167</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>331</v>
+        <v>143</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>337</v>
+        <v>192</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
@@ -9151,10 +9329,10 @@
         <v>76</v>
       </c>
       <c r="M113" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N113" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O113" s="7" t="s">
         <v>43</v>
@@ -9179,14 +9357,16 @@
       <c r="AA113" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB113" s="7"/>
+      <c r="AB113" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="1:28">
       <c r="A114" s="3">
         <v>112</v>
       </c>
       <c r="B114" s="3">
-        <v>2025090012</v>
+        <v>2025091106</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
@@ -9195,44 +9375,42 @@
         <v>29</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>314</v>
+        <v>167</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>339</v>
+        <v>202</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>110</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
       <c r="L114" s="6" t="s">
         <v>76</v>
       </c>
       <c r="M114" s="6" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="N114" s="6" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="O114" s="3" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
       <c r="R114" s="3">
         <v>0</v>
       </c>
-      <c r="S114" s="3"/>
+      <c r="S114" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T114" s="3"/>
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
@@ -9240,19 +9418,21 @@
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
       <c r="Z114" s="6" t="s">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="AA114" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB114" s="3"/>
+      <c r="AB114" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" spans="1:28">
       <c r="A115" s="7">
         <v>113</v>
       </c>
       <c r="B115" s="7">
-        <v>2025090712</v>
+        <v>2025091113</v>
       </c>
       <c r="C115" s="7">
         <v>1</v>
@@ -9261,44 +9441,42 @@
         <v>29</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>314</v>
+        <v>167</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>341</v>
+        <v>202</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>342</v>
+        <v>174</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="J115" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K115" s="7" t="s">
-        <v>110</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
       <c r="L115" s="8" t="s">
         <v>76</v>
       </c>
       <c r="M115" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N115" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O115" s="7" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7">
         <v>0</v>
       </c>
-      <c r="S115" s="7"/>
+      <c r="S115" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T115" s="7"/>
       <c r="U115" s="7"/>
       <c r="V115" s="7"/>
@@ -9306,7 +9484,7 @@
       <c r="X115" s="7"/>
       <c r="Y115" s="7"/>
       <c r="Z115" s="8" t="s">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AA115" s="7" t="s">
         <v>42</v>
@@ -9320,7 +9498,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3">
-        <v>2025090821</v>
+        <v>2025091076</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
@@ -9329,16 +9507,16 @@
         <v>29</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>314</v>
+        <v>167</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>341</v>
+        <v>129</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>342</v>
+        <v>198</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>343</v>
@@ -9370,21 +9548,23 @@
       <c r="V116" s="3"/>
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
-      <c r="Y116" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="Y116" s="3"/>
       <c r="Z116" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AA116" s="3"/>
-      <c r="AB116" s="3"/>
+      <c r="AA116" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB116" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:28">
       <c r="A117" s="7">
         <v>115</v>
       </c>
       <c r="B117" s="7">
-        <v>2025090555</v>
+        <v>2025091069</v>
       </c>
       <c r="C117" s="7">
         <v>1</v>
@@ -9393,44 +9573,42 @@
         <v>29</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>314</v>
+        <v>167</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>347</v>
+        <v>52</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="J117" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K117" s="7" t="s">
-        <v>110</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
       <c r="L117" s="8" t="s">
         <v>76</v>
       </c>
       <c r="M117" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N117" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="O117" s="7" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7">
         <v>0</v>
       </c>
-      <c r="S117" s="7"/>
+      <c r="S117" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T117" s="7"/>
       <c r="U117" s="7"/>
       <c r="V117" s="7"/>
@@ -9438,7 +9616,7 @@
       <c r="X117" s="7"/>
       <c r="Y117" s="7"/>
       <c r="Z117" s="8" t="s">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="AA117" s="7" t="s">
         <v>42</v>
@@ -9452,7 +9630,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3">
-        <v>2025090857</v>
+        <v>2025090314</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
@@ -9461,19 +9639,19 @@
         <v>29</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>314</v>
+        <v>167</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J118" s="3" t="s">
         <v>109</v>
@@ -9485,10 +9663,10 @@
         <v>76</v>
       </c>
       <c r="M118" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="N118" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="O118" s="3" t="s">
         <v>70</v>
@@ -9506,7 +9684,7 @@
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
       <c r="Z118" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AA118" s="3" t="s">
         <v>42</v>
@@ -9520,7 +9698,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="7">
-        <v>2025090805</v>
+        <v>2025090356</v>
       </c>
       <c r="C119" s="7">
         <v>1</v>
@@ -9529,42 +9707,44 @@
         <v>29</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>145</v>
+        <v>355</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
+        <v>357</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K119" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="L119" s="8" t="s">
         <v>76</v>
       </c>
       <c r="M119" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N119" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O119" s="7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7">
         <v>0</v>
       </c>
-      <c r="S119" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="S119" s="7"/>
       <c r="T119" s="7"/>
       <c r="U119" s="7"/>
       <c r="V119" s="7"/>
@@ -9572,7 +9752,7 @@
       <c r="X119" s="7"/>
       <c r="Y119" s="7"/>
       <c r="Z119" s="8" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="AA119" s="7" t="s">
         <v>42</v>
@@ -9586,7 +9766,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3">
-        <v>2025090814</v>
+        <v>2025090785</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
@@ -9595,19 +9775,19 @@
         <v>29</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
@@ -9615,10 +9795,10 @@
         <v>76</v>
       </c>
       <c r="M120" s="6" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="N120" s="6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="O120" s="3" t="s">
         <v>43</v>
@@ -9652,7 +9832,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="7">
-        <v>2025090797</v>
+        <v>2025090801</v>
       </c>
       <c r="C121" s="7">
         <v>1</v>
@@ -9661,19 +9841,19 @@
         <v>29</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>169</v>
+        <v>366</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
@@ -9681,10 +9861,10 @@
         <v>76</v>
       </c>
       <c r="M121" s="8" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="N121" s="8" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="O121" s="7" t="s">
         <v>43</v>
@@ -9714,37 +9894,971 @@
       </c>
     </row>
     <row r="122" spans="1:28">
-      <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="9"/>
-      <c r="J122" s="9"/>
-      <c r="K122" s="9"/>
-      <c r="L122" s="10"/>
-      <c r="M122" s="10"/>
-      <c r="N122" s="10"/>
-      <c r="O122" s="9"/>
-      <c r="P122" s="9"/>
-      <c r="Q122" s="9"/>
-      <c r="R122" s="9"/>
-      <c r="S122" s="9"/>
-      <c r="T122" s="9"/>
-      <c r="U122" s="9"/>
-      <c r="V122" s="9"/>
-      <c r="W122" s="9"/>
-      <c r="X122" s="9"/>
-      <c r="Y122" s="9"/>
-      <c r="Z122" s="10"/>
-      <c r="AA122" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB122" s="9">
-        <v>52</v>
+      <c r="A122" s="3">
+        <v>120</v>
+      </c>
+      <c r="B122" s="3">
+        <v>2025090382</v>
+      </c>
+      <c r="C122" s="3">
+        <v>1</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M122" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="N122" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="O122" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+      <c r="R122" s="3">
+        <v>0</v>
+      </c>
+      <c r="S122" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T122" s="3"/>
+      <c r="U122" s="3"/>
+      <c r="V122" s="3"/>
+      <c r="W122" s="3"/>
+      <c r="X122" s="3"/>
+      <c r="Y122" s="3"/>
+      <c r="Z122" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA122" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28">
+      <c r="A123" s="7">
+        <v>121</v>
+      </c>
+      <c r="B123" s="7">
+        <v>2025090307</v>
+      </c>
+      <c r="C123" s="7">
+        <v>1</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="J123" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K123" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L123" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M123" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="N123" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="O123" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P123" s="7"/>
+      <c r="Q123" s="7"/>
+      <c r="R123" s="7">
+        <v>0</v>
+      </c>
+      <c r="S123" s="7"/>
+      <c r="T123" s="7"/>
+      <c r="U123" s="7"/>
+      <c r="V123" s="7"/>
+      <c r="W123" s="7"/>
+      <c r="X123" s="7"/>
+      <c r="Y123" s="7"/>
+      <c r="Z123" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA123" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB123" s="7"/>
+    </row>
+    <row r="124" spans="1:28">
+      <c r="A124" s="3">
+        <v>122</v>
+      </c>
+      <c r="B124" s="3">
+        <v>2025090012</v>
+      </c>
+      <c r="C124" s="3">
+        <v>1</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L124" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M124" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="N124" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="O124" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+      <c r="R124" s="3">
+        <v>0</v>
+      </c>
+      <c r="S124" s="3"/>
+      <c r="T124" s="3"/>
+      <c r="U124" s="3"/>
+      <c r="V124" s="3"/>
+      <c r="W124" s="3"/>
+      <c r="X124" s="3"/>
+      <c r="Y124" s="3"/>
+      <c r="Z124" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA124" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB124" s="3"/>
+    </row>
+    <row r="125" spans="1:28">
+      <c r="A125" s="7">
+        <v>123</v>
+      </c>
+      <c r="B125" s="7">
+        <v>2025090712</v>
+      </c>
+      <c r="C125" s="7">
+        <v>1</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="J125" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K125" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L125" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M125" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="N125" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="O125" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P125" s="7"/>
+      <c r="Q125" s="7"/>
+      <c r="R125" s="7">
+        <v>0</v>
+      </c>
+      <c r="S125" s="7"/>
+      <c r="T125" s="7"/>
+      <c r="U125" s="7"/>
+      <c r="V125" s="7"/>
+      <c r="W125" s="7"/>
+      <c r="X125" s="7"/>
+      <c r="Y125" s="7"/>
+      <c r="Z125" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA125" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB125" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28">
+      <c r="A126" s="3">
+        <v>124</v>
+      </c>
+      <c r="B126" s="3">
+        <v>2025090821</v>
+      </c>
+      <c r="C126" s="3">
+        <v>1</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M126" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="N126" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="O126" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+      <c r="R126" s="3">
+        <v>0</v>
+      </c>
+      <c r="S126" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T126" s="3"/>
+      <c r="U126" s="3"/>
+      <c r="V126" s="3"/>
+      <c r="W126" s="3"/>
+      <c r="X126" s="3"/>
+      <c r="Y126" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z126" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA126" s="3"/>
+      <c r="AB126" s="3"/>
+    </row>
+    <row r="127" spans="1:28">
+      <c r="A127" s="7">
+        <v>125</v>
+      </c>
+      <c r="B127" s="7">
+        <v>2025090957</v>
+      </c>
+      <c r="C127" s="7">
+        <v>1</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="J127" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K127" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L127" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M127" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="N127" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="O127" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P127" s="7"/>
+      <c r="Q127" s="7"/>
+      <c r="R127" s="7">
+        <v>0</v>
+      </c>
+      <c r="S127" s="7"/>
+      <c r="T127" s="7"/>
+      <c r="U127" s="7"/>
+      <c r="V127" s="7"/>
+      <c r="W127" s="7"/>
+      <c r="X127" s="7"/>
+      <c r="Y127" s="7"/>
+      <c r="Z127" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA127" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB127" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28">
+      <c r="A128" s="3">
+        <v>126</v>
+      </c>
+      <c r="B128" s="3">
+        <v>2025090555</v>
+      </c>
+      <c r="C128" s="3">
+        <v>1</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L128" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M128" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="N128" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="O128" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="3"/>
+      <c r="R128" s="3">
+        <v>0</v>
+      </c>
+      <c r="S128" s="3"/>
+      <c r="T128" s="3"/>
+      <c r="U128" s="3"/>
+      <c r="V128" s="3"/>
+      <c r="W128" s="3"/>
+      <c r="X128" s="3"/>
+      <c r="Y128" s="3"/>
+      <c r="Z128" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA128" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB128" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28">
+      <c r="A129" s="7">
+        <v>127</v>
+      </c>
+      <c r="B129" s="7">
+        <v>2025090857</v>
+      </c>
+      <c r="C129" s="7">
+        <v>1</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="J129" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L129" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M129" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="N129" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="O129" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P129" s="7"/>
+      <c r="Q129" s="7"/>
+      <c r="R129" s="7">
+        <v>0</v>
+      </c>
+      <c r="S129" s="7"/>
+      <c r="T129" s="7"/>
+      <c r="U129" s="7"/>
+      <c r="V129" s="7"/>
+      <c r="W129" s="7"/>
+      <c r="X129" s="7"/>
+      <c r="Y129" s="7"/>
+      <c r="Z129" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA129" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB129" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28">
+      <c r="A130" s="3">
+        <v>128</v>
+      </c>
+      <c r="B130" s="3">
+        <v>2025090805</v>
+      </c>
+      <c r="C130" s="3">
+        <v>1</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M130" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="N130" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="O130" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P130" s="3"/>
+      <c r="Q130" s="3"/>
+      <c r="R130" s="3">
+        <v>0</v>
+      </c>
+      <c r="S130" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T130" s="3"/>
+      <c r="U130" s="3"/>
+      <c r="V130" s="3"/>
+      <c r="W130" s="3"/>
+      <c r="X130" s="3"/>
+      <c r="Y130" s="3"/>
+      <c r="Z130" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA130" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB130" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28">
+      <c r="A131" s="7">
+        <v>129</v>
+      </c>
+      <c r="B131" s="7">
+        <v>2025091105</v>
+      </c>
+      <c r="C131" s="7">
+        <v>1</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="J131" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K131" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L131" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M131" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="N131" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="O131" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P131" s="7"/>
+      <c r="Q131" s="7"/>
+      <c r="R131" s="7">
+        <v>0</v>
+      </c>
+      <c r="S131" s="7"/>
+      <c r="T131" s="7"/>
+      <c r="U131" s="7"/>
+      <c r="V131" s="7"/>
+      <c r="W131" s="7"/>
+      <c r="X131" s="7"/>
+      <c r="Y131" s="7"/>
+      <c r="Z131" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA131" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB131" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28">
+      <c r="A132" s="3">
+        <v>130</v>
+      </c>
+      <c r="B132" s="3">
+        <v>2025091130</v>
+      </c>
+      <c r="C132" s="3">
+        <v>1</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L132" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M132" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N132" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O132" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P132" s="3"/>
+      <c r="Q132" s="3"/>
+      <c r="R132" s="3">
+        <v>0</v>
+      </c>
+      <c r="S132" s="3"/>
+      <c r="T132" s="3"/>
+      <c r="U132" s="3"/>
+      <c r="V132" s="3"/>
+      <c r="W132" s="3"/>
+      <c r="X132" s="3"/>
+      <c r="Y132" s="3"/>
+      <c r="Z132" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA132" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB132" s="3"/>
+    </row>
+    <row r="133" spans="1:28">
+      <c r="A133" s="7">
+        <v>131</v>
+      </c>
+      <c r="B133" s="7">
+        <v>2025090814</v>
+      </c>
+      <c r="C133" s="7">
+        <v>1</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="J133" s="7"/>
+      <c r="K133" s="7"/>
+      <c r="L133" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M133" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="N133" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="O133" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P133" s="7"/>
+      <c r="Q133" s="7"/>
+      <c r="R133" s="7">
+        <v>0</v>
+      </c>
+      <c r="S133" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T133" s="7"/>
+      <c r="U133" s="7"/>
+      <c r="V133" s="7"/>
+      <c r="W133" s="7"/>
+      <c r="X133" s="7"/>
+      <c r="Y133" s="7"/>
+      <c r="Z133" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA133" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB133" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28">
+      <c r="A134" s="3">
+        <v>132</v>
+      </c>
+      <c r="B134" s="3">
+        <v>2025090963</v>
+      </c>
+      <c r="C134" s="3">
+        <v>1</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L134" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M134" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="N134" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="O134" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P134" s="3"/>
+      <c r="Q134" s="3"/>
+      <c r="R134" s="3">
+        <v>0</v>
+      </c>
+      <c r="S134" s="3"/>
+      <c r="T134" s="3"/>
+      <c r="U134" s="3"/>
+      <c r="V134" s="3"/>
+      <c r="W134" s="3"/>
+      <c r="X134" s="3"/>
+      <c r="Y134" s="3"/>
+      <c r="Z134" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="AA134" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB134" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28">
+      <c r="A135" s="7">
+        <v>133</v>
+      </c>
+      <c r="B135" s="7">
+        <v>2025090797</v>
+      </c>
+      <c r="C135" s="7">
+        <v>1</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="J135" s="7"/>
+      <c r="K135" s="7"/>
+      <c r="L135" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M135" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="N135" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="O135" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P135" s="7"/>
+      <c r="Q135" s="7"/>
+      <c r="R135" s="7">
+        <v>0</v>
+      </c>
+      <c r="S135" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T135" s="7"/>
+      <c r="U135" s="7"/>
+      <c r="V135" s="7"/>
+      <c r="W135" s="7"/>
+      <c r="X135" s="7"/>
+      <c r="Y135" s="7"/>
+      <c r="Z135" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA135" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB135" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28">
+      <c r="A136" s="9"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="10"/>
+      <c r="M136" s="10"/>
+      <c r="N136" s="10"/>
+      <c r="O136" s="9"/>
+      <c r="P136" s="9"/>
+      <c r="Q136" s="9"/>
+      <c r="R136" s="9"/>
+      <c r="S136" s="9"/>
+      <c r="T136" s="9"/>
+      <c r="U136" s="9"/>
+      <c r="V136" s="9"/>
+      <c r="W136" s="9"/>
+      <c r="X136" s="9"/>
+      <c r="Y136" s="9"/>
+      <c r="Z136" s="10"/>
+      <c r="AA136" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB136" s="9">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202509_Service_Count_Report.xlsx
+++ b/IM/202509_Service_Count_Report.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$257</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$258</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -2688,10 +2688,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB257"/>
+  <dimension ref="A1:AB258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A257" sqref="A257"/>
+      <selection activeCell="A258" sqref="A258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15461,7 +15461,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="7">
-        <v>2025092052</v>
+        <v>2025092342</v>
       </c>
       <c r="C189" s="7">
         <v>1</v>
@@ -15473,19 +15473,19 @@
         <v>324</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>359</v>
+        <v>43</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>514</v>
+        <v>241</v>
       </c>
       <c r="I189" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="J189" s="7" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="K189" s="7" t="s">
         <v>36</v>
@@ -15497,15 +15497,15 @@
         <v>511</v>
       </c>
       <c r="N189" s="8" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="O189" s="7" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="P189" s="7"/>
       <c r="Q189" s="7"/>
       <c r="R189" s="7">
-        <v>58407</v>
+        <v>299068</v>
       </c>
       <c r="S189" s="7"/>
       <c r="T189" s="7"/>
@@ -15513,9 +15513,11 @@
       <c r="V189" s="7"/>
       <c r="W189" s="7"/>
       <c r="X189" s="7"/>
-      <c r="Y189" s="7"/>
+      <c r="Y189" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="Z189" s="8" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="AA189" s="7" t="s">
         <v>40</v>
@@ -15529,7 +15531,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="3">
-        <v>2025092307</v>
+        <v>2025092052</v>
       </c>
       <c r="C190" s="3">
         <v>1</v>
@@ -15541,13 +15543,13 @@
         <v>324</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>276</v>
+        <v>359</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>133</v>
+        <v>514</v>
       </c>
       <c r="I190" s="3" t="s">
         <v>515</v>
@@ -15568,12 +15570,12 @@
         <v>517</v>
       </c>
       <c r="O190" s="3" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="P190" s="3"/>
       <c r="Q190" s="3"/>
       <c r="R190" s="3">
-        <v>2041</v>
+        <v>58407</v>
       </c>
       <c r="S190" s="3"/>
       <c r="T190" s="3"/>
@@ -15581,11 +15583,9 @@
       <c r="V190" s="3"/>
       <c r="W190" s="3"/>
       <c r="X190" s="3"/>
-      <c r="Y190" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="Y190" s="3"/>
       <c r="Z190" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AA190" s="3" t="s">
         <v>40</v>
@@ -15599,7 +15599,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="7">
-        <v>2025092053</v>
+        <v>2025092307</v>
       </c>
       <c r="C191" s="7">
         <v>1</v>
@@ -15611,16 +15611,16 @@
         <v>324</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>520</v>
+        <v>276</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>521</v>
+        <v>133</v>
       </c>
       <c r="I191" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="J191" s="7" t="s">
         <v>516</v>
@@ -15635,15 +15635,15 @@
         <v>511</v>
       </c>
       <c r="N191" s="8" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="O191" s="7" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="P191" s="7"/>
       <c r="Q191" s="7"/>
       <c r="R191" s="7">
-        <v>4722</v>
+        <v>2041</v>
       </c>
       <c r="S191" s="7"/>
       <c r="T191" s="7"/>
@@ -15651,9 +15651,11 @@
       <c r="V191" s="7"/>
       <c r="W191" s="7"/>
       <c r="X191" s="7"/>
-      <c r="Y191" s="7"/>
+      <c r="Y191" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="Z191" s="8" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AA191" s="7" t="s">
         <v>40</v>
@@ -15667,7 +15669,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="3">
-        <v>2025092308</v>
+        <v>2025092053</v>
       </c>
       <c r="C192" s="3">
         <v>1</v>
@@ -15679,13 +15681,13 @@
         <v>324</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>133</v>
+        <v>520</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>211</v>
+        <v>521</v>
       </c>
       <c r="I192" s="3" t="s">
         <v>522</v>
@@ -15706,12 +15708,12 @@
         <v>523</v>
       </c>
       <c r="O192" s="3" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="P192" s="3"/>
       <c r="Q192" s="3"/>
       <c r="R192" s="3">
-        <v>23991</v>
+        <v>4722</v>
       </c>
       <c r="S192" s="3"/>
       <c r="T192" s="3"/>
@@ -15719,11 +15721,9 @@
       <c r="V192" s="3"/>
       <c r="W192" s="3"/>
       <c r="X192" s="3"/>
-      <c r="Y192" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="Y192" s="3"/>
       <c r="Z192" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AA192" s="3" t="s">
         <v>40</v>
@@ -15737,7 +15737,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="7">
-        <v>2025090337</v>
+        <v>2025092308</v>
       </c>
       <c r="C193" s="7">
         <v>1</v>
@@ -15749,16 +15749,16 @@
         <v>324</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>342</v>
+        <v>133</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>96</v>
+        <v>211</v>
       </c>
       <c r="I193" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="J193" s="7" t="s">
         <v>516</v>
@@ -15767,13 +15767,13 @@
         <v>36</v>
       </c>
       <c r="L193" s="8" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="M193" s="8" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="N193" s="8" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="O193" s="7" t="s">
         <v>39</v>
@@ -15781,29 +15781,33 @@
       <c r="P193" s="7"/>
       <c r="Q193" s="7"/>
       <c r="R193" s="7">
-        <v>48945</v>
-      </c>
-      <c r="S193" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>23991</v>
+      </c>
+      <c r="S193" s="7"/>
       <c r="T193" s="7"/>
       <c r="U193" s="7"/>
       <c r="V193" s="7"/>
       <c r="W193" s="7"/>
       <c r="X193" s="7"/>
-      <c r="Y193" s="7"/>
+      <c r="Y193" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="Z193" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="AA193" s="7"/>
-      <c r="AB193" s="7"/>
+        <v>525</v>
+      </c>
+      <c r="AA193" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB193" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="194" spans="1:28">
       <c r="A194" s="3">
         <v>192</v>
       </c>
       <c r="B194" s="3">
-        <v>2025090338</v>
+        <v>2025090337</v>
       </c>
       <c r="C194" s="3">
         <v>1</v>
@@ -15842,14 +15846,16 @@
         <v>528</v>
       </c>
       <c r="O194" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P194" s="3"/>
       <c r="Q194" s="3"/>
       <c r="R194" s="3">
         <v>48945</v>
       </c>
-      <c r="S194" s="3"/>
+      <c r="S194" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T194" s="3"/>
       <c r="U194" s="3"/>
       <c r="V194" s="3"/>
@@ -15859,9 +15865,7 @@
       <c r="Z194" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="AA194" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="AA194" s="3"/>
       <c r="AB194" s="3"/>
     </row>
     <row r="195" spans="1:28">
@@ -15869,7 +15873,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="7">
-        <v>2025090603</v>
+        <v>2025090338</v>
       </c>
       <c r="C195" s="7">
         <v>1</v>
@@ -15881,16 +15885,16 @@
         <v>324</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H195" s="7" t="s">
-        <v>342</v>
+        <v>96</v>
       </c>
       <c r="I195" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="J195" s="7" t="s">
         <v>516</v>
@@ -15899,25 +15903,23 @@
         <v>36</v>
       </c>
       <c r="L195" s="8" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="M195" s="8" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="N195" s="8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="O195" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P195" s="7"/>
       <c r="Q195" s="7"/>
       <c r="R195" s="7">
-        <v>13789</v>
-      </c>
-      <c r="S195" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>48945</v>
+      </c>
+      <c r="S195" s="7"/>
       <c r="T195" s="7"/>
       <c r="U195" s="7"/>
       <c r="V195" s="7"/>
@@ -15927,7 +15929,9 @@
       <c r="Z195" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="AA195" s="7"/>
+      <c r="AA195" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="AB195" s="7"/>
     </row>
     <row r="196" spans="1:28">
@@ -15994,14 +15998,16 @@
       <c r="AA196" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB196" s="3"/>
+      <c r="AB196" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="197" spans="1:28">
       <c r="A197" s="7">
         <v>195</v>
       </c>
       <c r="B197" s="7">
-        <v>2025092285</v>
+        <v>2025090603</v>
       </c>
       <c r="C197" s="7">
         <v>1</v>
@@ -16013,41 +16019,39 @@
         <v>324</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="G197" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H197" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="H197" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="I197" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J197" s="7" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="K197" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L197" s="8" t="s">
-        <v>533</v>
+        <v>423</v>
       </c>
       <c r="M197" s="8" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="N197" s="8" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="O197" s="7" t="s">
         <v>39</v>
       </c>
       <c r="P197" s="7"/>
-      <c r="Q197" s="7">
-        <v>2480</v>
-      </c>
+      <c r="Q197" s="7"/>
       <c r="R197" s="7">
-        <v>172711</v>
+        <v>13789</v>
       </c>
       <c r="S197" s="7" t="s">
         <v>40</v>
@@ -16069,7 +16073,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="3">
-        <v>2025092286</v>
+        <v>2025092285</v>
       </c>
       <c r="C198" s="3">
         <v>1</v>
@@ -16108,7 +16112,7 @@
         <v>535</v>
       </c>
       <c r="O198" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P198" s="3"/>
       <c r="Q198" s="3">
@@ -16117,7 +16121,9 @@
       <c r="R198" s="3">
         <v>172711</v>
       </c>
-      <c r="S198" s="3"/>
+      <c r="S198" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T198" s="3"/>
       <c r="U198" s="3"/>
       <c r="V198" s="3"/>
@@ -16127,9 +16133,7 @@
       <c r="Z198" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="AA198" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="AA198" s="3"/>
       <c r="AB198" s="3"/>
     </row>
     <row r="199" spans="1:28">
@@ -16137,7 +16141,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="7">
-        <v>2025092287</v>
+        <v>2025092286</v>
       </c>
       <c r="C199" s="7">
         <v>1</v>
@@ -16152,13 +16156,13 @@
         <v>224</v>
       </c>
       <c r="G199" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H199" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H199" s="7" t="s">
-        <v>276</v>
-      </c>
       <c r="I199" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="J199" s="7" t="s">
         <v>532</v>
@@ -16173,21 +16177,19 @@
         <v>534</v>
       </c>
       <c r="N199" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="O199" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P199" s="7"/>
       <c r="Q199" s="7">
-        <v>8498</v>
+        <v>2480</v>
       </c>
       <c r="R199" s="7">
-        <v>295833</v>
-      </c>
-      <c r="S199" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>172711</v>
+      </c>
+      <c r="S199" s="7"/>
       <c r="T199" s="7"/>
       <c r="U199" s="7"/>
       <c r="V199" s="7"/>
@@ -16197,7 +16199,9 @@
       <c r="Z199" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="AA199" s="7"/>
+      <c r="AA199" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="AB199" s="7"/>
     </row>
     <row r="200" spans="1:28">
@@ -16205,7 +16209,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="3">
-        <v>2025092288</v>
+        <v>2025092287</v>
       </c>
       <c r="C200" s="3">
         <v>1</v>
@@ -16244,7 +16248,7 @@
         <v>537</v>
       </c>
       <c r="O200" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P200" s="3"/>
       <c r="Q200" s="3">
@@ -16253,7 +16257,9 @@
       <c r="R200" s="3">
         <v>295833</v>
       </c>
-      <c r="S200" s="3"/>
+      <c r="S200" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T200" s="3"/>
       <c r="U200" s="3"/>
       <c r="V200" s="3"/>
@@ -16263,9 +16269,7 @@
       <c r="Z200" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="AA200" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="AA200" s="3"/>
       <c r="AB200" s="3"/>
     </row>
     <row r="201" spans="1:28">
@@ -16273,7 +16277,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="7">
-        <v>2025090728</v>
+        <v>2025092288</v>
       </c>
       <c r="C201" s="7">
         <v>1</v>
@@ -16285,7 +16289,7 @@
         <v>324</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
       <c r="G201" s="7" t="s">
         <v>96</v>
@@ -16294,34 +16298,34 @@
         <v>276</v>
       </c>
       <c r="I201" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J201" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="K201" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L201" s="8" t="s">
-        <v>395</v>
+        <v>533</v>
       </c>
       <c r="M201" s="8" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="N201" s="8" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="O201" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P201" s="7"/>
-      <c r="Q201" s="7"/>
+      <c r="Q201" s="7">
+        <v>8498</v>
+      </c>
       <c r="R201" s="7">
-        <v>25836</v>
-      </c>
-      <c r="S201" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>295833</v>
+      </c>
+      <c r="S201" s="7"/>
       <c r="T201" s="7"/>
       <c r="U201" s="7"/>
       <c r="V201" s="7"/>
@@ -16334,16 +16338,14 @@
       <c r="AA201" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB201" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB201" s="7"/>
     </row>
     <row r="202" spans="1:28">
       <c r="A202" s="3">
         <v>200</v>
       </c>
       <c r="B202" s="3">
-        <v>2025090729</v>
+        <v>2025090728</v>
       </c>
       <c r="C202" s="3">
         <v>1</v>
@@ -16382,14 +16384,16 @@
         <v>541</v>
       </c>
       <c r="O202" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P202" s="3"/>
       <c r="Q202" s="3"/>
       <c r="R202" s="3">
         <v>25836</v>
       </c>
-      <c r="S202" s="3"/>
+      <c r="S202" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T202" s="3"/>
       <c r="U202" s="3"/>
       <c r="V202" s="3"/>
@@ -16402,14 +16406,16 @@
       <c r="AA202" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB202" s="3"/>
+      <c r="AB202" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="203" spans="1:28">
       <c r="A203" s="7">
         <v>201</v>
       </c>
       <c r="B203" s="7">
-        <v>2025091591</v>
+        <v>2025090729</v>
       </c>
       <c r="C203" s="7">
         <v>1</v>
@@ -16421,39 +16427,41 @@
         <v>324</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="H203" s="7" t="s">
-        <v>133</v>
+        <v>276</v>
       </c>
       <c r="I203" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="J203" s="7"/>
-      <c r="K203" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="J203" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="K203" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L203" s="8" t="s">
-        <v>163</v>
+        <v>395</v>
       </c>
       <c r="M203" s="8" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="N203" s="8" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="O203" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P203" s="7"/>
       <c r="Q203" s="7"/>
       <c r="R203" s="7">
-        <v>0</v>
-      </c>
-      <c r="S203" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>25836</v>
+      </c>
+      <c r="S203" s="7"/>
       <c r="T203" s="7"/>
       <c r="U203" s="7"/>
       <c r="V203" s="7"/>
@@ -16461,21 +16469,19 @@
       <c r="X203" s="7"/>
       <c r="Y203" s="7"/>
       <c r="Z203" s="8" t="s">
-        <v>184</v>
+        <v>334</v>
       </c>
       <c r="AA203" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB203" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB203" s="7"/>
     </row>
     <row r="204" spans="1:28">
       <c r="A204" s="3">
         <v>202</v>
       </c>
       <c r="B204" s="3">
-        <v>2025091107</v>
+        <v>2025091591</v>
       </c>
       <c r="C204" s="3">
         <v>1</v>
@@ -16487,41 +16493,39 @@
         <v>324</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>210</v>
+        <v>49</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>545</v>
+        <v>33</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>267</v>
+        <v>133</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="J204" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K204" s="3" t="s">
-        <v>162</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="J204" s="3"/>
+      <c r="K204" s="3"/>
       <c r="L204" s="6" t="s">
         <v>163</v>
       </c>
       <c r="M204" s="6" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="N204" s="6" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="O204" s="3" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="P204" s="3"/>
       <c r="Q204" s="3"/>
       <c r="R204" s="3">
         <v>0</v>
       </c>
-      <c r="S204" s="3"/>
+      <c r="S204" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T204" s="3"/>
       <c r="U204" s="3"/>
       <c r="V204" s="3"/>
@@ -16529,7 +16533,7 @@
       <c r="X204" s="3"/>
       <c r="Y204" s="3"/>
       <c r="Z204" s="6" t="s">
-        <v>549</v>
+        <v>184</v>
       </c>
       <c r="AA204" s="3" t="s">
         <v>40</v>
@@ -16546,7 +16550,7 @@
         <v>2025091107</v>
       </c>
       <c r="C205" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D205" s="7" t="s">
         <v>29</v>
@@ -16555,13 +16559,13 @@
         <v>324</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>49</v>
+        <v>210</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>96</v>
+        <v>545</v>
       </c>
       <c r="H205" s="7" t="s">
-        <v>550</v>
+        <v>267</v>
       </c>
       <c r="I205" s="7" t="s">
         <v>546</v>
@@ -16597,7 +16601,7 @@
       <c r="X205" s="7"/>
       <c r="Y205" s="7"/>
       <c r="Z205" s="8" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AA205" s="7" t="s">
         <v>40</v>
@@ -16611,10 +16615,10 @@
         <v>204</v>
       </c>
       <c r="B206" s="3">
-        <v>2025091585</v>
+        <v>2025091107</v>
       </c>
       <c r="C206" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>29</v>
@@ -16626,16 +16630,20 @@
         <v>49</v>
       </c>
       <c r="G206" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H206" s="3" t="s">
         <v>550</v>
-      </c>
-      <c r="H206" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="I206" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="J206" s="3"/>
-      <c r="K206" s="3"/>
+      <c r="J206" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K206" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="L206" s="6" t="s">
         <v>163</v>
       </c>
@@ -16646,16 +16654,14 @@
         <v>548</v>
       </c>
       <c r="O206" s="3" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="P206" s="3"/>
       <c r="Q206" s="3"/>
       <c r="R206" s="3">
         <v>0</v>
       </c>
-      <c r="S206" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S206" s="3"/>
       <c r="T206" s="3"/>
       <c r="U206" s="3"/>
       <c r="V206" s="3"/>
@@ -16663,19 +16669,21 @@
       <c r="X206" s="3"/>
       <c r="Y206" s="3"/>
       <c r="Z206" s="6" t="s">
-        <v>184</v>
+        <v>551</v>
       </c>
       <c r="AA206" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB206" s="3"/>
+      <c r="AB206" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="207" spans="1:28">
       <c r="A207" s="7">
         <v>205</v>
       </c>
       <c r="B207" s="7">
-        <v>2025091610</v>
+        <v>2025091585</v>
       </c>
       <c r="C207" s="7">
         <v>1</v>
@@ -16690,20 +16698,16 @@
         <v>49</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="I207" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="J207" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K207" s="7" t="s">
-        <v>162</v>
-      </c>
+      <c r="J207" s="7"/>
+      <c r="K207" s="7"/>
       <c r="L207" s="8" t="s">
         <v>163</v>
       </c>
@@ -16714,14 +16718,16 @@
         <v>548</v>
       </c>
       <c r="O207" s="7" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="P207" s="7"/>
       <c r="Q207" s="7"/>
       <c r="R207" s="7">
-        <v>9</v>
-      </c>
-      <c r="S207" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S207" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T207" s="7"/>
       <c r="U207" s="7"/>
       <c r="V207" s="7"/>
@@ -16729,21 +16735,19 @@
       <c r="X207" s="7"/>
       <c r="Y207" s="7"/>
       <c r="Z207" s="8" t="s">
-        <v>553</v>
+        <v>184</v>
       </c>
       <c r="AA207" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB207" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB207" s="7"/>
     </row>
     <row r="208" spans="1:28">
       <c r="A208" s="3">
         <v>206</v>
       </c>
       <c r="B208" s="3">
-        <v>2025091593</v>
+        <v>2025091610</v>
       </c>
       <c r="C208" s="3">
         <v>1</v>
@@ -16758,13 +16762,13 @@
         <v>49</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>168</v>
+        <v>552</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>197</v>
+        <v>91</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="J208" s="3" t="s">
         <v>161</v>
@@ -16776,10 +16780,10 @@
         <v>163</v>
       </c>
       <c r="M208" s="6" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="N208" s="6" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="O208" s="3" t="s">
         <v>156</v>
@@ -16787,7 +16791,7 @@
       <c r="P208" s="3"/>
       <c r="Q208" s="3"/>
       <c r="R208" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S208" s="3"/>
       <c r="T208" s="3"/>
@@ -16797,7 +16801,7 @@
       <c r="X208" s="3"/>
       <c r="Y208" s="3"/>
       <c r="Z208" s="6" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AA208" s="3" t="s">
         <v>40</v>
@@ -16811,7 +16815,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="7">
-        <v>2025090198</v>
+        <v>2025091593</v>
       </c>
       <c r="C209" s="7">
         <v>1</v>
@@ -16823,39 +16827,41 @@
         <v>324</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>190</v>
+        <v>49</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="H209" s="7" t="s">
-        <v>381</v>
+        <v>197</v>
       </c>
       <c r="I209" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="J209" s="7"/>
-      <c r="K209" s="7"/>
+        <v>554</v>
+      </c>
+      <c r="J209" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K209" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="L209" s="8" t="s">
         <v>163</v>
       </c>
       <c r="M209" s="8" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="N209" s="8" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="O209" s="7" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="P209" s="7"/>
       <c r="Q209" s="7"/>
       <c r="R209" s="7">
         <v>0</v>
       </c>
-      <c r="S209" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S209" s="7"/>
       <c r="T209" s="7"/>
       <c r="U209" s="7"/>
       <c r="V209" s="7"/>
@@ -16863,7 +16869,7 @@
       <c r="X209" s="7"/>
       <c r="Y209" s="7"/>
       <c r="Z209" s="8" t="s">
-        <v>184</v>
+        <v>557</v>
       </c>
       <c r="AA209" s="7" t="s">
         <v>40</v>
@@ -16877,7 +16883,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="3">
-        <v>2025092032</v>
+        <v>2025090198</v>
       </c>
       <c r="C210" s="3">
         <v>1</v>
@@ -16889,16 +16895,16 @@
         <v>324</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>241</v>
+        <v>381</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
@@ -16906,10 +16912,10 @@
         <v>163</v>
       </c>
       <c r="M210" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="N210" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="O210" s="3" t="s">
         <v>39</v>
@@ -16919,17 +16925,17 @@
       <c r="R210" s="3">
         <v>0</v>
       </c>
-      <c r="S210" s="3"/>
-      <c r="T210" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S210" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T210" s="3"/>
       <c r="U210" s="3"/>
       <c r="V210" s="3"/>
       <c r="W210" s="3"/>
       <c r="X210" s="3"/>
       <c r="Y210" s="3"/>
       <c r="Z210" s="6" t="s">
-        <v>564</v>
+        <v>184</v>
       </c>
       <c r="AA210" s="3" t="s">
         <v>40</v>
@@ -16943,7 +16949,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="7">
-        <v>2025092284</v>
+        <v>2025092032</v>
       </c>
       <c r="C211" s="7">
         <v>1</v>
@@ -16955,13 +16961,13 @@
         <v>324</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="H211" s="7" t="s">
-        <v>124</v>
+        <v>241</v>
       </c>
       <c r="I211" s="7" t="s">
         <v>561</v>
@@ -16985,17 +16991,17 @@
       <c r="R211" s="7">
         <v>0</v>
       </c>
-      <c r="S211" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="T211" s="7"/>
+      <c r="S211" s="7"/>
+      <c r="T211" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="U211" s="7"/>
       <c r="V211" s="7"/>
       <c r="W211" s="7"/>
       <c r="X211" s="7"/>
       <c r="Y211" s="7"/>
       <c r="Z211" s="8" t="s">
-        <v>184</v>
+        <v>564</v>
       </c>
       <c r="AA211" s="7" t="s">
         <v>40</v>
@@ -17009,7 +17015,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="3">
-        <v>2025090719</v>
+        <v>2025092284</v>
       </c>
       <c r="C212" s="3">
         <v>1</v>
@@ -17021,41 +17027,39 @@
         <v>324</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>381</v>
+        <v>33</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>565</v>
+        <v>124</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="J212" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="K212" s="3" t="s">
-        <v>162</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="J212" s="3"/>
+      <c r="K212" s="3"/>
       <c r="L212" s="6" t="s">
         <v>163</v>
       </c>
       <c r="M212" s="6" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="N212" s="6" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="O212" s="3" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="P212" s="3"/>
       <c r="Q212" s="3"/>
       <c r="R212" s="3">
         <v>0</v>
       </c>
-      <c r="S212" s="3"/>
+      <c r="S212" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T212" s="3"/>
       <c r="U212" s="3"/>
       <c r="V212" s="3"/>
@@ -17063,7 +17067,7 @@
       <c r="X212" s="3"/>
       <c r="Y212" s="3"/>
       <c r="Z212" s="6" t="s">
-        <v>570</v>
+        <v>184</v>
       </c>
       <c r="AA212" s="3" t="s">
         <v>40</v>
@@ -17077,7 +17081,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="7">
-        <v>2025091568</v>
+        <v>2025090719</v>
       </c>
       <c r="C213" s="7">
         <v>1</v>
@@ -17089,19 +17093,19 @@
         <v>324</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>211</v>
+        <v>381</v>
       </c>
       <c r="H213" s="7" t="s">
-        <v>76</v>
+        <v>565</v>
       </c>
       <c r="I213" s="7" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="J213" s="7" t="s">
-        <v>161</v>
+        <v>567</v>
       </c>
       <c r="K213" s="7" t="s">
         <v>162</v>
@@ -17110,10 +17114,10 @@
         <v>163</v>
       </c>
       <c r="M213" s="8" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="N213" s="8" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="O213" s="7" t="s">
         <v>156</v>
@@ -17131,7 +17135,7 @@
       <c r="X213" s="7"/>
       <c r="Y213" s="7"/>
       <c r="Z213" s="8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="AA213" s="7" t="s">
         <v>40</v>
@@ -17145,7 +17149,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="3">
-        <v>2025091070</v>
+        <v>2025091568</v>
       </c>
       <c r="C214" s="3">
         <v>1</v>
@@ -17157,49 +17161,49 @@
         <v>324</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>275</v>
+        <v>49</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>96</v>
+        <v>211</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="J214" s="3"/>
-      <c r="K214" s="3"/>
+        <v>571</v>
+      </c>
+      <c r="J214" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K214" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="L214" s="6" t="s">
         <v>163</v>
       </c>
       <c r="M214" s="6" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="N214" s="6" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="O214" s="3" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="P214" s="3"/>
       <c r="Q214" s="3"/>
       <c r="R214" s="3">
         <v>0</v>
       </c>
-      <c r="S214" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S214" s="3"/>
       <c r="T214" s="3"/>
       <c r="U214" s="3"/>
       <c r="V214" s="3"/>
       <c r="W214" s="3"/>
       <c r="X214" s="3"/>
-      <c r="Y214" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="Y214" s="3"/>
       <c r="Z214" s="6" t="s">
-        <v>254</v>
+        <v>574</v>
       </c>
       <c r="AA214" s="3" t="s">
         <v>40</v>
@@ -17213,7 +17217,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="7">
-        <v>2025092221</v>
+        <v>2025091070</v>
       </c>
       <c r="C215" s="7">
         <v>1</v>
@@ -17225,23 +17229,19 @@
         <v>324</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>578</v>
+        <v>96</v>
       </c>
       <c r="H215" s="7" t="s">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="I215" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="J215" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K215" s="7" t="s">
-        <v>162</v>
-      </c>
+      <c r="J215" s="7"/>
+      <c r="K215" s="7"/>
       <c r="L215" s="8" t="s">
         <v>163</v>
       </c>
@@ -17252,22 +17252,26 @@
         <v>577</v>
       </c>
       <c r="O215" s="7" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="P215" s="7"/>
       <c r="Q215" s="7"/>
       <c r="R215" s="7">
         <v>0</v>
       </c>
-      <c r="S215" s="7"/>
+      <c r="S215" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T215" s="7"/>
       <c r="U215" s="7"/>
       <c r="V215" s="7"/>
       <c r="W215" s="7"/>
       <c r="X215" s="7"/>
-      <c r="Y215" s="7"/>
+      <c r="Y215" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="Z215" s="8" t="s">
-        <v>579</v>
+        <v>254</v>
       </c>
       <c r="AA215" s="7" t="s">
         <v>40</v>
@@ -17281,7 +17285,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="3">
-        <v>2025090208</v>
+        <v>2025092221</v>
       </c>
       <c r="C216" s="3">
         <v>1</v>
@@ -17293,39 +17297,41 @@
         <v>324</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>197</v>
+        <v>578</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>226</v>
+        <v>43</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="J216" s="3"/>
-      <c r="K216" s="3"/>
+        <v>575</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K216" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="L216" s="6" t="s">
         <v>163</v>
       </c>
       <c r="M216" s="6" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="N216" s="6" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="O216" s="3" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="P216" s="3"/>
       <c r="Q216" s="3"/>
       <c r="R216" s="3">
         <v>0</v>
       </c>
-      <c r="S216" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S216" s="3"/>
       <c r="T216" s="3"/>
       <c r="U216" s="3"/>
       <c r="V216" s="3"/>
@@ -17333,7 +17339,7 @@
       <c r="X216" s="3"/>
       <c r="Y216" s="3"/>
       <c r="Z216" s="6" t="s">
-        <v>184</v>
+        <v>579</v>
       </c>
       <c r="AA216" s="3" t="s">
         <v>40</v>
@@ -17347,7 +17353,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="7">
-        <v>2025091095</v>
+        <v>2025090208</v>
       </c>
       <c r="C217" s="7">
         <v>1</v>
@@ -17359,16 +17365,16 @@
         <v>324</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="H217" s="7" t="s">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="I217" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="J217" s="7"/>
       <c r="K217" s="7"/>
@@ -17376,10 +17382,10 @@
         <v>163</v>
       </c>
       <c r="M217" s="8" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="N217" s="8" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="O217" s="7" t="s">
         <v>39</v>
@@ -17413,7 +17419,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="3">
-        <v>2025091249</v>
+        <v>2025091095</v>
       </c>
       <c r="C218" s="3">
         <v>1</v>
@@ -17425,23 +17431,19 @@
         <v>324</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>50</v>
+        <v>211</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I218" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="J218" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K218" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="J218" s="3"/>
+      <c r="K218" s="3"/>
       <c r="L218" s="6" t="s">
         <v>163</v>
       </c>
@@ -17452,14 +17454,16 @@
         <v>585</v>
       </c>
       <c r="O218" s="3" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="P218" s="3"/>
       <c r="Q218" s="3"/>
       <c r="R218" s="3">
         <v>0</v>
       </c>
-      <c r="S218" s="3"/>
+      <c r="S218" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T218" s="3"/>
       <c r="U218" s="3"/>
       <c r="V218" s="3"/>
@@ -17467,7 +17471,7 @@
       <c r="X218" s="3"/>
       <c r="Y218" s="3"/>
       <c r="Z218" s="6" t="s">
-        <v>586</v>
+        <v>184</v>
       </c>
       <c r="AA218" s="3" t="s">
         <v>40</v>
@@ -17481,7 +17485,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="7">
-        <v>2025091251</v>
+        <v>2025091249</v>
       </c>
       <c r="C219" s="7">
         <v>1</v>
@@ -17496,10 +17500,10 @@
         <v>210</v>
       </c>
       <c r="G219" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H219" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="H219" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="I219" s="7" t="s">
         <v>583</v>
@@ -17535,19 +17539,21 @@
       <c r="X219" s="7"/>
       <c r="Y219" s="7"/>
       <c r="Z219" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AA219" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB219" s="7"/>
+      <c r="AB219" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="220" spans="1:28">
       <c r="A220" s="3">
         <v>218</v>
       </c>
       <c r="B220" s="3">
-        <v>2025091106</v>
+        <v>2025091251</v>
       </c>
       <c r="C220" s="3">
         <v>1</v>
@@ -17559,39 +17565,41 @@
         <v>324</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="J220" s="3"/>
-      <c r="K220" s="3"/>
+        <v>583</v>
+      </c>
+      <c r="J220" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K220" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="L220" s="6" t="s">
         <v>163</v>
       </c>
       <c r="M220" s="6" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="N220" s="6" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="O220" s="3" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="P220" s="3"/>
       <c r="Q220" s="3"/>
       <c r="R220" s="3">
         <v>0</v>
       </c>
-      <c r="S220" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S220" s="3"/>
       <c r="T220" s="3"/>
       <c r="U220" s="3"/>
       <c r="V220" s="3"/>
@@ -17599,21 +17607,19 @@
       <c r="X220" s="3"/>
       <c r="Y220" s="3"/>
       <c r="Z220" s="6" t="s">
-        <v>184</v>
+        <v>587</v>
       </c>
       <c r="AA220" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB220" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB220" s="3"/>
     </row>
     <row r="221" spans="1:28">
       <c r="A221" s="7">
         <v>219</v>
       </c>
       <c r="B221" s="7">
-        <v>2025091113</v>
+        <v>2025091106</v>
       </c>
       <c r="C221" s="7">
         <v>1</v>
@@ -17628,13 +17634,13 @@
         <v>275</v>
       </c>
       <c r="G221" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H221" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H221" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="I221" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="J221" s="7"/>
       <c r="K221" s="7"/>
@@ -17642,10 +17648,10 @@
         <v>163</v>
       </c>
       <c r="M221" s="8" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="N221" s="8" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="O221" s="7" t="s">
         <v>39</v>
@@ -17679,7 +17685,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="3">
-        <v>2025091076</v>
+        <v>2025091113</v>
       </c>
       <c r="C222" s="3">
         <v>1</v>
@@ -17694,13 +17700,13 @@
         <v>275</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>276</v>
+        <v>197</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
@@ -17708,10 +17714,10 @@
         <v>163</v>
       </c>
       <c r="M222" s="6" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="N222" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="O222" s="3" t="s">
         <v>39</v>
@@ -17745,7 +17751,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="7">
-        <v>2025091069</v>
+        <v>2025091076</v>
       </c>
       <c r="C223" s="7">
         <v>1</v>
@@ -17760,13 +17766,13 @@
         <v>275</v>
       </c>
       <c r="G223" s="7" t="s">
-        <v>342</v>
+        <v>276</v>
       </c>
       <c r="H223" s="7" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="I223" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="J223" s="7"/>
       <c r="K223" s="7"/>
@@ -17774,10 +17780,10 @@
         <v>163</v>
       </c>
       <c r="M223" s="8" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="N223" s="8" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="O223" s="7" t="s">
         <v>39</v>
@@ -17811,7 +17817,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="3">
-        <v>2025090314</v>
+        <v>2025091069</v>
       </c>
       <c r="C224" s="3">
         <v>1</v>
@@ -17823,41 +17829,39 @@
         <v>324</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>179</v>
+        <v>275</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>600</v>
+        <v>342</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="I224" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="J224" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K224" s="3" t="s">
-        <v>162</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="J224" s="3"/>
+      <c r="K224" s="3"/>
       <c r="L224" s="6" t="s">
         <v>163</v>
       </c>
       <c r="M224" s="6" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="N224" s="6" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="O224" s="3" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="P224" s="3"/>
       <c r="Q224" s="3"/>
       <c r="R224" s="3">
         <v>0</v>
       </c>
-      <c r="S224" s="3"/>
+      <c r="S224" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T224" s="3"/>
       <c r="U224" s="3"/>
       <c r="V224" s="3"/>
@@ -17865,7 +17869,7 @@
       <c r="X224" s="3"/>
       <c r="Y224" s="3"/>
       <c r="Z224" s="6" t="s">
-        <v>604</v>
+        <v>184</v>
       </c>
       <c r="AA224" s="3" t="s">
         <v>40</v>
@@ -17879,7 +17883,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="7">
-        <v>2025091560</v>
+        <v>2025090314</v>
       </c>
       <c r="C225" s="7">
         <v>1</v>
@@ -17891,10 +17895,10 @@
         <v>324</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="G225" s="7" t="s">
-        <v>197</v>
+        <v>600</v>
       </c>
       <c r="H225" s="7" t="s">
         <v>226</v>
@@ -17933,7 +17937,7 @@
       <c r="X225" s="7"/>
       <c r="Y225" s="7"/>
       <c r="Z225" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA225" s="7" t="s">
         <v>40</v>
@@ -17947,7 +17951,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="3">
-        <v>2025091469</v>
+        <v>2025091560</v>
       </c>
       <c r="C226" s="3">
         <v>1</v>
@@ -17959,16 +17963,16 @@
         <v>324</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>210</v>
+        <v>49</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>381</v>
+        <v>197</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>352</v>
+        <v>226</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="J226" s="3" t="s">
         <v>161</v>
@@ -17980,10 +17984,10 @@
         <v>163</v>
       </c>
       <c r="M226" s="6" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="N226" s="6" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="O226" s="3" t="s">
         <v>156</v>
@@ -18001,7 +18005,7 @@
       <c r="X226" s="3"/>
       <c r="Y226" s="3"/>
       <c r="Z226" s="6" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="AA226" s="3" t="s">
         <v>40</v>
@@ -18015,7 +18019,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="7">
-        <v>2025091603</v>
+        <v>2025091469</v>
       </c>
       <c r="C227" s="7">
         <v>1</v>
@@ -18024,44 +18028,42 @@
         <v>29</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>610</v>
+        <v>324</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>49</v>
+        <v>210</v>
       </c>
       <c r="G227" s="7" t="s">
-        <v>611</v>
+        <v>381</v>
       </c>
       <c r="H227" s="7" t="s">
-        <v>612</v>
+        <v>352</v>
       </c>
       <c r="I227" s="7" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="J227" s="7" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="K227" s="7" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="L227" s="8" t="s">
-        <v>614</v>
+        <v>163</v>
       </c>
       <c r="M227" s="8" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="N227" s="8" t="s">
-        <v>410</v>
+        <v>608</v>
       </c>
       <c r="O227" s="7" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="P227" s="7"/>
-      <c r="Q227" s="7">
-        <v>5401</v>
-      </c>
+      <c r="Q227" s="7"/>
       <c r="R227" s="7">
-        <v>61282</v>
+        <v>0</v>
       </c>
       <c r="S227" s="7"/>
       <c r="T227" s="7"/>
@@ -18070,7 +18072,9 @@
       <c r="W227" s="7"/>
       <c r="X227" s="7"/>
       <c r="Y227" s="7"/>
-      <c r="Z227" s="8"/>
+      <c r="Z227" s="8" t="s">
+        <v>609</v>
+      </c>
       <c r="AA227" s="7" t="s">
         <v>40</v>
       </c>
@@ -18083,7 +18087,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="3">
-        <v>2025091604</v>
+        <v>2025091603</v>
       </c>
       <c r="C228" s="3">
         <v>1</v>
@@ -18098,13 +18102,13 @@
         <v>49</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="J228" s="3" t="s">
         <v>136</v>
@@ -18126,10 +18130,10 @@
       </c>
       <c r="P228" s="3"/>
       <c r="Q228" s="3">
-        <v>7804</v>
+        <v>5401</v>
       </c>
       <c r="R228" s="3">
-        <v>104403</v>
+        <v>61282</v>
       </c>
       <c r="S228" s="3"/>
       <c r="T228" s="3"/>
@@ -18151,7 +18155,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="7">
-        <v>2025092137</v>
+        <v>2025091604</v>
       </c>
       <c r="C229" s="7">
         <v>1</v>
@@ -18163,48 +18167,50 @@
         <v>610</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G229" s="7" t="s">
-        <v>353</v>
+        <v>616</v>
       </c>
       <c r="H229" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I229" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="J229" s="7"/>
-      <c r="K229" s="7"/>
+        <v>618</v>
+      </c>
+      <c r="J229" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K229" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L229" s="8" t="s">
-        <v>163</v>
+        <v>614</v>
       </c>
       <c r="M229" s="8" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="N229" s="8" t="s">
-        <v>622</v>
+        <v>410</v>
       </c>
       <c r="O229" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P229" s="7"/>
-      <c r="Q229" s="7"/>
+      <c r="Q229" s="7">
+        <v>7804</v>
+      </c>
       <c r="R229" s="7">
-        <v>0</v>
-      </c>
-      <c r="S229" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>104403</v>
+      </c>
+      <c r="S229" s="7"/>
       <c r="T229" s="7"/>
       <c r="U229" s="7"/>
       <c r="V229" s="7"/>
       <c r="W229" s="7"/>
       <c r="X229" s="7"/>
       <c r="Y229" s="7"/>
-      <c r="Z229" s="8" t="s">
-        <v>184</v>
-      </c>
+      <c r="Z229" s="8"/>
       <c r="AA229" s="7" t="s">
         <v>40</v>
       </c>
@@ -18217,7 +18223,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="3">
-        <v>2025092118</v>
+        <v>2025092137</v>
       </c>
       <c r="C230" s="3">
         <v>1</v>
@@ -18232,13 +18238,13 @@
         <v>31</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>246</v>
+        <v>353</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
@@ -18246,10 +18252,10 @@
         <v>163</v>
       </c>
       <c r="M230" s="6" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="N230" s="6" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="O230" s="3" t="s">
         <v>39</v>
@@ -18269,7 +18275,7 @@
       <c r="X230" s="3"/>
       <c r="Y230" s="3"/>
       <c r="Z230" s="6" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
       <c r="AA230" s="3" t="s">
         <v>40</v>
@@ -18283,7 +18289,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="7">
-        <v>2025090356</v>
+        <v>2025092118</v>
       </c>
       <c r="C231" s="7">
         <v>1</v>
@@ -18295,41 +18301,39 @@
         <v>610</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="G231" s="7" t="s">
-        <v>627</v>
+        <v>246</v>
       </c>
       <c r="H231" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="I231" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="J231" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K231" s="7" t="s">
-        <v>162</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="J231" s="7"/>
+      <c r="K231" s="7"/>
       <c r="L231" s="8" t="s">
         <v>163</v>
       </c>
       <c r="M231" s="8" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="N231" s="8" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="O231" s="7" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="P231" s="7"/>
       <c r="Q231" s="7"/>
       <c r="R231" s="7">
         <v>0</v>
       </c>
-      <c r="S231" s="7"/>
+      <c r="S231" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T231" s="7"/>
       <c r="U231" s="7"/>
       <c r="V231" s="7"/>
@@ -18337,7 +18341,7 @@
       <c r="X231" s="7"/>
       <c r="Y231" s="7"/>
       <c r="Z231" s="8" t="s">
-        <v>632</v>
+        <v>254</v>
       </c>
       <c r="AA231" s="7" t="s">
         <v>40</v>
@@ -18351,7 +18355,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="3">
-        <v>2025092128</v>
+        <v>2025090356</v>
       </c>
       <c r="C232" s="3">
         <v>1</v>
@@ -18363,19 +18367,23 @@
         <v>610</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>226</v>
+        <v>627</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="I232" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="J232" s="3"/>
-      <c r="K232" s="3"/>
+      <c r="J232" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K232" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="L232" s="6" t="s">
         <v>163</v>
       </c>
@@ -18386,16 +18394,14 @@
         <v>631</v>
       </c>
       <c r="O232" s="3" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="P232" s="3"/>
       <c r="Q232" s="3"/>
       <c r="R232" s="3">
         <v>0</v>
       </c>
-      <c r="S232" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S232" s="3"/>
       <c r="T232" s="3"/>
       <c r="U232" s="3"/>
       <c r="V232" s="3"/>
@@ -18403,7 +18409,7 @@
       <c r="X232" s="3"/>
       <c r="Y232" s="3"/>
       <c r="Z232" s="6" t="s">
-        <v>184</v>
+        <v>632</v>
       </c>
       <c r="AA232" s="3" t="s">
         <v>40</v>
@@ -18417,7 +18423,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="7">
-        <v>2025090785</v>
+        <v>2025092128</v>
       </c>
       <c r="C233" s="7">
         <v>1</v>
@@ -18429,16 +18435,16 @@
         <v>610</v>
       </c>
       <c r="F233" s="7" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="G233" s="7" t="s">
-        <v>634</v>
+        <v>226</v>
       </c>
       <c r="H233" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I233" s="7" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="J233" s="7"/>
       <c r="K233" s="7"/>
@@ -18446,10 +18452,10 @@
         <v>163</v>
       </c>
       <c r="M233" s="8" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="N233" s="8" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="O233" s="7" t="s">
         <v>39</v>
@@ -18483,7 +18489,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="3">
-        <v>2025090801</v>
+        <v>2025090785</v>
       </c>
       <c r="C234" s="3">
         <v>1</v>
@@ -18498,13 +18504,13 @@
         <v>113</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
@@ -18512,10 +18518,10 @@
         <v>163</v>
       </c>
       <c r="M234" s="6" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="N234" s="6" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="O234" s="3" t="s">
         <v>39</v>
@@ -18549,7 +18555,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="7">
-        <v>2025092117</v>
+        <v>2025090801</v>
       </c>
       <c r="C235" s="7">
         <v>1</v>
@@ -18561,16 +18567,16 @@
         <v>610</v>
       </c>
       <c r="F235" s="7" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="G235" s="7" t="s">
-        <v>245</v>
+        <v>639</v>
       </c>
       <c r="H235" s="7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="I235" s="7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="J235" s="7"/>
       <c r="K235" s="7"/>
@@ -18578,10 +18584,10 @@
         <v>163</v>
       </c>
       <c r="M235" s="8" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="N235" s="8" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="O235" s="7" t="s">
         <v>39</v>
@@ -18615,7 +18621,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="3">
-        <v>2025092124</v>
+        <v>2025092117</v>
       </c>
       <c r="C236" s="3">
         <v>1</v>
@@ -18630,13 +18636,13 @@
         <v>31</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>648</v>
+        <v>245</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
@@ -18644,10 +18650,10 @@
         <v>163</v>
       </c>
       <c r="M236" s="6" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="N236" s="6" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="O236" s="3" t="s">
         <v>39</v>
@@ -18681,7 +18687,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="7">
-        <v>2025090382</v>
+        <v>2025092124</v>
       </c>
       <c r="C237" s="7">
         <v>1</v>
@@ -18693,16 +18699,16 @@
         <v>610</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="G237" s="7" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="H237" s="7" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="I237" s="7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="J237" s="7"/>
       <c r="K237" s="7"/>
@@ -18710,10 +18716,10 @@
         <v>163</v>
       </c>
       <c r="M237" s="8" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="N237" s="8" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="O237" s="7" t="s">
         <v>39</v>
@@ -18747,7 +18753,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="3">
-        <v>2025090307</v>
+        <v>2025090382</v>
       </c>
       <c r="C238" s="3">
         <v>1</v>
@@ -18765,17 +18771,13 @@
         <v>653</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>550</v>
+        <v>654</v>
       </c>
       <c r="I238" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="J238" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="K238" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="J238" s="3"/>
+      <c r="K238" s="3"/>
       <c r="L238" s="6" t="s">
         <v>163</v>
       </c>
@@ -18786,14 +18788,16 @@
         <v>657</v>
       </c>
       <c r="O238" s="3" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="P238" s="3"/>
       <c r="Q238" s="3"/>
       <c r="R238" s="3">
         <v>0</v>
       </c>
-      <c r="S238" s="3"/>
+      <c r="S238" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T238" s="3"/>
       <c r="U238" s="3"/>
       <c r="V238" s="3"/>
@@ -18801,19 +18805,21 @@
       <c r="X238" s="3"/>
       <c r="Y238" s="3"/>
       <c r="Z238" s="6" t="s">
-        <v>658</v>
+        <v>184</v>
       </c>
       <c r="AA238" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB238" s="3"/>
+      <c r="AB238" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="239" spans="1:28">
       <c r="A239" s="7">
         <v>237</v>
       </c>
       <c r="B239" s="7">
-        <v>2025090012</v>
+        <v>2025090307</v>
       </c>
       <c r="C239" s="7">
         <v>1</v>
@@ -18828,16 +18834,16 @@
         <v>179</v>
       </c>
       <c r="G239" s="7" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="H239" s="7" t="s">
-        <v>660</v>
+        <v>550</v>
       </c>
       <c r="I239" s="7" t="s">
         <v>655</v>
       </c>
       <c r="J239" s="7" t="s">
-        <v>161</v>
+        <v>567</v>
       </c>
       <c r="K239" s="7" t="s">
         <v>162</v>
@@ -18867,7 +18873,7 @@
       <c r="X239" s="7"/>
       <c r="Y239" s="7"/>
       <c r="Z239" s="8" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="AA239" s="7" t="s">
         <v>40</v>
@@ -18879,7 +18885,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="3">
-        <v>2025090712</v>
+        <v>2025090012</v>
       </c>
       <c r="C240" s="3">
         <v>1</v>
@@ -18891,16 +18897,16 @@
         <v>610</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="J240" s="3" t="s">
         <v>161</v>
@@ -18912,10 +18918,10 @@
         <v>163</v>
       </c>
       <c r="M240" s="6" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="N240" s="6" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="O240" s="3" t="s">
         <v>156</v>
@@ -18933,21 +18939,19 @@
       <c r="X240" s="3"/>
       <c r="Y240" s="3"/>
       <c r="Z240" s="6" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="AA240" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB240" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB240" s="3"/>
     </row>
     <row r="241" spans="1:28">
       <c r="A241" s="7">
         <v>239</v>
       </c>
       <c r="B241" s="7">
-        <v>2025090821</v>
+        <v>2025090712</v>
       </c>
       <c r="C241" s="7">
         <v>1</v>
@@ -18970,8 +18974,12 @@
       <c r="I241" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="J241" s="7"/>
-      <c r="K241" s="7"/>
+      <c r="J241" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K241" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="L241" s="8" t="s">
         <v>163</v>
       </c>
@@ -18982,36 +18990,36 @@
         <v>666</v>
       </c>
       <c r="O241" s="7" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="P241" s="7"/>
       <c r="Q241" s="7"/>
       <c r="R241" s="7">
         <v>0</v>
       </c>
-      <c r="S241" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S241" s="7"/>
       <c r="T241" s="7"/>
       <c r="U241" s="7"/>
       <c r="V241" s="7"/>
       <c r="W241" s="7"/>
       <c r="X241" s="7"/>
-      <c r="Y241" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="Y241" s="7"/>
       <c r="Z241" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA241" s="7"/>
-      <c r="AB241" s="7"/>
+        <v>667</v>
+      </c>
+      <c r="AA241" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB241" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="242" spans="1:28">
       <c r="A242" s="3">
         <v>240</v>
       </c>
       <c r="B242" s="3">
-        <v>2025090957</v>
+        <v>2025090821</v>
       </c>
       <c r="C242" s="3">
         <v>1</v>
@@ -19023,23 +19031,19 @@
         <v>610</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>275</v>
+        <v>113</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="I242" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="J242" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K242" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="J242" s="3"/>
+      <c r="K242" s="3"/>
       <c r="L242" s="6" t="s">
         <v>163</v>
       </c>
@@ -19050,36 +19054,36 @@
         <v>666</v>
       </c>
       <c r="O242" s="3" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="P242" s="3"/>
       <c r="Q242" s="3"/>
       <c r="R242" s="3">
         <v>0</v>
       </c>
-      <c r="S242" s="3"/>
+      <c r="S242" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T242" s="3"/>
       <c r="U242" s="3"/>
       <c r="V242" s="3"/>
       <c r="W242" s="3"/>
       <c r="X242" s="3"/>
-      <c r="Y242" s="3"/>
+      <c r="Y242" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="Z242" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="AA242" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB242" s="3">
-        <v>1</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="AA242" s="3"/>
+      <c r="AB242" s="3"/>
     </row>
     <row r="243" spans="1:28">
       <c r="A243" s="7">
         <v>241</v>
       </c>
       <c r="B243" s="7">
-        <v>2025090555</v>
+        <v>2025090957</v>
       </c>
       <c r="C243" s="7">
         <v>1</v>
@@ -19091,16 +19095,16 @@
         <v>610</v>
       </c>
       <c r="F243" s="7" t="s">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="G243" s="7" t="s">
-        <v>381</v>
+        <v>668</v>
       </c>
       <c r="H243" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I243" s="7" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="J243" s="7" t="s">
         <v>161</v>
@@ -19112,10 +19116,10 @@
         <v>163</v>
       </c>
       <c r="M243" s="8" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="N243" s="8" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="O243" s="7" t="s">
         <v>156</v>
@@ -19133,7 +19137,7 @@
       <c r="X243" s="7"/>
       <c r="Y243" s="7"/>
       <c r="Z243" s="8" t="s">
-        <v>674</v>
+        <v>632</v>
       </c>
       <c r="AA243" s="7" t="s">
         <v>40</v>
@@ -19147,7 +19151,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="3">
-        <v>2025090857</v>
+        <v>2025090555</v>
       </c>
       <c r="C244" s="3">
         <v>1</v>
@@ -19159,13 +19163,13 @@
         <v>610</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>675</v>
+        <v>381</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="I244" s="3" t="s">
         <v>671</v>
@@ -19201,7 +19205,7 @@
       <c r="X244" s="3"/>
       <c r="Y244" s="3"/>
       <c r="Z244" s="6" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="AA244" s="3" t="s">
         <v>40</v>
@@ -19215,7 +19219,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="7">
-        <v>2025090805</v>
+        <v>2025090857</v>
       </c>
       <c r="C245" s="7">
         <v>1</v>
@@ -19227,39 +19231,41 @@
         <v>610</v>
       </c>
       <c r="F245" s="7" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="G245" s="7" t="s">
-        <v>320</v>
+        <v>675</v>
       </c>
       <c r="H245" s="7" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I245" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="J245" s="7"/>
-      <c r="K245" s="7"/>
+        <v>671</v>
+      </c>
+      <c r="J245" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K245" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="L245" s="8" t="s">
         <v>163</v>
       </c>
       <c r="M245" s="8" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="N245" s="8" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="O245" s="7" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="P245" s="7"/>
       <c r="Q245" s="7"/>
       <c r="R245" s="7">
         <v>0</v>
       </c>
-      <c r="S245" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S245" s="7"/>
       <c r="T245" s="7"/>
       <c r="U245" s="7"/>
       <c r="V245" s="7"/>
@@ -19267,7 +19273,7 @@
       <c r="X245" s="7"/>
       <c r="Y245" s="7"/>
       <c r="Z245" s="8" t="s">
-        <v>184</v>
+        <v>677</v>
       </c>
       <c r="AA245" s="7" t="s">
         <v>40</v>
@@ -19281,7 +19287,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="3">
-        <v>2025092145</v>
+        <v>2025090805</v>
       </c>
       <c r="C246" s="3">
         <v>1</v>
@@ -19293,41 +19299,39 @@
         <v>610</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>682</v>
+        <v>320</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="I246" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="J246" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K246" s="3" t="s">
-        <v>162</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="J246" s="3"/>
+      <c r="K246" s="3"/>
       <c r="L246" s="6" t="s">
         <v>163</v>
       </c>
       <c r="M246" s="6" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="N246" s="6" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="O246" s="3" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="P246" s="3"/>
       <c r="Q246" s="3"/>
       <c r="R246" s="3">
         <v>0</v>
       </c>
-      <c r="S246" s="3"/>
+      <c r="S246" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T246" s="3"/>
       <c r="U246" s="3"/>
       <c r="V246" s="3"/>
@@ -19335,7 +19339,7 @@
       <c r="X246" s="3"/>
       <c r="Y246" s="3"/>
       <c r="Z246" s="6" t="s">
-        <v>687</v>
+        <v>184</v>
       </c>
       <c r="AA246" s="3" t="s">
         <v>40</v>
@@ -19349,7 +19353,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="7">
-        <v>2025091105</v>
+        <v>2025092145</v>
       </c>
       <c r="C247" s="7">
         <v>1</v>
@@ -19361,16 +19365,16 @@
         <v>610</v>
       </c>
       <c r="F247" s="7" t="s">
-        <v>275</v>
+        <v>31</v>
       </c>
       <c r="G247" s="7" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="H247" s="7" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="I247" s="7" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="J247" s="7" t="s">
         <v>161</v>
@@ -19382,10 +19386,10 @@
         <v>163</v>
       </c>
       <c r="M247" s="8" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="N247" s="8" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="O247" s="7" t="s">
         <v>156</v>
@@ -19403,7 +19407,7 @@
       <c r="X247" s="7"/>
       <c r="Y247" s="7"/>
       <c r="Z247" s="8" t="s">
-        <v>661</v>
+        <v>687</v>
       </c>
       <c r="AA247" s="7" t="s">
         <v>40</v>
@@ -19417,7 +19421,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="3">
-        <v>2025091130</v>
+        <v>2025091105</v>
       </c>
       <c r="C248" s="3">
         <v>1</v>
@@ -19432,16 +19436,16 @@
         <v>275</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>261</v>
+        <v>689</v>
       </c>
       <c r="I248" s="3" t="s">
         <v>690</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>567</v>
+        <v>161</v>
       </c>
       <c r="K248" s="3" t="s">
         <v>162</v>
@@ -19471,19 +19475,21 @@
       <c r="X248" s="3"/>
       <c r="Y248" s="3"/>
       <c r="Z248" s="6" t="s">
-        <v>694</v>
+        <v>661</v>
       </c>
       <c r="AA248" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB248" s="3"/>
+      <c r="AB248" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="249" spans="1:28">
       <c r="A249" s="7">
         <v>247</v>
       </c>
       <c r="B249" s="7">
-        <v>2025090814</v>
+        <v>2025091130</v>
       </c>
       <c r="C249" s="7">
         <v>1</v>
@@ -19495,39 +19501,41 @@
         <v>610</v>
       </c>
       <c r="F249" s="7" t="s">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="G249" s="7" t="s">
-        <v>51</v>
+        <v>693</v>
       </c>
       <c r="H249" s="7" t="s">
-        <v>695</v>
+        <v>261</v>
       </c>
       <c r="I249" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="J249" s="7"/>
-      <c r="K249" s="7"/>
+        <v>690</v>
+      </c>
+      <c r="J249" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="K249" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="L249" s="8" t="s">
         <v>163</v>
       </c>
       <c r="M249" s="8" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="N249" s="8" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="O249" s="7" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="P249" s="7"/>
       <c r="Q249" s="7"/>
       <c r="R249" s="7">
         <v>0</v>
       </c>
-      <c r="S249" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S249" s="7"/>
       <c r="T249" s="7"/>
       <c r="U249" s="7"/>
       <c r="V249" s="7"/>
@@ -19535,21 +19543,19 @@
       <c r="X249" s="7"/>
       <c r="Y249" s="7"/>
       <c r="Z249" s="8" t="s">
-        <v>184</v>
+        <v>694</v>
       </c>
       <c r="AA249" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB249" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB249" s="7"/>
     </row>
     <row r="250" spans="1:28">
       <c r="A250" s="3">
         <v>248</v>
       </c>
       <c r="B250" s="3">
-        <v>2025091612</v>
+        <v>2025090814</v>
       </c>
       <c r="C250" s="3">
         <v>1</v>
@@ -19561,23 +19567,19 @@
         <v>610</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>640</v>
+        <v>51</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>320</v>
+        <v>695</v>
       </c>
       <c r="I250" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="J250" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K250" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="J250" s="3"/>
+      <c r="K250" s="3"/>
       <c r="L250" s="6" t="s">
         <v>163</v>
       </c>
@@ -19588,14 +19590,16 @@
         <v>698</v>
       </c>
       <c r="O250" s="3" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="P250" s="3"/>
       <c r="Q250" s="3"/>
       <c r="R250" s="3">
         <v>0</v>
       </c>
-      <c r="S250" s="3"/>
+      <c r="S250" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T250" s="3"/>
       <c r="U250" s="3"/>
       <c r="V250" s="3"/>
@@ -19603,7 +19607,7 @@
       <c r="X250" s="3"/>
       <c r="Y250" s="3"/>
       <c r="Z250" s="6" t="s">
-        <v>699</v>
+        <v>184</v>
       </c>
       <c r="AA250" s="3" t="s">
         <v>40</v>
@@ -19617,7 +19621,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="7">
-        <v>2025091812</v>
+        <v>2025091612</v>
       </c>
       <c r="C251" s="7">
         <v>1</v>
@@ -19635,7 +19639,7 @@
         <v>640</v>
       </c>
       <c r="H251" s="7" t="s">
-        <v>700</v>
+        <v>320</v>
       </c>
       <c r="I251" s="7" t="s">
         <v>696</v>
@@ -19671,19 +19675,21 @@
       <c r="X251" s="7"/>
       <c r="Y251" s="7"/>
       <c r="Z251" s="8" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AA251" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB251" s="7"/>
+      <c r="AB251" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="252" spans="1:28">
       <c r="A252" s="3">
         <v>250</v>
       </c>
       <c r="B252" s="3">
-        <v>2025091738</v>
+        <v>2025091812</v>
       </c>
       <c r="C252" s="3">
         <v>1</v>
@@ -19698,10 +19704,10 @@
         <v>167</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>702</v>
+        <v>640</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="I252" s="3" t="s">
         <v>696</v>
@@ -19737,7 +19743,7 @@
       <c r="X252" s="3"/>
       <c r="Y252" s="3"/>
       <c r="Z252" s="6" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="AA252" s="3" t="s">
         <v>40</v>
@@ -19749,7 +19755,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="7">
-        <v>2025090963</v>
+        <v>2025091738</v>
       </c>
       <c r="C253" s="7">
         <v>1</v>
@@ -19761,16 +19767,16 @@
         <v>610</v>
       </c>
       <c r="F253" s="7" t="s">
-        <v>275</v>
+        <v>167</v>
       </c>
       <c r="G253" s="7" t="s">
-        <v>69</v>
+        <v>702</v>
       </c>
       <c r="H253" s="7" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="I253" s="7" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="J253" s="7" t="s">
         <v>161</v>
@@ -19782,10 +19788,10 @@
         <v>163</v>
       </c>
       <c r="M253" s="8" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="N253" s="8" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="O253" s="7" t="s">
         <v>156</v>
@@ -19803,21 +19809,19 @@
       <c r="X253" s="7"/>
       <c r="Y253" s="7"/>
       <c r="Z253" s="8" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="AA253" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB253" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB253" s="7"/>
     </row>
     <row r="254" spans="1:28">
       <c r="A254" s="3">
         <v>252</v>
       </c>
       <c r="B254" s="3">
-        <v>2025090797</v>
+        <v>2025090963</v>
       </c>
       <c r="C254" s="3">
         <v>1</v>
@@ -19829,39 +19833,41 @@
         <v>610</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>353</v>
+        <v>69</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="J254" s="3"/>
-      <c r="K254" s="3"/>
+        <v>706</v>
+      </c>
+      <c r="J254" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K254" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="L254" s="6" t="s">
         <v>163</v>
       </c>
       <c r="M254" s="6" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="N254" s="6" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="O254" s="3" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="P254" s="3"/>
       <c r="Q254" s="3"/>
       <c r="R254" s="3">
         <v>0</v>
       </c>
-      <c r="S254" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S254" s="3"/>
       <c r="T254" s="3"/>
       <c r="U254" s="3"/>
       <c r="V254" s="3"/>
@@ -19869,7 +19875,7 @@
       <c r="X254" s="3"/>
       <c r="Y254" s="3"/>
       <c r="Z254" s="6" t="s">
-        <v>184</v>
+        <v>709</v>
       </c>
       <c r="AA254" s="3" t="s">
         <v>40</v>
@@ -19883,7 +19889,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="7">
-        <v>2025092112</v>
+        <v>2025090797</v>
       </c>
       <c r="C255" s="7">
         <v>1</v>
@@ -19895,16 +19901,16 @@
         <v>610</v>
       </c>
       <c r="F255" s="7" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="G255" s="7" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="H255" s="7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I255" s="7" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="J255" s="7"/>
       <c r="K255" s="7"/>
@@ -19912,10 +19918,10 @@
         <v>163</v>
       </c>
       <c r="M255" s="8" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="N255" s="8" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="O255" s="7" t="s">
         <v>39</v>
@@ -19949,7 +19955,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="3">
-        <v>2025091544</v>
+        <v>2025092112</v>
       </c>
       <c r="C256" s="3">
         <v>1</v>
@@ -19961,31 +19967,27 @@
         <v>610</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>210</v>
+        <v>31</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>197</v>
+        <v>381</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>359</v>
+        <v>714</v>
       </c>
       <c r="I256" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="J256" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="K256" s="3" t="s">
-        <v>720</v>
-      </c>
+        <v>715</v>
+      </c>
+      <c r="J256" s="3"/>
+      <c r="K256" s="3"/>
       <c r="L256" s="6" t="s">
-        <v>721</v>
+        <v>163</v>
       </c>
       <c r="M256" s="6" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="N256" s="6" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="O256" s="3" t="s">
         <v>39</v>
@@ -19995,57 +19997,127 @@
       <c r="R256" s="3">
         <v>0</v>
       </c>
-      <c r="S256" s="3"/>
-      <c r="T256" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S256" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T256" s="3"/>
       <c r="U256" s="3"/>
       <c r="V256" s="3"/>
       <c r="W256" s="3"/>
       <c r="X256" s="3"/>
       <c r="Y256" s="3"/>
       <c r="Z256" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA256" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB256" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:28">
+      <c r="A257" s="7">
+        <v>255</v>
+      </c>
+      <c r="B257" s="7">
+        <v>2025091544</v>
+      </c>
+      <c r="C257" s="7">
+        <v>1</v>
+      </c>
+      <c r="D257" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E257" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="F257" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G257" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H257" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="I257" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="J257" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="K257" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="L257" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="M257" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="N257" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="O257" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P257" s="7"/>
+      <c r="Q257" s="7"/>
+      <c r="R257" s="7">
+        <v>0</v>
+      </c>
+      <c r="S257" s="7"/>
+      <c r="T257" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U257" s="7"/>
+      <c r="V257" s="7"/>
+      <c r="W257" s="7"/>
+      <c r="X257" s="7"/>
+      <c r="Y257" s="7"/>
+      <c r="Z257" s="8" t="s">
         <v>724</v>
       </c>
-      <c r="AA256" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB256" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:28">
-      <c r="A257" s="9"/>
-      <c r="B257" s="9"/>
-      <c r="C257" s="9"/>
-      <c r="D257" s="9"/>
-      <c r="E257" s="9"/>
-      <c r="F257" s="9"/>
-      <c r="G257" s="9"/>
-      <c r="H257" s="9"/>
-      <c r="I257" s="9"/>
-      <c r="J257" s="9"/>
-      <c r="K257" s="9"/>
-      <c r="L257" s="10"/>
-      <c r="M257" s="10"/>
-      <c r="N257" s="10"/>
-      <c r="O257" s="9"/>
-      <c r="P257" s="9"/>
-      <c r="Q257" s="9"/>
-      <c r="R257" s="9"/>
-      <c r="S257" s="9"/>
-      <c r="T257" s="9"/>
-      <c r="U257" s="9"/>
-      <c r="V257" s="9"/>
-      <c r="W257" s="9"/>
-      <c r="X257" s="9"/>
-      <c r="Y257" s="9"/>
-      <c r="Z257" s="10"/>
-      <c r="AA257" s="9" t="s">
+      <c r="AA257" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB257" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:28">
+      <c r="A258" s="9"/>
+      <c r="B258" s="9"/>
+      <c r="C258" s="9"/>
+      <c r="D258" s="9"/>
+      <c r="E258" s="9"/>
+      <c r="F258" s="9"/>
+      <c r="G258" s="9"/>
+      <c r="H258" s="9"/>
+      <c r="I258" s="9"/>
+      <c r="J258" s="9"/>
+      <c r="K258" s="9"/>
+      <c r="L258" s="10"/>
+      <c r="M258" s="10"/>
+      <c r="N258" s="10"/>
+      <c r="O258" s="9"/>
+      <c r="P258" s="9"/>
+      <c r="Q258" s="9"/>
+      <c r="R258" s="9"/>
+      <c r="S258" s="9"/>
+      <c r="T258" s="9"/>
+      <c r="U258" s="9"/>
+      <c r="V258" s="9"/>
+      <c r="W258" s="9"/>
+      <c r="X258" s="9"/>
+      <c r="Y258" s="9"/>
+      <c r="Z258" s="10"/>
+      <c r="AA258" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="AB257" s="9">
-        <v>136</v>
+      <c r="AB258" s="9">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202509_Service_Count_Report.xlsx
+++ b/IM/202509_Service_Count_Report.xlsx
@@ -2323,6 +2323,11 @@
     <t>北縣僑中三店</t>
   </si>
   <si>
+    <t>更換發票機
+換上 8155004438
+換下 8155006284</t>
+  </si>
+  <si>
     <t>15:25:00</t>
   </si>
   <si>
@@ -2332,11 +2337,6 @@
 1 嘗試交易 正常
 2 登出登入 正常
 3 重新開機 正常</t>
-  </si>
-  <si>
-    <t>更換發票機
-換上 8155004438
-換下 8155006284</t>
   </si>
   <si>
     <t>14:46:00</t>
@@ -3894,7 +3894,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2025092220</v>
+        <v>2025092219</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         <v>85</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3">
@@ -3942,7 +3942,9 @@
       <c r="R16" s="3">
         <v>65895</v>
       </c>
-      <c r="S16" s="3"/>
+      <c r="S16" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -3964,7 +3966,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2025092219</v>
+        <v>2025092220</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -4003,7 +4005,7 @@
         <v>85</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7">
@@ -4012,9 +4014,7 @@
       <c r="R17" s="7">
         <v>65895</v>
       </c>
-      <c r="S17" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
@@ -9454,7 +9454,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3">
-        <v>2025091372</v>
+        <v>2025091374</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
@@ -9493,19 +9493,17 @@
         <v>380</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P98" s="3"/>
       <c r="Q98" s="3">
-        <v>29570</v>
+        <v>29573</v>
       </c>
       <c r="R98" s="3">
         <v>25842</v>
       </c>
       <c r="S98" s="3"/>
-      <c r="T98" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="T98" s="3"/>
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
@@ -9526,7 +9524,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="7">
-        <v>2025091373</v>
+        <v>2025091372</v>
       </c>
       <c r="C99" s="7">
         <v>1</v>
@@ -9569,15 +9567,15 @@
       </c>
       <c r="P99" s="7"/>
       <c r="Q99" s="7">
-        <v>29573</v>
+        <v>29570</v>
       </c>
       <c r="R99" s="7">
         <v>25842</v>
       </c>
-      <c r="S99" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="T99" s="7"/>
+      <c r="S99" s="7"/>
+      <c r="T99" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="U99" s="7"/>
       <c r="V99" s="7"/>
       <c r="W99" s="7"/>
@@ -9586,7 +9584,9 @@
       <c r="Z99" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="AA99" s="7"/>
+      <c r="AA99" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="AB99" s="7"/>
     </row>
     <row r="100" spans="1:28">
@@ -9594,7 +9594,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3">
-        <v>2025091374</v>
+        <v>2025091373</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
@@ -9633,7 +9633,7 @@
         <v>380</v>
       </c>
       <c r="O100" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P100" s="3"/>
       <c r="Q100" s="3">
@@ -9642,7 +9642,9 @@
       <c r="R100" s="3">
         <v>25842</v>
       </c>
-      <c r="S100" s="3"/>
+      <c r="S100" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
@@ -9652,9 +9654,7 @@
       <c r="Z100" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="AA100" s="3"/>
       <c r="AB100" s="3"/>
     </row>
     <row r="101" spans="1:28">
@@ -9934,7 +9934,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="7">
-        <v>2025092238</v>
+        <v>2025092237</v>
       </c>
       <c r="C105" s="7">
         <v>1</v>
@@ -9973,7 +9973,7 @@
         <v>393</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P105" s="7"/>
       <c r="Q105" s="7">
@@ -9982,7 +9982,9 @@
       <c r="R105" s="7">
         <v>32582</v>
       </c>
-      <c r="S105" s="7"/>
+      <c r="S105" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T105" s="7"/>
       <c r="U105" s="7"/>
       <c r="V105" s="7"/>
@@ -9992,19 +9994,15 @@
       <c r="Z105" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="AA105" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB105" s="7">
-        <v>1</v>
-      </c>
+      <c r="AA105" s="7"/>
+      <c r="AB105" s="7"/>
     </row>
     <row r="106" spans="1:28">
       <c r="A106" s="3">
         <v>104</v>
       </c>
       <c r="B106" s="3">
-        <v>2025092237</v>
+        <v>2025092238</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
@@ -10043,7 +10041,7 @@
         <v>393</v>
       </c>
       <c r="O106" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P106" s="3"/>
       <c r="Q106" s="3">
@@ -10052,9 +10050,7 @@
       <c r="R106" s="3">
         <v>32582</v>
       </c>
-      <c r="S106" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S106" s="3"/>
       <c r="T106" s="3"/>
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
@@ -10064,7 +10060,9 @@
       <c r="Z106" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="AA106" s="3"/>
+      <c r="AA106" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="AB106" s="3"/>
     </row>
     <row r="107" spans="1:28">
@@ -10072,7 +10070,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="7">
-        <v>2025090953</v>
+        <v>2025090954</v>
       </c>
       <c r="C107" s="7">
         <v>1</v>
@@ -10111,7 +10109,7 @@
         <v>397</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P107" s="7">
         <v>6429</v>
@@ -10122,9 +10120,7 @@
       <c r="R107" s="7">
         <v>18367</v>
       </c>
-      <c r="S107" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S107" s="7"/>
       <c r="T107" s="7"/>
       <c r="U107" s="7"/>
       <c r="V107" s="7"/>
@@ -10146,7 +10142,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3">
-        <v>2025090954</v>
+        <v>2025090953</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
@@ -10185,7 +10181,7 @@
         <v>397</v>
       </c>
       <c r="O108" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P108" s="3">
         <v>6429</v>
@@ -10196,7 +10192,9 @@
       <c r="R108" s="3">
         <v>18367</v>
       </c>
-      <c r="S108" s="3"/>
+      <c r="S108" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T108" s="3"/>
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
@@ -11256,7 +11254,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3">
-        <v>2025091707</v>
+        <v>2025091708</v>
       </c>
       <c r="C124" s="3">
         <v>1</v>
@@ -11295,16 +11293,14 @@
         <v>428</v>
       </c>
       <c r="O124" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
       <c r="R124" s="3">
         <v>220600</v>
       </c>
-      <c r="S124" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S124" s="3"/>
       <c r="T124" s="3"/>
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
@@ -11314,15 +11310,19 @@
       <c r="Z124" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="AA124" s="3"/>
-      <c r="AB124" s="3"/>
+      <c r="AA124" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB124" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="1:28">
       <c r="A125" s="7">
         <v>123</v>
       </c>
       <c r="B125" s="7">
-        <v>2025091708</v>
+        <v>2025091707</v>
       </c>
       <c r="C125" s="7">
         <v>1</v>
@@ -11361,14 +11361,16 @@
         <v>428</v>
       </c>
       <c r="O125" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7">
         <v>220600</v>
       </c>
-      <c r="S125" s="7"/>
+      <c r="S125" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T125" s="7"/>
       <c r="U125" s="7"/>
       <c r="V125" s="7"/>
@@ -11378,9 +11380,7 @@
       <c r="Z125" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="AA125" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="AA125" s="7"/>
       <c r="AB125" s="7"/>
     </row>
     <row r="126" spans="1:28">
@@ -11932,7 +11932,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3">
-        <v>2025090971</v>
+        <v>2025090972</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
@@ -11969,16 +11969,14 @@
       </c>
       <c r="N134" s="6"/>
       <c r="O134" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P134" s="3"/>
       <c r="Q134" s="3"/>
       <c r="R134" s="3">
         <v>48000</v>
       </c>
-      <c r="S134" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S134" s="3"/>
       <c r="T134" s="3"/>
       <c r="U134" s="3"/>
       <c r="V134" s="3"/>
@@ -12000,7 +11998,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="7">
-        <v>2025090972</v>
+        <v>2025090971</v>
       </c>
       <c r="C135" s="7">
         <v>1</v>
@@ -12037,14 +12035,16 @@
       </c>
       <c r="N135" s="8"/>
       <c r="O135" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P135" s="7"/>
       <c r="Q135" s="7"/>
       <c r="R135" s="7">
         <v>48000</v>
       </c>
-      <c r="S135" s="7"/>
+      <c r="S135" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T135" s="7"/>
       <c r="U135" s="7"/>
       <c r="V135" s="7"/>
@@ -13082,7 +13082,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="7">
-        <v>2025092230</v>
+        <v>2025092229</v>
       </c>
       <c r="C151" s="7">
         <v>1</v>
@@ -13121,7 +13121,7 @@
         <v>483</v>
       </c>
       <c r="O151" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P151" s="7"/>
       <c r="Q151" s="7">
@@ -13130,7 +13130,9 @@
       <c r="R151" s="7">
         <v>22998</v>
       </c>
-      <c r="S151" s="7"/>
+      <c r="S151" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="T151" s="7"/>
       <c r="U151" s="7"/>
       <c r="V151" s="7"/>
@@ -13140,19 +13142,15 @@
       <c r="Z151" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="AA151" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB151" s="7">
-        <v>1</v>
-      </c>
+      <c r="AA151" s="7"/>
+      <c r="AB151" s="7"/>
     </row>
     <row r="152" spans="1:28">
       <c r="A152" s="3">
         <v>150</v>
       </c>
       <c r="B152" s="3">
-        <v>2025092229</v>
+        <v>2025092230</v>
       </c>
       <c r="C152" s="3">
         <v>1</v>
@@ -13191,7 +13189,7 @@
         <v>483</v>
       </c>
       <c r="O152" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P152" s="3"/>
       <c r="Q152" s="3">
@@ -13200,9 +13198,7 @@
       <c r="R152" s="3">
         <v>22998</v>
       </c>
-      <c r="S152" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="S152" s="3"/>
       <c r="T152" s="3"/>
       <c r="U152" s="3"/>
       <c r="V152" s="3"/>
@@ -13212,7 +13208,9 @@
       <c r="Z152" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="AA152" s="3"/>
+      <c r="AA152" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="AB152" s="3"/>
     </row>
     <row r="153" spans="1:28">
@@ -13758,7 +13756,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="7">
-        <v>2025090402</v>
+        <v>2025090403</v>
       </c>
       <c r="C161" s="7">
         <v>1</v>
@@ -13797,16 +13795,14 @@
         <v>497</v>
       </c>
       <c r="O161" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P161" s="7"/>
       <c r="Q161" s="7"/>
       <c r="R161" s="7">
         <v>117282</v>
       </c>
-      <c r="S161" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S161" s="7"/>
       <c r="T161" s="7"/>
       <c r="U161" s="7"/>
       <c r="V161" s="7"/>
@@ -13816,15 +13812,19 @@
       <c r="Z161" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="AA161" s="7"/>
-      <c r="AB161" s="7"/>
+      <c r="AA161" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB161" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="162" spans="1:28">
       <c r="A162" s="3">
         <v>160</v>
       </c>
       <c r="B162" s="3">
-        <v>2025090403</v>
+        <v>2025090402</v>
       </c>
       <c r="C162" s="3">
         <v>1</v>
@@ -13863,14 +13863,16 @@
         <v>497</v>
       </c>
       <c r="O162" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P162" s="3"/>
       <c r="Q162" s="3"/>
       <c r="R162" s="3">
         <v>117282</v>
       </c>
-      <c r="S162" s="3"/>
+      <c r="S162" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T162" s="3"/>
       <c r="U162" s="3"/>
       <c r="V162" s="3"/>
@@ -13880,9 +13882,7 @@
       <c r="Z162" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="AA162" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="AA162" s="3"/>
       <c r="AB162" s="3"/>
     </row>
     <row r="163" spans="1:28">
@@ -20396,7 +20396,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="3">
-        <v>2025090712</v>
+        <v>2025090821</v>
       </c>
       <c r="C260" s="3">
         <v>1</v>
@@ -20419,12 +20419,8 @@
       <c r="I260" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="J260" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="K260" s="3" t="s">
-        <v>175</v>
-      </c>
+      <c r="J260" s="3"/>
+      <c r="K260" s="3"/>
       <c r="L260" s="6" t="s">
         <v>176</v>
       </c>
@@ -20435,36 +20431,36 @@
         <v>712</v>
       </c>
       <c r="O260" s="3" t="s">
-        <v>167</v>
+        <v>39</v>
       </c>
       <c r="P260" s="3"/>
       <c r="Q260" s="3"/>
       <c r="R260" s="3">
         <v>0</v>
       </c>
-      <c r="S260" s="3"/>
+      <c r="S260" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="T260" s="3"/>
       <c r="U260" s="3"/>
       <c r="V260" s="3"/>
       <c r="W260" s="3"/>
       <c r="X260" s="3"/>
-      <c r="Y260" s="3"/>
+      <c r="Y260" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="Z260" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="AA260" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB260" s="3">
-        <v>1</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="AA260" s="3"/>
+      <c r="AB260" s="3"/>
     </row>
     <row r="261" spans="1:28">
       <c r="A261" s="7">
         <v>259</v>
       </c>
       <c r="B261" s="7">
-        <v>2025090821</v>
+        <v>2025090712</v>
       </c>
       <c r="C261" s="7">
         <v>1</v>
@@ -20487,8 +20483,12 @@
       <c r="I261" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="J261" s="7"/>
-      <c r="K261" s="7"/>
+      <c r="J261" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K261" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="L261" s="8" t="s">
         <v>176</v>
       </c>
@@ -20499,28 +20499,26 @@
         <v>712</v>
       </c>
       <c r="O261" s="7" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="P261" s="7"/>
       <c r="Q261" s="7"/>
       <c r="R261" s="7">
         <v>0</v>
       </c>
-      <c r="S261" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="S261" s="7"/>
       <c r="T261" s="7"/>
       <c r="U261" s="7"/>
       <c r="V261" s="7"/>
       <c r="W261" s="7"/>
       <c r="X261" s="7"/>
-      <c r="Y261" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="Y261" s="7"/>
       <c r="Z261" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA261" s="7"/>
+        <v>713</v>
+      </c>
+      <c r="AA261" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="AB261" s="7"/>
     </row>
     <row r="262" spans="1:28">
@@ -21066,7 +21064,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="3">
-        <v>2025091812</v>
+        <v>2025091612</v>
       </c>
       <c r="C270" s="3">
         <v>1</v>
@@ -21084,7 +21082,7 @@
         <v>686</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>743</v>
+        <v>344</v>
       </c>
       <c r="I270" s="3" t="s">
         <v>740</v>
@@ -21120,7 +21118,7 @@
       <c r="X270" s="3"/>
       <c r="Y270" s="3"/>
       <c r="Z270" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AA270" s="3" t="s">
         <v>40</v>
@@ -21134,7 +21132,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="7">
-        <v>2025091612</v>
+        <v>2025091812</v>
       </c>
       <c r="C271" s="7">
         <v>1</v>
@@ -21152,7 +21150,7 @@
         <v>686</v>
       </c>
       <c r="H271" s="7" t="s">
-        <v>344</v>
+        <v>744</v>
       </c>
       <c r="I271" s="7" t="s">
         <v>740</v>
@@ -21630,7 +21628,7 @@
         <v>770</v>
       </c>
       <c r="AB278" s="9">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
